--- a/PenAndPaperTabellen.xlsx
+++ b/PenAndPaperTabellen.xlsx
@@ -5,10 +5,10 @@
   <workbookPr hidePivotFieldList="1" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Leonardo Jurisic\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Leonardo Jurisic\Desktop\Gegner\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{41487E56-DAAB-4342-AEC9-76158289AB61}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{7FE6539F-01DD-407E-907B-B9F46EA94F6E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" activeTab="1" xr2:uid="{396B72A2-12CE-422A-97A0-75A4949D3867}"/>
   </bookViews>
@@ -19,7 +19,6 @@
     <sheet name="Diblomatische Beziehung" sheetId="6" r:id="rId4"/>
   </sheets>
   <calcPr calcId="162913"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -29,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="322" uniqueCount="170">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="362" uniqueCount="208">
   <si>
     <t xml:space="preserve">Klassen / Rassen </t>
   </si>
@@ -556,7 +555,121 @@
     <t>+2 Stäke</t>
   </si>
   <si>
-    <t>Mjolnir Halsband</t>
+    <t>Gold Loot x 2</t>
+  </si>
+  <si>
+    <t>Andvaranaut Ring</t>
+  </si>
+  <si>
+    <t>Brisingamen Kette</t>
+  </si>
+  <si>
+    <t>+2 Zauberstärke</t>
+  </si>
+  <si>
+    <t>Draupnir Ring</t>
+  </si>
+  <si>
+    <t>Erhöht den Einfluss</t>
+  </si>
+  <si>
+    <t>Gjallarhorn</t>
+  </si>
+  <si>
+    <t>Selbstfüllendes Horn (Bier)</t>
+  </si>
+  <si>
+    <t>Wolfsfell(500g)</t>
+  </si>
+  <si>
+    <t>Kompass</t>
+  </si>
+  <si>
+    <t>Wünschelrute</t>
+  </si>
+  <si>
+    <t>Sack Kartoffeln</t>
+  </si>
+  <si>
+    <t>5 x Kekse</t>
+  </si>
+  <si>
+    <t>Eisen Kettenhemd(10kg)</t>
+  </si>
+  <si>
+    <t>Schokolade</t>
+  </si>
+  <si>
+    <t>Stoffverband</t>
+  </si>
+  <si>
+    <t>Öl Lampe</t>
+  </si>
+  <si>
+    <t>Vorschlaghammer(2kg)</t>
+  </si>
+  <si>
+    <t>Kettenhaube(2,1kg)</t>
+  </si>
+  <si>
+    <t>Mjölnir Halsband</t>
+  </si>
+  <si>
+    <t>Kettenbeine(5kg)</t>
+  </si>
+  <si>
+    <t>Einhandaxt(1,2kg)</t>
+  </si>
+  <si>
+    <t>Holzschild(3kg)</t>
+  </si>
+  <si>
+    <t>Zelt (8kg) (2 Personen)</t>
+  </si>
+  <si>
+    <t>Feuerstein</t>
+  </si>
+  <si>
+    <t>Effekt:</t>
+  </si>
+  <si>
+    <t>Holzscheitel</t>
+  </si>
+  <si>
+    <t>Langbogen(1kg)</t>
+  </si>
+  <si>
+    <t>Pfeile</t>
+  </si>
+  <si>
+    <t>Kurzschwert(1,6kg)</t>
+  </si>
+  <si>
+    <t>Langschwert(2kg)</t>
+  </si>
+  <si>
+    <t>Redekunst</t>
+  </si>
+  <si>
+    <t>Schmiedekunst</t>
+  </si>
+  <si>
+    <t>Attribute der Chars(max Punkte 15):</t>
+  </si>
+  <si>
+    <t>Diebstahl</t>
+  </si>
+  <si>
+    <t>Stoffverarbeitung</t>
+  </si>
+  <si>
+    <t>Intelligenz</t>
+  </si>
+  <si>
+    <t>Schleichen</t>
+  </si>
+  <si>
+    <t>Tierumgang</t>
   </si>
 </sst>
 </file>
@@ -863,7 +976,7 @@
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="45">
+  <cellXfs count="48">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" quotePrefix="1" applyFill="1"/>
@@ -927,6 +1040,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -941,10 +1057,16 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="6" xfId="10" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="8" xfId="13" applyAlignment="1">
@@ -953,12 +1075,10 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" xfId="7" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="6" xfId="10" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" xfId="7" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="14">
     <cellStyle name="Akzent3" xfId="11" builtinId="37"/>
@@ -1914,24 +2034,24 @@
       <c r="G11" s="1"/>
       <c r="H11" s="1"/>
       <c r="I11" s="1"/>
-      <c r="K11" s="35"/>
+      <c r="K11" s="36"/>
       <c r="L11" s="4"/>
-      <c r="M11" s="34" t="s">
+      <c r="M11" s="35" t="s">
         <v>30</v>
       </c>
-      <c r="N11" s="38"/>
-      <c r="O11" s="36" t="s">
+      <c r="N11" s="39"/>
+      <c r="O11" s="37" t="s">
         <v>54</v>
       </c>
-      <c r="P11" s="37"/>
-      <c r="Q11" s="35"/>
+      <c r="P11" s="38"/>
+      <c r="Q11" s="36"/>
       <c r="S11" s="1"/>
       <c r="U11" s="1"/>
-      <c r="V11" s="34" t="s">
+      <c r="V11" s="35" t="s">
         <v>45</v>
       </c>
-      <c r="W11" s="34"/>
-      <c r="X11" s="34"/>
+      <c r="W11" s="35"/>
+      <c r="X11" s="35"/>
       <c r="Y11" s="23"/>
       <c r="Z11" s="23"/>
       <c r="AA11" s="23"/>
@@ -1947,18 +2067,18 @@
       <c r="G12" s="1"/>
       <c r="H12" s="1"/>
       <c r="I12" s="1"/>
-      <c r="K12" s="35"/>
+      <c r="K12" s="36"/>
       <c r="L12" s="4"/>
-      <c r="M12" s="34"/>
-      <c r="N12" s="38"/>
-      <c r="O12" s="37"/>
-      <c r="P12" s="37"/>
-      <c r="Q12" s="35"/>
+      <c r="M12" s="35"/>
+      <c r="N12" s="39"/>
+      <c r="O12" s="38"/>
+      <c r="P12" s="38"/>
+      <c r="Q12" s="36"/>
       <c r="S12" s="1"/>
       <c r="U12" s="1"/>
-      <c r="V12" s="34"/>
-      <c r="W12" s="34"/>
-      <c r="X12" s="34"/>
+      <c r="V12" s="35"/>
+      <c r="W12" s="35"/>
+      <c r="X12" s="35"/>
       <c r="Y12" s="23"/>
       <c r="Z12" s="23"/>
       <c r="AA12" s="23"/>
@@ -1974,18 +2094,18 @@
       <c r="G13" s="1"/>
       <c r="H13" s="1"/>
       <c r="I13" s="1"/>
-      <c r="K13" s="35"/>
+      <c r="K13" s="36"/>
       <c r="L13" s="4"/>
-      <c r="M13" s="34"/>
-      <c r="N13" s="38"/>
-      <c r="O13" s="37"/>
-      <c r="P13" s="37"/>
-      <c r="Q13" s="35"/>
+      <c r="M13" s="35"/>
+      <c r="N13" s="39"/>
+      <c r="O13" s="38"/>
+      <c r="P13" s="38"/>
+      <c r="Q13" s="36"/>
       <c r="S13" s="1"/>
       <c r="U13" s="1"/>
-      <c r="V13" s="34"/>
-      <c r="W13" s="34"/>
-      <c r="X13" s="34"/>
+      <c r="V13" s="35"/>
+      <c r="W13" s="35"/>
+      <c r="X13" s="35"/>
       <c r="Y13" s="23"/>
       <c r="Z13" s="23"/>
       <c r="AA13" s="23"/>
@@ -2001,18 +2121,18 @@
       <c r="G14" s="1"/>
       <c r="H14" s="1"/>
       <c r="I14" s="1"/>
-      <c r="K14" s="35"/>
+      <c r="K14" s="36"/>
       <c r="L14" s="4"/>
-      <c r="M14" s="34"/>
-      <c r="N14" s="38"/>
-      <c r="O14" s="37"/>
-      <c r="P14" s="37"/>
-      <c r="Q14" s="35"/>
+      <c r="M14" s="35"/>
+      <c r="N14" s="39"/>
+      <c r="O14" s="38"/>
+      <c r="P14" s="38"/>
+      <c r="Q14" s="36"/>
       <c r="S14" s="1"/>
       <c r="U14" s="1"/>
-      <c r="V14" s="34"/>
-      <c r="W14" s="34"/>
-      <c r="X14" s="34"/>
+      <c r="V14" s="35"/>
+      <c r="W14" s="35"/>
+      <c r="X14" s="35"/>
       <c r="Y14" s="23"/>
       <c r="Z14" s="23"/>
       <c r="AA14" s="23"/>
@@ -2028,18 +2148,18 @@
       <c r="G15" s="1"/>
       <c r="H15" s="1"/>
       <c r="I15" s="1"/>
-      <c r="K15" s="35"/>
+      <c r="K15" s="36"/>
       <c r="L15" s="4"/>
-      <c r="M15" s="34"/>
-      <c r="N15" s="38"/>
-      <c r="O15" s="37"/>
-      <c r="P15" s="37"/>
-      <c r="Q15" s="35"/>
+      <c r="M15" s="35"/>
+      <c r="N15" s="39"/>
+      <c r="O15" s="38"/>
+      <c r="P15" s="38"/>
+      <c r="Q15" s="36"/>
       <c r="S15" s="1"/>
       <c r="U15" s="1"/>
-      <c r="V15" s="34"/>
-      <c r="W15" s="34"/>
-      <c r="X15" s="34"/>
+      <c r="V15" s="35"/>
+      <c r="W15" s="35"/>
+      <c r="X15" s="35"/>
       <c r="Y15" s="23"/>
       <c r="Z15" s="23"/>
       <c r="AA15" s="23"/>
@@ -2055,18 +2175,18 @@
       <c r="G16" s="1"/>
       <c r="H16" s="1"/>
       <c r="I16" s="1"/>
-      <c r="K16" s="35"/>
+      <c r="K16" s="36"/>
       <c r="L16" s="4"/>
-      <c r="M16" s="34"/>
-      <c r="N16" s="38"/>
-      <c r="O16" s="37"/>
-      <c r="P16" s="37"/>
-      <c r="Q16" s="35"/>
+      <c r="M16" s="35"/>
+      <c r="N16" s="39"/>
+      <c r="O16" s="38"/>
+      <c r="P16" s="38"/>
+      <c r="Q16" s="36"/>
       <c r="S16" s="1"/>
       <c r="U16" s="1"/>
-      <c r="V16" s="34"/>
-      <c r="W16" s="34"/>
-      <c r="X16" s="34"/>
+      <c r="V16" s="35"/>
+      <c r="W16" s="35"/>
+      <c r="X16" s="35"/>
       <c r="Y16" s="23"/>
       <c r="Z16" s="23"/>
       <c r="AA16" s="23"/>
@@ -2082,18 +2202,18 @@
       <c r="G17" s="1"/>
       <c r="H17" s="1"/>
       <c r="I17" s="1"/>
-      <c r="K17" s="35"/>
+      <c r="K17" s="36"/>
       <c r="L17" s="4"/>
-      <c r="M17" s="34"/>
-      <c r="N17" s="38"/>
-      <c r="O17" s="37"/>
-      <c r="P17" s="37"/>
-      <c r="Q17" s="35"/>
+      <c r="M17" s="35"/>
+      <c r="N17" s="39"/>
+      <c r="O17" s="38"/>
+      <c r="P17" s="38"/>
+      <c r="Q17" s="36"/>
       <c r="S17" s="1"/>
       <c r="U17" s="1"/>
-      <c r="V17" s="34"/>
-      <c r="W17" s="34"/>
-      <c r="X17" s="34"/>
+      <c r="V17" s="35"/>
+      <c r="W17" s="35"/>
+      <c r="X17" s="35"/>
       <c r="Y17" s="23"/>
       <c r="Z17" s="23"/>
       <c r="AA17" s="23"/>
@@ -2109,18 +2229,18 @@
       <c r="G18" s="1"/>
       <c r="H18" s="1"/>
       <c r="I18" s="1"/>
-      <c r="K18" s="35"/>
+      <c r="K18" s="36"/>
       <c r="L18" s="4"/>
-      <c r="M18" s="34"/>
-      <c r="N18" s="38"/>
-      <c r="O18" s="37"/>
-      <c r="P18" s="37"/>
-      <c r="Q18" s="35"/>
+      <c r="M18" s="35"/>
+      <c r="N18" s="39"/>
+      <c r="O18" s="38"/>
+      <c r="P18" s="38"/>
+      <c r="Q18" s="36"/>
       <c r="S18" s="1"/>
       <c r="U18" s="1"/>
-      <c r="V18" s="34"/>
-      <c r="W18" s="34"/>
-      <c r="X18" s="34"/>
+      <c r="V18" s="35"/>
+      <c r="W18" s="35"/>
+      <c r="X18" s="35"/>
       <c r="Y18" s="23"/>
       <c r="Z18" s="23"/>
       <c r="AA18" s="23"/>
@@ -2136,18 +2256,18 @@
       <c r="G19" s="1"/>
       <c r="H19" s="1"/>
       <c r="I19" s="1"/>
-      <c r="K19" s="35"/>
+      <c r="K19" s="36"/>
       <c r="L19" s="4"/>
-      <c r="M19" s="34"/>
-      <c r="N19" s="38"/>
-      <c r="O19" s="37"/>
-      <c r="P19" s="37"/>
-      <c r="Q19" s="35"/>
+      <c r="M19" s="35"/>
+      <c r="N19" s="39"/>
+      <c r="O19" s="38"/>
+      <c r="P19" s="38"/>
+      <c r="Q19" s="36"/>
       <c r="S19" s="1"/>
       <c r="U19" s="1"/>
-      <c r="V19" s="34"/>
-      <c r="W19" s="34"/>
-      <c r="X19" s="34"/>
+      <c r="V19" s="35"/>
+      <c r="W19" s="35"/>
+      <c r="X19" s="35"/>
       <c r="Y19" s="23"/>
       <c r="Z19" s="23"/>
       <c r="AA19" s="23"/>
@@ -2163,18 +2283,18 @@
       <c r="G20" s="1"/>
       <c r="H20" s="1"/>
       <c r="I20" s="1"/>
-      <c r="K20" s="35"/>
+      <c r="K20" s="36"/>
       <c r="L20" s="4"/>
-      <c r="M20" s="34"/>
-      <c r="N20" s="38"/>
-      <c r="O20" s="37"/>
-      <c r="P20" s="37"/>
-      <c r="Q20" s="35"/>
+      <c r="M20" s="35"/>
+      <c r="N20" s="39"/>
+      <c r="O20" s="38"/>
+      <c r="P20" s="38"/>
+      <c r="Q20" s="36"/>
       <c r="S20" s="1"/>
       <c r="U20" s="1"/>
-      <c r="V20" s="34"/>
-      <c r="W20" s="34"/>
-      <c r="X20" s="34"/>
+      <c r="V20" s="35"/>
+      <c r="W20" s="35"/>
+      <c r="X20" s="35"/>
       <c r="Y20" s="23"/>
       <c r="Z20" s="23"/>
       <c r="AA20" s="23"/>
@@ -2190,18 +2310,18 @@
       <c r="G21" s="1"/>
       <c r="H21" s="1"/>
       <c r="I21" s="1"/>
-      <c r="K21" s="35"/>
+      <c r="K21" s="36"/>
       <c r="L21" s="4"/>
-      <c r="M21" s="34"/>
-      <c r="N21" s="38"/>
-      <c r="O21" s="37"/>
-      <c r="P21" s="37"/>
-      <c r="Q21" s="35"/>
+      <c r="M21" s="35"/>
+      <c r="N21" s="39"/>
+      <c r="O21" s="38"/>
+      <c r="P21" s="38"/>
+      <c r="Q21" s="36"/>
       <c r="S21" s="1"/>
       <c r="U21" s="1"/>
-      <c r="V21" s="34"/>
-      <c r="W21" s="34"/>
-      <c r="X21" s="34"/>
+      <c r="V21" s="35"/>
+      <c r="W21" s="35"/>
+      <c r="X21" s="35"/>
       <c r="Y21" s="23"/>
       <c r="Z21" s="23"/>
       <c r="AA21" s="23"/>
@@ -2217,18 +2337,18 @@
       <c r="G22" s="1"/>
       <c r="H22" s="1"/>
       <c r="I22" s="1"/>
-      <c r="K22" s="35"/>
+      <c r="K22" s="36"/>
       <c r="L22" s="4"/>
-      <c r="M22" s="34"/>
-      <c r="N22" s="38"/>
-      <c r="O22" s="37"/>
-      <c r="P22" s="37"/>
-      <c r="Q22" s="35"/>
+      <c r="M22" s="35"/>
+      <c r="N22" s="39"/>
+      <c r="O22" s="38"/>
+      <c r="P22" s="38"/>
+      <c r="Q22" s="36"/>
       <c r="S22" s="1"/>
       <c r="U22" s="1"/>
-      <c r="V22" s="34"/>
-      <c r="W22" s="34"/>
-      <c r="X22" s="34"/>
+      <c r="V22" s="35"/>
+      <c r="W22" s="35"/>
+      <c r="X22" s="35"/>
       <c r="Y22" s="23"/>
       <c r="Z22" s="23"/>
       <c r="AA22" s="23"/>
@@ -2244,18 +2364,18 @@
       <c r="G23" s="1"/>
       <c r="H23" s="1"/>
       <c r="I23" s="1"/>
-      <c r="K23" s="35"/>
+      <c r="K23" s="36"/>
       <c r="L23" s="4"/>
-      <c r="M23" s="34"/>
-      <c r="N23" s="38"/>
-      <c r="O23" s="37"/>
-      <c r="P23" s="37"/>
-      <c r="Q23" s="35"/>
+      <c r="M23" s="35"/>
+      <c r="N23" s="39"/>
+      <c r="O23" s="38"/>
+      <c r="P23" s="38"/>
+      <c r="Q23" s="36"/>
       <c r="S23" s="1"/>
       <c r="U23" s="1"/>
-      <c r="V23" s="34"/>
-      <c r="W23" s="34"/>
-      <c r="X23" s="34"/>
+      <c r="V23" s="35"/>
+      <c r="W23" s="35"/>
+      <c r="X23" s="35"/>
       <c r="Y23" s="23"/>
       <c r="Z23" s="23"/>
       <c r="AA23" s="23"/>
@@ -2271,18 +2391,18 @@
       <c r="G24" s="1"/>
       <c r="H24" s="1"/>
       <c r="I24" s="1"/>
-      <c r="K24" s="35"/>
+      <c r="K24" s="36"/>
       <c r="L24" s="4"/>
-      <c r="M24" s="34"/>
-      <c r="N24" s="38"/>
-      <c r="O24" s="37"/>
-      <c r="P24" s="37"/>
-      <c r="Q24" s="35"/>
+      <c r="M24" s="35"/>
+      <c r="N24" s="39"/>
+      <c r="O24" s="38"/>
+      <c r="P24" s="38"/>
+      <c r="Q24" s="36"/>
       <c r="S24" s="1"/>
       <c r="U24" s="1"/>
-      <c r="V24" s="34"/>
-      <c r="W24" s="34"/>
-      <c r="X24" s="34"/>
+      <c r="V24" s="35"/>
+      <c r="W24" s="35"/>
+      <c r="X24" s="35"/>
       <c r="Y24" s="23"/>
       <c r="Z24" s="23"/>
       <c r="AA24" s="23"/>
@@ -2298,18 +2418,18 @@
       <c r="G25" s="1"/>
       <c r="H25" s="1"/>
       <c r="I25" s="1"/>
-      <c r="K25" s="35"/>
+      <c r="K25" s="36"/>
       <c r="L25" s="4"/>
-      <c r="M25" s="34"/>
-      <c r="N25" s="38"/>
-      <c r="O25" s="37"/>
-      <c r="P25" s="37"/>
-      <c r="Q25" s="35"/>
+      <c r="M25" s="35"/>
+      <c r="N25" s="39"/>
+      <c r="O25" s="38"/>
+      <c r="P25" s="38"/>
+      <c r="Q25" s="36"/>
       <c r="S25" s="1"/>
       <c r="U25" s="1"/>
-      <c r="V25" s="34"/>
-      <c r="W25" s="34"/>
-      <c r="X25" s="34"/>
+      <c r="V25" s="35"/>
+      <c r="W25" s="35"/>
+      <c r="X25" s="35"/>
       <c r="Y25" s="23"/>
       <c r="Z25" s="23"/>
       <c r="AA25" s="23"/>
@@ -2325,18 +2445,18 @@
       <c r="G26" s="1"/>
       <c r="H26" s="1"/>
       <c r="I26" s="1"/>
-      <c r="K26" s="35"/>
+      <c r="K26" s="36"/>
       <c r="L26" s="4"/>
-      <c r="M26" s="34"/>
-      <c r="N26" s="38"/>
-      <c r="O26" s="37"/>
-      <c r="P26" s="37"/>
-      <c r="Q26" s="35"/>
+      <c r="M26" s="35"/>
+      <c r="N26" s="39"/>
+      <c r="O26" s="38"/>
+      <c r="P26" s="38"/>
+      <c r="Q26" s="36"/>
       <c r="S26" s="1"/>
       <c r="U26" s="1"/>
-      <c r="V26" s="34"/>
-      <c r="W26" s="34"/>
-      <c r="X26" s="34"/>
+      <c r="V26" s="35"/>
+      <c r="W26" s="35"/>
+      <c r="X26" s="35"/>
       <c r="Y26" s="23"/>
       <c r="Z26" s="23"/>
       <c r="AA26" s="23"/>
@@ -2352,18 +2472,18 @@
       <c r="G27" s="1"/>
       <c r="H27" s="1"/>
       <c r="I27" s="1"/>
-      <c r="K27" s="35"/>
+      <c r="K27" s="36"/>
       <c r="L27" s="4"/>
-      <c r="M27" s="34"/>
-      <c r="N27" s="38"/>
-      <c r="O27" s="37"/>
-      <c r="P27" s="37"/>
-      <c r="Q27" s="35"/>
+      <c r="M27" s="35"/>
+      <c r="N27" s="39"/>
+      <c r="O27" s="38"/>
+      <c r="P27" s="38"/>
+      <c r="Q27" s="36"/>
       <c r="S27" s="1"/>
       <c r="U27" s="1"/>
-      <c r="V27" s="34"/>
-      <c r="W27" s="34"/>
-      <c r="X27" s="34"/>
+      <c r="V27" s="35"/>
+      <c r="W27" s="35"/>
+      <c r="X27" s="35"/>
       <c r="Y27" s="23"/>
       <c r="Z27" s="23"/>
       <c r="AA27" s="23"/>
@@ -2379,18 +2499,18 @@
       <c r="G28" s="1"/>
       <c r="H28" s="1"/>
       <c r="I28" s="1"/>
-      <c r="K28" s="35"/>
+      <c r="K28" s="36"/>
       <c r="L28" s="4"/>
-      <c r="M28" s="34"/>
-      <c r="N28" s="38"/>
-      <c r="O28" s="37"/>
-      <c r="P28" s="37"/>
-      <c r="Q28" s="35"/>
+      <c r="M28" s="35"/>
+      <c r="N28" s="39"/>
+      <c r="O28" s="38"/>
+      <c r="P28" s="38"/>
+      <c r="Q28" s="36"/>
       <c r="S28" s="1"/>
       <c r="U28" s="1"/>
-      <c r="V28" s="34"/>
-      <c r="W28" s="34"/>
-      <c r="X28" s="34"/>
+      <c r="V28" s="35"/>
+      <c r="W28" s="35"/>
+      <c r="X28" s="35"/>
       <c r="Y28" s="23"/>
       <c r="Z28" s="23"/>
       <c r="AA28" s="23"/>
@@ -2406,18 +2526,18 @@
       <c r="G29" s="1"/>
       <c r="H29" s="1"/>
       <c r="I29" s="1"/>
-      <c r="K29" s="35"/>
+      <c r="K29" s="36"/>
       <c r="L29" s="4"/>
-      <c r="M29" s="34"/>
-      <c r="N29" s="38"/>
-      <c r="O29" s="37"/>
-      <c r="P29" s="37"/>
-      <c r="Q29" s="35"/>
+      <c r="M29" s="35"/>
+      <c r="N29" s="39"/>
+      <c r="O29" s="38"/>
+      <c r="P29" s="38"/>
+      <c r="Q29" s="36"/>
       <c r="S29" s="1"/>
       <c r="U29" s="1"/>
-      <c r="V29" s="34"/>
-      <c r="W29" s="34"/>
-      <c r="X29" s="34"/>
+      <c r="V29" s="35"/>
+      <c r="W29" s="35"/>
+      <c r="X29" s="35"/>
       <c r="Y29" s="23"/>
       <c r="Z29" s="23"/>
       <c r="AA29" s="23"/>
@@ -2433,18 +2553,18 @@
       <c r="G30" s="1"/>
       <c r="H30" s="1"/>
       <c r="I30" s="1"/>
-      <c r="K30" s="35"/>
+      <c r="K30" s="36"/>
       <c r="L30" s="4"/>
-      <c r="M30" s="34"/>
-      <c r="N30" s="38"/>
-      <c r="O30" s="37"/>
-      <c r="P30" s="37"/>
-      <c r="Q30" s="35"/>
+      <c r="M30" s="35"/>
+      <c r="N30" s="39"/>
+      <c r="O30" s="38"/>
+      <c r="P30" s="38"/>
+      <c r="Q30" s="36"/>
       <c r="S30" s="1"/>
       <c r="U30" s="1"/>
-      <c r="V30" s="34"/>
-      <c r="W30" s="34"/>
-      <c r="X30" s="34"/>
+      <c r="V30" s="35"/>
+      <c r="W30" s="35"/>
+      <c r="X30" s="35"/>
       <c r="Y30" s="23"/>
       <c r="Z30" s="23"/>
       <c r="AA30" s="23"/>
@@ -2460,18 +2580,18 @@
       <c r="G31" s="1"/>
       <c r="H31" s="1"/>
       <c r="I31" s="1"/>
-      <c r="K31" s="35"/>
+      <c r="K31" s="36"/>
       <c r="L31" s="4"/>
-      <c r="M31" s="34"/>
-      <c r="N31" s="38"/>
-      <c r="O31" s="37"/>
-      <c r="P31" s="37"/>
-      <c r="Q31" s="35"/>
+      <c r="M31" s="35"/>
+      <c r="N31" s="39"/>
+      <c r="O31" s="38"/>
+      <c r="P31" s="38"/>
+      <c r="Q31" s="36"/>
       <c r="S31" s="1"/>
       <c r="U31" s="1"/>
-      <c r="V31" s="34"/>
-      <c r="W31" s="34"/>
-      <c r="X31" s="34"/>
+      <c r="V31" s="35"/>
+      <c r="W31" s="35"/>
+      <c r="X31" s="35"/>
       <c r="Y31" s="23"/>
       <c r="Z31" s="23"/>
       <c r="AA31" s="23"/>
@@ -2487,18 +2607,18 @@
       <c r="G32" s="1"/>
       <c r="H32" s="1"/>
       <c r="I32" s="1"/>
-      <c r="K32" s="35"/>
+      <c r="K32" s="36"/>
       <c r="L32" s="4"/>
-      <c r="M32" s="34"/>
-      <c r="N32" s="38"/>
-      <c r="O32" s="37"/>
-      <c r="P32" s="37"/>
-      <c r="Q32" s="35"/>
+      <c r="M32" s="35"/>
+      <c r="N32" s="39"/>
+      <c r="O32" s="38"/>
+      <c r="P32" s="38"/>
+      <c r="Q32" s="36"/>
       <c r="S32" s="1"/>
       <c r="U32" s="1"/>
-      <c r="V32" s="34"/>
-      <c r="W32" s="34"/>
-      <c r="X32" s="34"/>
+      <c r="V32" s="35"/>
+      <c r="W32" s="35"/>
+      <c r="X32" s="35"/>
       <c r="Y32" s="23"/>
       <c r="Z32" s="23"/>
       <c r="AA32" s="23"/>
@@ -2514,18 +2634,18 @@
       <c r="G33" s="1"/>
       <c r="H33" s="1"/>
       <c r="I33" s="1"/>
-      <c r="K33" s="35"/>
+      <c r="K33" s="36"/>
       <c r="L33" s="4"/>
-      <c r="M33" s="34"/>
-      <c r="N33" s="38"/>
-      <c r="O33" s="37"/>
-      <c r="P33" s="37"/>
-      <c r="Q33" s="35"/>
+      <c r="M33" s="35"/>
+      <c r="N33" s="39"/>
+      <c r="O33" s="38"/>
+      <c r="P33" s="38"/>
+      <c r="Q33" s="36"/>
       <c r="S33" s="1"/>
       <c r="U33" s="1"/>
-      <c r="V33" s="34"/>
-      <c r="W33" s="34"/>
-      <c r="X33" s="34"/>
+      <c r="V33" s="35"/>
+      <c r="W33" s="35"/>
+      <c r="X33" s="35"/>
       <c r="Y33" s="23"/>
       <c r="Z33" s="23"/>
       <c r="AA33" s="23"/>
@@ -2541,13 +2661,13 @@
       <c r="G34" s="1"/>
       <c r="H34" s="1"/>
       <c r="I34" s="1"/>
-      <c r="K34" s="35"/>
+      <c r="K34" s="36"/>
       <c r="L34" s="4"/>
-      <c r="M34" s="34"/>
-      <c r="N34" s="38"/>
-      <c r="O34" s="37"/>
-      <c r="P34" s="37"/>
-      <c r="Q34" s="35"/>
+      <c r="M34" s="35"/>
+      <c r="N34" s="39"/>
+      <c r="O34" s="38"/>
+      <c r="P34" s="38"/>
+      <c r="Q34" s="36"/>
       <c r="S34" s="1"/>
       <c r="U34" s="1"/>
       <c r="V34" s="1"/>
@@ -2681,8 +2801,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CED389B3-A1BA-4514-AE73-0BE4546454AE}">
   <dimension ref="A1:V50"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A34" sqref="A34"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2694,34 +2814,35 @@
     <col min="8" max="8" width="8.140625" customWidth="1"/>
     <col min="9" max="9" width="27.28515625" customWidth="1"/>
     <col min="13" max="13" width="33.42578125" customWidth="1"/>
+    <col min="15" max="15" width="19.28515625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="B1" s="40" t="s">
+      <c r="B1" s="42" t="s">
         <v>139</v>
       </c>
-      <c r="C1" s="40"/>
-      <c r="I1" s="40" t="s">
+      <c r="C1" s="42"/>
+      <c r="I1" s="42" t="s">
         <v>140</v>
       </c>
-      <c r="J1" s="40"/>
-      <c r="L1" s="40" t="s">
+      <c r="J1" s="42"/>
+      <c r="L1" s="42" t="s">
         <v>141</v>
       </c>
-      <c r="M1" s="40"/>
-      <c r="N1" s="40"/>
+      <c r="M1" s="42"/>
+      <c r="N1" s="42"/>
     </row>
     <row r="3" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A3" s="40" t="s">
+      <c r="A3" s="42" t="s">
         <v>138</v>
       </c>
-      <c r="B3" s="40"/>
-      <c r="C3" s="40"/>
-      <c r="D3" s="40"/>
-      <c r="I3" s="40" t="s">
+      <c r="B3" s="42"/>
+      <c r="C3" s="42"/>
+      <c r="D3" s="42"/>
+      <c r="I3" s="42" t="s">
         <v>137</v>
       </c>
-      <c r="J3" s="40"/>
+      <c r="J3" s="42"/>
       <c r="L3" s="24"/>
       <c r="M3" s="24"/>
     </row>
@@ -2744,17 +2865,26 @@
       <c r="M5" s="33" t="s">
         <v>167</v>
       </c>
+      <c r="N5" s="42" t="s">
+        <v>194</v>
+      </c>
+      <c r="O5" s="42"/>
       <c r="S5" t="s">
         <v>142</v>
       </c>
-      <c r="T5" s="40" t="s">
+      <c r="T5" s="42" t="s">
         <v>143</v>
       </c>
-      <c r="U5" s="40"/>
-      <c r="V5" s="40"/>
+      <c r="U5" s="42"/>
+      <c r="V5" s="42"/>
     </row>
     <row r="6" spans="1:22" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="19"/>
+      <c r="A6" s="19" t="s">
+        <v>181</v>
+      </c>
+      <c r="B6" s="34">
+        <v>2</v>
+      </c>
       <c r="E6" s="19" t="s">
         <v>157</v>
       </c>
@@ -2768,20 +2898,20 @@
         <v>500</v>
       </c>
       <c r="M6" s="32" t="s">
-        <v>169</v>
-      </c>
-      <c r="N6" s="42" t="s">
+        <v>188</v>
+      </c>
+      <c r="N6" s="45" t="s">
         <v>168</v>
       </c>
-      <c r="O6" s="42"/>
+      <c r="O6" s="45"/>
       <c r="S6" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="T6" s="39">
+      <c r="T6" s="41">
         <v>30</v>
       </c>
-      <c r="U6" s="40"/>
-      <c r="V6" s="40"/>
+      <c r="U6" s="42"/>
+      <c r="V6" s="42"/>
     </row>
     <row r="7" spans="1:22" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="31" t="s">
@@ -2790,7 +2920,12 @@
       <c r="B7" s="24">
         <v>1</v>
       </c>
-      <c r="E7" s="19"/>
+      <c r="E7" s="19" t="s">
+        <v>177</v>
+      </c>
+      <c r="F7" s="34">
+        <v>8</v>
+      </c>
       <c r="I7" s="29" t="s">
         <v>150</v>
       </c>
@@ -2798,14 +2933,16 @@
         <v>250</v>
       </c>
       <c r="M7" s="32"/>
+      <c r="N7" s="42"/>
+      <c r="O7" s="42"/>
       <c r="S7" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="T7" s="39">
+      <c r="T7" s="41">
         <v>19</v>
       </c>
-      <c r="U7" s="40"/>
-      <c r="V7" s="40"/>
+      <c r="U7" s="42"/>
+      <c r="V7" s="42"/>
     </row>
     <row r="8" spans="1:22" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="31" t="s">
@@ -2814,113 +2951,152 @@
       <c r="B8" s="25">
         <v>1.1000000000000001</v>
       </c>
-      <c r="E8" s="19"/>
+      <c r="E8" s="19" t="s">
+        <v>192</v>
+      </c>
+      <c r="F8" s="34">
+        <v>17</v>
+      </c>
       <c r="I8" s="29" t="s">
         <v>155</v>
       </c>
       <c r="J8" s="25">
         <v>500</v>
       </c>
-      <c r="M8" s="32"/>
+      <c r="M8" s="32" t="s">
+        <v>170</v>
+      </c>
+      <c r="N8" s="42" t="s">
+        <v>169</v>
+      </c>
+      <c r="O8" s="42"/>
       <c r="S8" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="T8" s="39">
+      <c r="T8" s="41">
         <v>27</v>
       </c>
-      <c r="U8" s="40"/>
-      <c r="V8" s="40"/>
+      <c r="U8" s="42"/>
+      <c r="V8" s="42"/>
     </row>
     <row r="9" spans="1:22" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="31"/>
-      <c r="B9" s="25"/>
+      <c r="A9" s="31" t="s">
+        <v>180</v>
+      </c>
+      <c r="B9" s="25">
+        <v>5</v>
+      </c>
       <c r="E9" s="19"/>
+      <c r="F9" s="34"/>
       <c r="I9" s="29" t="s">
         <v>164</v>
       </c>
       <c r="J9" s="25">
         <v>350</v>
       </c>
-      <c r="M9" s="32"/>
+      <c r="M9" s="32" t="s">
+        <v>171</v>
+      </c>
+      <c r="N9" s="45" t="s">
+        <v>172</v>
+      </c>
+      <c r="O9" s="45"/>
       <c r="S9" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="T9" s="39">
+      <c r="T9" s="41">
         <v>30</v>
       </c>
-      <c r="U9" s="40"/>
-      <c r="V9" s="40"/>
+      <c r="U9" s="42"/>
+      <c r="V9" s="42"/>
     </row>
     <row r="10" spans="1:22" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="31"/>
       <c r="B10" s="25"/>
       <c r="E10" s="19"/>
+      <c r="F10" s="34"/>
       <c r="I10" s="29" t="s">
         <v>166</v>
       </c>
       <c r="J10" s="25">
         <v>600</v>
       </c>
-      <c r="M10" s="32"/>
+      <c r="M10" s="32" t="s">
+        <v>173</v>
+      </c>
+      <c r="N10" s="42" t="s">
+        <v>174</v>
+      </c>
+      <c r="O10" s="42"/>
       <c r="S10" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="T10" s="39">
+      <c r="T10" s="41">
         <v>30</v>
       </c>
-      <c r="U10" s="40"/>
-      <c r="V10" s="40"/>
+      <c r="U10" s="42"/>
+      <c r="V10" s="42"/>
     </row>
     <row r="11" spans="1:22" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="31"/>
       <c r="B11" s="25"/>
       <c r="E11" s="19"/>
+      <c r="F11" s="34"/>
       <c r="I11" s="29"/>
       <c r="J11" s="25"/>
-      <c r="M11" s="32"/>
+      <c r="M11" s="32" t="s">
+        <v>175</v>
+      </c>
+      <c r="N11" s="42" t="s">
+        <v>176</v>
+      </c>
+      <c r="O11" s="42"/>
       <c r="S11" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="T11" s="39">
+      <c r="T11" s="41">
         <v>15</v>
       </c>
-      <c r="U11" s="40"/>
-      <c r="V11" s="40"/>
+      <c r="U11" s="42"/>
+      <c r="V11" s="42"/>
     </row>
     <row r="12" spans="1:22" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="31"/>
       <c r="B12" s="25"/>
       <c r="E12" s="19"/>
+      <c r="F12" s="34"/>
       <c r="I12" s="29"/>
       <c r="J12" s="25"/>
       <c r="M12" s="32"/>
       <c r="S12" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="T12" s="39">
+      <c r="T12" s="41">
         <v>12</v>
       </c>
-      <c r="U12" s="40"/>
-      <c r="V12" s="40"/>
+      <c r="U12" s="42"/>
+      <c r="V12" s="42"/>
     </row>
     <row r="13" spans="1:22" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="31"/>
       <c r="B13" s="25"/>
       <c r="E13" s="19"/>
+      <c r="F13" s="34"/>
       <c r="I13" s="29"/>
       <c r="J13" s="25"/>
       <c r="M13" s="32"/>
       <c r="S13" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="T13" s="39"/>
-      <c r="U13" s="40"/>
-      <c r="V13" s="40"/>
+      <c r="T13" s="41"/>
+      <c r="U13" s="42"/>
+      <c r="V13" s="42"/>
     </row>
     <row r="14" spans="1:22" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A14" s="31"/>
       <c r="B14" s="25"/>
       <c r="E14" s="19"/>
+      <c r="F14" s="34"/>
       <c r="I14" s="29"/>
       <c r="J14" s="25"/>
       <c r="M14" s="32"/>
@@ -2929,6 +3105,7 @@
       <c r="A15" s="31"/>
       <c r="B15" s="25"/>
       <c r="E15" s="19"/>
+      <c r="F15" s="34"/>
       <c r="I15" s="29"/>
       <c r="J15" s="25"/>
       <c r="M15" s="32"/>
@@ -2937,6 +3114,7 @@
       <c r="A16" s="31"/>
       <c r="B16" s="25"/>
       <c r="E16" s="19"/>
+      <c r="F16" s="34"/>
       <c r="I16" s="29"/>
       <c r="J16" s="25"/>
       <c r="M16" s="32"/>
@@ -2945,18 +3123,20 @@
       <c r="A17" s="31"/>
       <c r="B17" s="25"/>
       <c r="E17" s="19"/>
+      <c r="F17" s="34"/>
       <c r="I17" s="29"/>
       <c r="J17" s="25"/>
       <c r="M17" s="32"/>
-      <c r="S17" s="44" t="s">
+      <c r="S17" s="43" t="s">
         <v>146</v>
       </c>
-      <c r="T17" s="44"/>
+      <c r="T17" s="43"/>
     </row>
     <row r="18" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A18" s="31"/>
       <c r="B18" s="25"/>
       <c r="E18" s="19"/>
+      <c r="F18" s="34"/>
       <c r="I18" s="29"/>
       <c r="J18" s="25"/>
       <c r="M18" s="32"/>
@@ -2965,6 +3145,7 @@
       <c r="A19" s="31"/>
       <c r="B19" s="25"/>
       <c r="E19" s="19"/>
+      <c r="F19" s="34"/>
       <c r="I19" s="29"/>
       <c r="J19" s="25"/>
       <c r="M19" s="32"/>
@@ -2973,6 +3154,7 @@
       <c r="A20" s="31"/>
       <c r="B20" s="25"/>
       <c r="E20" s="19"/>
+      <c r="F20" s="34"/>
       <c r="I20" s="29"/>
       <c r="J20" s="25"/>
       <c r="M20" s="32"/>
@@ -2981,30 +3163,33 @@
       <c r="A21" s="31"/>
       <c r="B21" s="25"/>
       <c r="E21" s="19"/>
+      <c r="F21" s="34"/>
       <c r="I21" s="29"/>
       <c r="J21" s="25"/>
       <c r="M21" s="32"/>
-      <c r="S21" s="41" t="s">
+      <c r="S21" s="44" t="s">
         <v>158</v>
       </c>
-      <c r="T21" s="41"/>
+      <c r="T21" s="44"/>
     </row>
     <row r="22" spans="1:21" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A22" s="31"/>
       <c r="B22" s="25"/>
       <c r="E22" s="19"/>
+      <c r="F22" s="34"/>
       <c r="I22" s="29"/>
       <c r="J22" s="25"/>
       <c r="M22" s="32"/>
-      <c r="S22" s="40" t="s">
+      <c r="S22" s="42" t="s">
         <v>159</v>
       </c>
-      <c r="T22" s="40"/>
+      <c r="T22" s="42"/>
     </row>
     <row r="23" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A23" s="31"/>
       <c r="B23" s="25"/>
       <c r="E23" s="19"/>
+      <c r="F23" s="34"/>
       <c r="I23" s="29"/>
       <c r="J23" s="25"/>
       <c r="M23" s="32"/>
@@ -3013,189 +3198,320 @@
       <c r="A24" s="31"/>
       <c r="B24" s="25"/>
       <c r="E24" s="19"/>
+      <c r="F24" s="34"/>
       <c r="J24" s="25"/>
     </row>
     <row r="25" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A25" s="31"/>
       <c r="B25" s="25"/>
       <c r="E25" s="19"/>
+      <c r="F25" s="34"/>
     </row>
     <row r="26" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A26" s="30"/>
       <c r="S26" s="27" t="s">
         <v>144</v>
       </c>
-      <c r="T26" s="43" t="s">
+      <c r="T26" s="40" t="s">
         <v>145</v>
       </c>
-      <c r="U26" s="43"/>
+      <c r="U26" s="40"/>
     </row>
     <row r="27" spans="1:21" x14ac:dyDescent="0.25">
       <c r="I27" t="s">
         <v>162</v>
       </c>
+      <c r="J27" s="34" t="s">
+        <v>149</v>
+      </c>
+      <c r="M27" s="42" t="s">
+        <v>202</v>
+      </c>
+      <c r="N27" s="42"/>
+      <c r="O27" s="42"/>
       <c r="S27" s="28" t="s">
         <v>1</v>
       </c>
-      <c r="T27" s="43">
+      <c r="T27" s="40">
         <v>1.7</v>
       </c>
-      <c r="U27" s="43"/>
+      <c r="U27" s="40"/>
     </row>
     <row r="28" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A28" s="25" t="s">
         <v>161</v>
       </c>
+      <c r="B28" s="34" t="s">
+        <v>28</v>
+      </c>
       <c r="I28" s="29" t="s">
         <v>163</v>
       </c>
       <c r="J28" s="25">
         <v>50</v>
       </c>
+      <c r="M28" s="46" t="s">
+        <v>200</v>
+      </c>
+      <c r="N28" s="46"/>
       <c r="S28" s="28" t="s">
         <v>2</v>
       </c>
-      <c r="T28" s="43">
+      <c r="T28" s="40">
         <v>1.2</v>
       </c>
-      <c r="U28" s="43"/>
+      <c r="U28" s="40"/>
     </row>
     <row r="29" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A29" s="19" t="s">
-        <v>152</v>
+        <v>190</v>
       </c>
       <c r="B29" s="24">
-        <v>8</v>
-      </c>
-      <c r="I29" s="29"/>
-      <c r="J29" s="25"/>
+        <v>5</v>
+      </c>
+      <c r="I29" s="29" t="s">
+        <v>178</v>
+      </c>
+      <c r="J29" s="25">
+        <v>200</v>
+      </c>
+      <c r="M29" s="46" t="s">
+        <v>201</v>
+      </c>
+      <c r="N29" s="46"/>
       <c r="S29" s="28" t="s">
         <v>3</v>
       </c>
-      <c r="T29" s="43">
+      <c r="T29" s="40">
         <v>2</v>
       </c>
-      <c r="U29" s="43"/>
+      <c r="U29" s="40"/>
     </row>
     <row r="30" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A30" s="19" t="s">
-        <v>153</v>
+        <v>182</v>
       </c>
       <c r="B30" s="24">
-        <v>5</v>
-      </c>
-      <c r="I30" s="29"/>
-      <c r="J30" s="25"/>
+        <v>18</v>
+      </c>
+      <c r="I30" s="29" t="s">
+        <v>179</v>
+      </c>
+      <c r="J30" s="25">
+        <v>10</v>
+      </c>
+      <c r="M30" s="46" t="s">
+        <v>203</v>
+      </c>
+      <c r="N30" s="46"/>
       <c r="S30" s="28" t="s">
         <v>7</v>
       </c>
-      <c r="T30" s="43">
+      <c r="T30" s="40">
         <v>1.7</v>
       </c>
-      <c r="U30" s="43"/>
+      <c r="U30" s="40"/>
     </row>
     <row r="31" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A31" s="19" t="s">
-        <v>154</v>
-      </c>
-      <c r="B31" s="26">
-        <v>2.5</v>
-      </c>
-      <c r="I31" s="29"/>
-      <c r="J31" s="25"/>
+        <v>191</v>
+      </c>
+      <c r="B31" s="34">
+        <v>6</v>
+      </c>
+      <c r="I31" s="29" t="s">
+        <v>183</v>
+      </c>
+      <c r="J31" s="25">
+        <v>600</v>
+      </c>
+      <c r="M31" s="46" t="s">
+        <v>204</v>
+      </c>
+      <c r="N31" s="46"/>
       <c r="S31" s="28" t="s">
         <v>8</v>
       </c>
-      <c r="T31" s="43">
+      <c r="T31" s="40">
         <v>1.7</v>
       </c>
-      <c r="U31" s="43"/>
+      <c r="U31" s="40"/>
     </row>
     <row r="32" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A32" s="19" t="s">
-        <v>156</v>
-      </c>
-      <c r="B32" s="26">
-        <v>3</v>
-      </c>
-      <c r="I32" s="29"/>
-      <c r="J32" s="25"/>
+        <v>189</v>
+      </c>
+      <c r="B32" s="34">
+        <v>10</v>
+      </c>
+      <c r="I32" s="29" t="s">
+        <v>184</v>
+      </c>
+      <c r="J32" s="25">
+        <v>500</v>
+      </c>
+      <c r="M32" s="46" t="s">
+        <v>205</v>
+      </c>
+      <c r="N32" s="46"/>
       <c r="S32" s="28" t="s">
         <v>5</v>
       </c>
-      <c r="T32" s="43">
+      <c r="T32" s="40">
         <v>1.5</v>
       </c>
-      <c r="U32" s="43"/>
+      <c r="U32" s="40"/>
     </row>
     <row r="33" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A33" s="19" t="s">
-        <v>147</v>
+        <v>187</v>
       </c>
       <c r="B33" s="24">
-        <v>4</v>
-      </c>
-      <c r="I33" s="29"/>
-      <c r="J33" s="25"/>
+        <v>8</v>
+      </c>
+      <c r="I33" s="29" t="s">
+        <v>193</v>
+      </c>
+      <c r="J33" s="25">
+        <v>900</v>
+      </c>
+      <c r="M33" s="46" t="s">
+        <v>206</v>
+      </c>
+      <c r="N33" s="46"/>
       <c r="S33" s="28" t="s">
         <v>4</v>
       </c>
-      <c r="T33" s="43">
+      <c r="T33" s="40">
         <v>1</v>
       </c>
-      <c r="U33" s="43"/>
+      <c r="U33" s="40"/>
     </row>
     <row r="34" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A34" s="19"/>
-      <c r="I34" s="29"/>
-      <c r="J34" s="25"/>
+      <c r="A34" s="19" t="s">
+        <v>196</v>
+      </c>
+      <c r="B34" s="34">
+        <v>19</v>
+      </c>
+      <c r="I34" s="29" t="s">
+        <v>195</v>
+      </c>
+      <c r="J34" s="25">
+        <v>100</v>
+      </c>
+      <c r="M34" s="46" t="s">
+        <v>207</v>
+      </c>
+      <c r="N34" s="46"/>
       <c r="S34" s="28" t="s">
         <v>6</v>
       </c>
-      <c r="T34" s="43">
+      <c r="T34" s="40">
         <v>1.2</v>
       </c>
-      <c r="U34" s="43"/>
+      <c r="U34" s="40"/>
     </row>
     <row r="35" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A35" s="19"/>
-      <c r="I35" s="29"/>
-      <c r="J35" s="25"/>
+      <c r="A35" s="19" t="s">
+        <v>154</v>
+      </c>
+      <c r="B35" s="26">
+        <v>2.5</v>
+      </c>
+      <c r="I35" s="29" t="s">
+        <v>197</v>
+      </c>
+      <c r="J35" s="25">
+        <v>70</v>
+      </c>
+      <c r="M35" s="46"/>
+      <c r="N35" s="46"/>
     </row>
     <row r="36" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A36" s="19"/>
+      <c r="A36" s="19" t="s">
+        <v>152</v>
+      </c>
+      <c r="B36" s="34">
+        <v>8</v>
+      </c>
       <c r="I36" s="29"/>
       <c r="J36" s="25"/>
+      <c r="M36" s="47"/>
+      <c r="N36" s="47"/>
     </row>
     <row r="37" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A37" s="19"/>
+      <c r="A37" s="19" t="s">
+        <v>153</v>
+      </c>
+      <c r="B37" s="34">
+        <v>5</v>
+      </c>
       <c r="I37" s="29"/>
       <c r="J37" s="25"/>
+      <c r="M37" s="47"/>
+      <c r="N37" s="47"/>
     </row>
     <row r="38" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A38" s="19"/>
+      <c r="A38" s="19" t="s">
+        <v>156</v>
+      </c>
+      <c r="B38" s="26">
+        <v>3</v>
+      </c>
       <c r="I38" s="29"/>
       <c r="J38" s="25"/>
+      <c r="M38" s="47"/>
+      <c r="N38" s="47"/>
     </row>
     <row r="39" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A39" s="19"/>
+      <c r="A39" s="19" t="s">
+        <v>185</v>
+      </c>
+      <c r="B39" s="34">
+        <v>2</v>
+      </c>
       <c r="I39" s="29"/>
       <c r="J39" s="25"/>
+      <c r="M39" s="47"/>
+      <c r="N39" s="47"/>
     </row>
     <row r="40" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A40" s="19"/>
+      <c r="A40" s="19" t="s">
+        <v>147</v>
+      </c>
+      <c r="B40" s="34">
+        <v>4</v>
+      </c>
       <c r="I40" s="29"/>
       <c r="J40" s="25"/>
+      <c r="M40" s="47"/>
+      <c r="N40" s="47"/>
     </row>
     <row r="41" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A41" s="19"/>
+      <c r="A41" s="19" t="s">
+        <v>186</v>
+      </c>
+      <c r="B41" s="34">
+        <v>8</v>
+      </c>
       <c r="I41" s="30"/>
     </row>
     <row r="42" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A42" s="19"/>
+      <c r="A42" s="19" t="s">
+        <v>198</v>
+      </c>
+      <c r="B42" s="34">
+        <v>19</v>
+      </c>
     </row>
     <row r="43" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A43" s="19"/>
+      <c r="A43" s="19" t="s">
+        <v>199</v>
+      </c>
+      <c r="B43" s="34">
+        <v>24</v>
+      </c>
     </row>
     <row r="44" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A44" s="19"/>
@@ -3219,20 +3535,23 @@
       <c r="A50" s="19"/>
     </row>
   </sheetData>
-  <mergeCells count="27">
-    <mergeCell ref="T33:U33"/>
-    <mergeCell ref="T34:U34"/>
-    <mergeCell ref="T26:U26"/>
-    <mergeCell ref="T11:V11"/>
-    <mergeCell ref="T12:V12"/>
-    <mergeCell ref="T13:V13"/>
-    <mergeCell ref="S17:T17"/>
-    <mergeCell ref="T27:U27"/>
-    <mergeCell ref="T28:U28"/>
-    <mergeCell ref="T29:U29"/>
-    <mergeCell ref="T30:U30"/>
-    <mergeCell ref="T31:U31"/>
-    <mergeCell ref="T32:U32"/>
+  <sortState ref="A29:B41">
+    <sortCondition ref="A29"/>
+  </sortState>
+  <mergeCells count="42">
+    <mergeCell ref="M28:N28"/>
+    <mergeCell ref="M29:N29"/>
+    <mergeCell ref="M30:N30"/>
+    <mergeCell ref="M31:N31"/>
+    <mergeCell ref="M32:N32"/>
+    <mergeCell ref="M33:N33"/>
+    <mergeCell ref="M34:N34"/>
+    <mergeCell ref="M35:N35"/>
+    <mergeCell ref="N10:O10"/>
+    <mergeCell ref="N11:O11"/>
+    <mergeCell ref="N5:O5"/>
+    <mergeCell ref="M27:O27"/>
+    <mergeCell ref="N7:O7"/>
     <mergeCell ref="T10:V10"/>
     <mergeCell ref="A3:D3"/>
     <mergeCell ref="B1:C1"/>
@@ -3247,6 +3566,21 @@
     <mergeCell ref="T7:V7"/>
     <mergeCell ref="T8:V8"/>
     <mergeCell ref="T9:V9"/>
+    <mergeCell ref="N8:O8"/>
+    <mergeCell ref="N9:O9"/>
+    <mergeCell ref="T33:U33"/>
+    <mergeCell ref="T34:U34"/>
+    <mergeCell ref="T26:U26"/>
+    <mergeCell ref="T11:V11"/>
+    <mergeCell ref="T12:V12"/>
+    <mergeCell ref="T13:V13"/>
+    <mergeCell ref="S17:T17"/>
+    <mergeCell ref="T27:U27"/>
+    <mergeCell ref="T28:U28"/>
+    <mergeCell ref="T29:U29"/>
+    <mergeCell ref="T30:U30"/>
+    <mergeCell ref="T31:U31"/>
+    <mergeCell ref="T32:U32"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>

--- a/PenAndPaperTabellen.xlsx
+++ b/PenAndPaperTabellen.xlsx
@@ -5,18 +5,19 @@
   <workbookPr hidePivotFieldList="1" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Leonardo Jurisic\Desktop\Gegner\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Leonardo Jurisic\Desktop\PenAndPaper_Python\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{7FE6539F-01DD-407E-907B-B9F46EA94F6E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{6123ED02-8014-4623-AB5B-1608A3F61C99}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" activeTab="1" xr2:uid="{396B72A2-12CE-422A-97A0-75A4949D3867}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" activeTab="2" xr2:uid="{396B72A2-12CE-422A-97A0-75A4949D3867}"/>
   </bookViews>
   <sheets>
     <sheet name="Klassen stats" sheetId="1" r:id="rId1"/>
-    <sheet name="Tabelle1" sheetId="7" r:id="rId2"/>
-    <sheet name="Gegnerliste" sheetId="2" r:id="rId3"/>
-    <sheet name="Diblomatische Beziehung" sheetId="6" r:id="rId4"/>
+    <sheet name="Items etc" sheetId="7" r:id="rId2"/>
+    <sheet name="Char.BluePrint" sheetId="8" r:id="rId3"/>
+    <sheet name="Gegnerliste" sheetId="2" r:id="rId4"/>
+    <sheet name="Diblomatische Beziehung" sheetId="6" r:id="rId5"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -28,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="362" uniqueCount="208">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="363" uniqueCount="209">
   <si>
     <t xml:space="preserve">Klassen / Rassen </t>
   </si>
@@ -670,6 +671,9 @@
   </si>
   <si>
     <t>Tierumgang</t>
+  </si>
+  <si>
+    <t>Jagd</t>
   </si>
 </sst>
 </file>
@@ -1057,16 +1061,13 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" xfId="7" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="6" xfId="10" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="8" xfId="13" applyAlignment="1">
@@ -1075,10 +1076,15 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" xfId="7" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" xfId="7" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="6" xfId="10" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="14">
     <cellStyle name="Akzent3" xfId="11" builtinId="37"/>
@@ -2801,8 +2807,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CED389B3-A1BA-4514-AE73-0BE4546454AE}">
   <dimension ref="A1:V50"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F20" sqref="F20"/>
+    <sheetView topLeftCell="G21" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="M40" sqref="M40:N40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2818,31 +2824,31 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="B1" s="42" t="s">
+      <c r="B1" s="41" t="s">
         <v>139</v>
       </c>
-      <c r="C1" s="42"/>
-      <c r="I1" s="42" t="s">
+      <c r="C1" s="41"/>
+      <c r="I1" s="41" t="s">
         <v>140</v>
       </c>
-      <c r="J1" s="42"/>
-      <c r="L1" s="42" t="s">
+      <c r="J1" s="41"/>
+      <c r="L1" s="41" t="s">
         <v>141</v>
       </c>
-      <c r="M1" s="42"/>
-      <c r="N1" s="42"/>
+      <c r="M1" s="41"/>
+      <c r="N1" s="41"/>
     </row>
     <row r="3" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A3" s="42" t="s">
+      <c r="A3" s="41" t="s">
         <v>138</v>
       </c>
-      <c r="B3" s="42"/>
-      <c r="C3" s="42"/>
-      <c r="D3" s="42"/>
-      <c r="I3" s="42" t="s">
+      <c r="B3" s="41"/>
+      <c r="C3" s="41"/>
+      <c r="D3" s="41"/>
+      <c r="I3" s="41" t="s">
         <v>137</v>
       </c>
-      <c r="J3" s="42"/>
+      <c r="J3" s="41"/>
       <c r="L3" s="24"/>
       <c r="M3" s="24"/>
     </row>
@@ -2865,18 +2871,18 @@
       <c r="M5" s="33" t="s">
         <v>167</v>
       </c>
-      <c r="N5" s="42" t="s">
+      <c r="N5" s="41" t="s">
         <v>194</v>
       </c>
-      <c r="O5" s="42"/>
+      <c r="O5" s="41"/>
       <c r="S5" t="s">
         <v>142</v>
       </c>
-      <c r="T5" s="42" t="s">
+      <c r="T5" s="41" t="s">
         <v>143</v>
       </c>
-      <c r="U5" s="42"/>
-      <c r="V5" s="42"/>
+      <c r="U5" s="41"/>
+      <c r="V5" s="41"/>
     </row>
     <row r="6" spans="1:22" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="19" t="s">
@@ -2900,18 +2906,18 @@
       <c r="M6" s="32" t="s">
         <v>188</v>
       </c>
-      <c r="N6" s="45" t="s">
+      <c r="N6" s="44" t="s">
         <v>168</v>
       </c>
-      <c r="O6" s="45"/>
+      <c r="O6" s="44"/>
       <c r="S6" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="T6" s="41">
+      <c r="T6" s="42">
         <v>30</v>
       </c>
-      <c r="U6" s="42"/>
-      <c r="V6" s="42"/>
+      <c r="U6" s="41"/>
+      <c r="V6" s="41"/>
     </row>
     <row r="7" spans="1:22" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="31" t="s">
@@ -2933,16 +2939,16 @@
         <v>250</v>
       </c>
       <c r="M7" s="32"/>
-      <c r="N7" s="42"/>
-      <c r="O7" s="42"/>
+      <c r="N7" s="41"/>
+      <c r="O7" s="41"/>
       <c r="S7" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="T7" s="41">
+      <c r="T7" s="42">
         <v>19</v>
       </c>
-      <c r="U7" s="42"/>
-      <c r="V7" s="42"/>
+      <c r="U7" s="41"/>
+      <c r="V7" s="41"/>
     </row>
     <row r="8" spans="1:22" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="31" t="s">
@@ -2966,18 +2972,18 @@
       <c r="M8" s="32" t="s">
         <v>170</v>
       </c>
-      <c r="N8" s="42" t="s">
+      <c r="N8" s="41" t="s">
         <v>169</v>
       </c>
-      <c r="O8" s="42"/>
+      <c r="O8" s="41"/>
       <c r="S8" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="T8" s="41">
+      <c r="T8" s="42">
         <v>27</v>
       </c>
-      <c r="U8" s="42"/>
-      <c r="V8" s="42"/>
+      <c r="U8" s="41"/>
+      <c r="V8" s="41"/>
     </row>
     <row r="9" spans="1:22" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="31" t="s">
@@ -2997,18 +3003,18 @@
       <c r="M9" s="32" t="s">
         <v>171</v>
       </c>
-      <c r="N9" s="45" t="s">
+      <c r="N9" s="44" t="s">
         <v>172</v>
       </c>
-      <c r="O9" s="45"/>
+      <c r="O9" s="44"/>
       <c r="S9" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="T9" s="41">
+      <c r="T9" s="42">
         <v>30</v>
       </c>
-      <c r="U9" s="42"/>
-      <c r="V9" s="42"/>
+      <c r="U9" s="41"/>
+      <c r="V9" s="41"/>
     </row>
     <row r="10" spans="1:22" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="31"/>
@@ -3024,18 +3030,18 @@
       <c r="M10" s="32" t="s">
         <v>173</v>
       </c>
-      <c r="N10" s="42" t="s">
+      <c r="N10" s="41" t="s">
         <v>174</v>
       </c>
-      <c r="O10" s="42"/>
+      <c r="O10" s="41"/>
       <c r="S10" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="T10" s="41">
+      <c r="T10" s="42">
         <v>30</v>
       </c>
-      <c r="U10" s="42"/>
-      <c r="V10" s="42"/>
+      <c r="U10" s="41"/>
+      <c r="V10" s="41"/>
     </row>
     <row r="11" spans="1:22" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="31"/>
@@ -3047,18 +3053,18 @@
       <c r="M11" s="32" t="s">
         <v>175</v>
       </c>
-      <c r="N11" s="42" t="s">
+      <c r="N11" s="41" t="s">
         <v>176</v>
       </c>
-      <c r="O11" s="42"/>
+      <c r="O11" s="41"/>
       <c r="S11" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="T11" s="41">
+      <c r="T11" s="42">
         <v>15</v>
       </c>
-      <c r="U11" s="42"/>
-      <c r="V11" s="42"/>
+      <c r="U11" s="41"/>
+      <c r="V11" s="41"/>
     </row>
     <row r="12" spans="1:22" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="31"/>
@@ -3071,11 +3077,11 @@
       <c r="S12" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="T12" s="41">
+      <c r="T12" s="42">
         <v>12</v>
       </c>
-      <c r="U12" s="42"/>
-      <c r="V12" s="42"/>
+      <c r="U12" s="41"/>
+      <c r="V12" s="41"/>
     </row>
     <row r="13" spans="1:22" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="31"/>
@@ -3088,9 +3094,9 @@
       <c r="S13" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="T13" s="41"/>
-      <c r="U13" s="42"/>
-      <c r="V13" s="42"/>
+      <c r="T13" s="42"/>
+      <c r="U13" s="41"/>
+      <c r="V13" s="41"/>
     </row>
     <row r="14" spans="1:22" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A14" s="31"/>
@@ -3127,10 +3133,10 @@
       <c r="I17" s="29"/>
       <c r="J17" s="25"/>
       <c r="M17" s="32"/>
-      <c r="S17" s="43" t="s">
+      <c r="S17" s="46" t="s">
         <v>146</v>
       </c>
-      <c r="T17" s="43"/>
+      <c r="T17" s="46"/>
     </row>
     <row r="18" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A18" s="31"/>
@@ -3167,10 +3173,10 @@
       <c r="I21" s="29"/>
       <c r="J21" s="25"/>
       <c r="M21" s="32"/>
-      <c r="S21" s="44" t="s">
+      <c r="S21" s="43" t="s">
         <v>158</v>
       </c>
-      <c r="T21" s="44"/>
+      <c r="T21" s="43"/>
     </row>
     <row r="22" spans="1:21" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A22" s="31"/>
@@ -3180,10 +3186,10 @@
       <c r="I22" s="29"/>
       <c r="J22" s="25"/>
       <c r="M22" s="32"/>
-      <c r="S22" s="42" t="s">
+      <c r="S22" s="41" t="s">
         <v>159</v>
       </c>
-      <c r="T22" s="42"/>
+      <c r="T22" s="41"/>
     </row>
     <row r="23" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A23" s="31"/>
@@ -3212,10 +3218,10 @@
       <c r="S26" s="27" t="s">
         <v>144</v>
       </c>
-      <c r="T26" s="40" t="s">
+      <c r="T26" s="45" t="s">
         <v>145</v>
       </c>
-      <c r="U26" s="40"/>
+      <c r="U26" s="45"/>
     </row>
     <row r="27" spans="1:21" x14ac:dyDescent="0.25">
       <c r="I27" t="s">
@@ -3224,18 +3230,18 @@
       <c r="J27" s="34" t="s">
         <v>149</v>
       </c>
-      <c r="M27" s="42" t="s">
+      <c r="M27" s="47" t="s">
         <v>202</v>
       </c>
-      <c r="N27" s="42"/>
-      <c r="O27" s="42"/>
+      <c r="N27" s="47"/>
+      <c r="O27" s="47"/>
       <c r="S27" s="28" t="s">
         <v>1</v>
       </c>
-      <c r="T27" s="40">
+      <c r="T27" s="45">
         <v>1.7</v>
       </c>
-      <c r="U27" s="40"/>
+      <c r="U27" s="45"/>
     </row>
     <row r="28" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A28" s="25" t="s">
@@ -3250,17 +3256,17 @@
       <c r="J28" s="25">
         <v>50</v>
       </c>
-      <c r="M28" s="46" t="s">
+      <c r="M28" s="40" t="s">
         <v>200</v>
       </c>
-      <c r="N28" s="46"/>
+      <c r="N28" s="40"/>
       <c r="S28" s="28" t="s">
         <v>2</v>
       </c>
-      <c r="T28" s="40">
+      <c r="T28" s="45">
         <v>1.2</v>
       </c>
-      <c r="U28" s="40"/>
+      <c r="U28" s="45"/>
     </row>
     <row r="29" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A29" s="19" t="s">
@@ -3275,17 +3281,17 @@
       <c r="J29" s="25">
         <v>200</v>
       </c>
-      <c r="M29" s="46" t="s">
+      <c r="M29" s="40" t="s">
         <v>201</v>
       </c>
-      <c r="N29" s="46"/>
+      <c r="N29" s="40"/>
       <c r="S29" s="28" t="s">
         <v>3</v>
       </c>
-      <c r="T29" s="40">
+      <c r="T29" s="45">
         <v>2</v>
       </c>
-      <c r="U29" s="40"/>
+      <c r="U29" s="45"/>
     </row>
     <row r="30" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A30" s="19" t="s">
@@ -3300,17 +3306,17 @@
       <c r="J30" s="25">
         <v>10</v>
       </c>
-      <c r="M30" s="46" t="s">
+      <c r="M30" s="40" t="s">
         <v>203</v>
       </c>
-      <c r="N30" s="46"/>
+      <c r="N30" s="40"/>
       <c r="S30" s="28" t="s">
         <v>7</v>
       </c>
-      <c r="T30" s="40">
+      <c r="T30" s="45">
         <v>1.7</v>
       </c>
-      <c r="U30" s="40"/>
+      <c r="U30" s="45"/>
     </row>
     <row r="31" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A31" s="19" t="s">
@@ -3325,17 +3331,17 @@
       <c r="J31" s="25">
         <v>600</v>
       </c>
-      <c r="M31" s="46" t="s">
+      <c r="M31" s="40" t="s">
         <v>204</v>
       </c>
-      <c r="N31" s="46"/>
+      <c r="N31" s="40"/>
       <c r="S31" s="28" t="s">
         <v>8</v>
       </c>
-      <c r="T31" s="40">
+      <c r="T31" s="45">
         <v>1.7</v>
       </c>
-      <c r="U31" s="40"/>
+      <c r="U31" s="45"/>
     </row>
     <row r="32" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A32" s="19" t="s">
@@ -3350,17 +3356,17 @@
       <c r="J32" s="25">
         <v>500</v>
       </c>
-      <c r="M32" s="46" t="s">
+      <c r="M32" s="40" t="s">
         <v>205</v>
       </c>
-      <c r="N32" s="46"/>
+      <c r="N32" s="40"/>
       <c r="S32" s="28" t="s">
         <v>5</v>
       </c>
-      <c r="T32" s="40">
+      <c r="T32" s="45">
         <v>1.5</v>
       </c>
-      <c r="U32" s="40"/>
+      <c r="U32" s="45"/>
     </row>
     <row r="33" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A33" s="19" t="s">
@@ -3375,17 +3381,17 @@
       <c r="J33" s="25">
         <v>900</v>
       </c>
-      <c r="M33" s="46" t="s">
+      <c r="M33" s="40" t="s">
         <v>206</v>
       </c>
-      <c r="N33" s="46"/>
+      <c r="N33" s="40"/>
       <c r="S33" s="28" t="s">
         <v>4</v>
       </c>
-      <c r="T33" s="40">
+      <c r="T33" s="45">
         <v>1</v>
       </c>
-      <c r="U33" s="40"/>
+      <c r="U33" s="45"/>
     </row>
     <row r="34" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A34" s="19" t="s">
@@ -3400,17 +3406,17 @@
       <c r="J34" s="25">
         <v>100</v>
       </c>
-      <c r="M34" s="46" t="s">
+      <c r="M34" s="40" t="s">
         <v>207</v>
       </c>
-      <c r="N34" s="46"/>
+      <c r="N34" s="40"/>
       <c r="S34" s="28" t="s">
         <v>6</v>
       </c>
-      <c r="T34" s="40">
+      <c r="T34" s="45">
         <v>1.2</v>
       </c>
-      <c r="U34" s="40"/>
+      <c r="U34" s="45"/>
     </row>
     <row r="35" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A35" s="19" t="s">
@@ -3425,8 +3431,10 @@
       <c r="J35" s="25">
         <v>70</v>
       </c>
-      <c r="M35" s="46"/>
-      <c r="N35" s="46"/>
+      <c r="M35" s="40" t="s">
+        <v>208</v>
+      </c>
+      <c r="N35" s="40"/>
     </row>
     <row r="36" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A36" s="19" t="s">
@@ -3437,8 +3445,8 @@
       </c>
       <c r="I36" s="29"/>
       <c r="J36" s="25"/>
-      <c r="M36" s="47"/>
-      <c r="N36" s="47"/>
+      <c r="M36" s="40"/>
+      <c r="N36" s="40"/>
     </row>
     <row r="37" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A37" s="19" t="s">
@@ -3449,8 +3457,8 @@
       </c>
       <c r="I37" s="29"/>
       <c r="J37" s="25"/>
-      <c r="M37" s="47"/>
-      <c r="N37" s="47"/>
+      <c r="M37" s="40"/>
+      <c r="N37" s="40"/>
     </row>
     <row r="38" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A38" s="19" t="s">
@@ -3461,8 +3469,8 @@
       </c>
       <c r="I38" s="29"/>
       <c r="J38" s="25"/>
-      <c r="M38" s="47"/>
-      <c r="N38" s="47"/>
+      <c r="M38" s="40"/>
+      <c r="N38" s="40"/>
     </row>
     <row r="39" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A39" s="19" t="s">
@@ -3473,8 +3481,8 @@
       </c>
       <c r="I39" s="29"/>
       <c r="J39" s="25"/>
-      <c r="M39" s="47"/>
-      <c r="N39" s="47"/>
+      <c r="M39" s="40"/>
+      <c r="N39" s="40"/>
     </row>
     <row r="40" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A40" s="19" t="s">
@@ -3485,8 +3493,8 @@
       </c>
       <c r="I40" s="29"/>
       <c r="J40" s="25"/>
-      <c r="M40" s="47"/>
-      <c r="N40" s="47"/>
+      <c r="M40" s="40"/>
+      <c r="N40" s="40"/>
     </row>
     <row r="41" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A41" s="19" t="s">
@@ -3538,22 +3546,25 @@
   <sortState ref="A29:B41">
     <sortCondition ref="A29"/>
   </sortState>
-  <mergeCells count="42">
-    <mergeCell ref="M28:N28"/>
-    <mergeCell ref="M29:N29"/>
-    <mergeCell ref="M30:N30"/>
-    <mergeCell ref="M31:N31"/>
-    <mergeCell ref="M32:N32"/>
-    <mergeCell ref="M33:N33"/>
-    <mergeCell ref="M34:N34"/>
-    <mergeCell ref="M35:N35"/>
-    <mergeCell ref="N10:O10"/>
-    <mergeCell ref="N11:O11"/>
-    <mergeCell ref="N5:O5"/>
-    <mergeCell ref="M27:O27"/>
-    <mergeCell ref="N7:O7"/>
-    <mergeCell ref="T10:V10"/>
-    <mergeCell ref="A3:D3"/>
+  <mergeCells count="47">
+    <mergeCell ref="M36:N36"/>
+    <mergeCell ref="M37:N37"/>
+    <mergeCell ref="M38:N38"/>
+    <mergeCell ref="M39:N39"/>
+    <mergeCell ref="M40:N40"/>
+    <mergeCell ref="T33:U33"/>
+    <mergeCell ref="T34:U34"/>
+    <mergeCell ref="T26:U26"/>
+    <mergeCell ref="T11:V11"/>
+    <mergeCell ref="T12:V12"/>
+    <mergeCell ref="T13:V13"/>
+    <mergeCell ref="S17:T17"/>
+    <mergeCell ref="T27:U27"/>
+    <mergeCell ref="T28:U28"/>
+    <mergeCell ref="T29:U29"/>
+    <mergeCell ref="T30:U30"/>
+    <mergeCell ref="T31:U31"/>
+    <mergeCell ref="T32:U32"/>
     <mergeCell ref="B1:C1"/>
     <mergeCell ref="L1:N1"/>
     <mergeCell ref="S22:T22"/>
@@ -3568,19 +3579,21 @@
     <mergeCell ref="T9:V9"/>
     <mergeCell ref="N8:O8"/>
     <mergeCell ref="N9:O9"/>
-    <mergeCell ref="T33:U33"/>
-    <mergeCell ref="T34:U34"/>
-    <mergeCell ref="T26:U26"/>
-    <mergeCell ref="T11:V11"/>
-    <mergeCell ref="T12:V12"/>
-    <mergeCell ref="T13:V13"/>
-    <mergeCell ref="S17:T17"/>
-    <mergeCell ref="T27:U27"/>
-    <mergeCell ref="T28:U28"/>
-    <mergeCell ref="T29:U29"/>
-    <mergeCell ref="T30:U30"/>
-    <mergeCell ref="T31:U31"/>
-    <mergeCell ref="T32:U32"/>
+    <mergeCell ref="N5:O5"/>
+    <mergeCell ref="M27:O27"/>
+    <mergeCell ref="N7:O7"/>
+    <mergeCell ref="T10:V10"/>
+    <mergeCell ref="A3:D3"/>
+    <mergeCell ref="M33:N33"/>
+    <mergeCell ref="M34:N34"/>
+    <mergeCell ref="M35:N35"/>
+    <mergeCell ref="N10:O10"/>
+    <mergeCell ref="N11:O11"/>
+    <mergeCell ref="M28:N28"/>
+    <mergeCell ref="M29:N29"/>
+    <mergeCell ref="M30:N30"/>
+    <mergeCell ref="M31:N31"/>
+    <mergeCell ref="M32:N32"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -3588,6 +3601,20 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{921F0F25-3081-445F-BF8B-895D5A99EEC7}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K6" sqref="K6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D829E6F4-4AF8-4D90-B023-1875E88842BF}">
   <dimension ref="A1:L1048576"/>
   <sheetViews>
@@ -3892,7 +3919,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AD24C5A3-3A97-4775-B383-884A6DE303E8}">
   <dimension ref="A1:I1048576"/>
   <sheetViews>

--- a/PenAndPaperTabellen.xlsx
+++ b/PenAndPaperTabellen.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Leonardo Jurisic\Desktop\PenAndPaper_Python\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{6123ED02-8014-4623-AB5B-1608A3F61C99}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{360499B6-AA79-4E0D-8882-A4F0F9DB0E77}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" activeTab="2" xr2:uid="{396B72A2-12CE-422A-97A0-75A4949D3867}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" activeTab="1" xr2:uid="{396B72A2-12CE-422A-97A0-75A4949D3867}"/>
   </bookViews>
   <sheets>
     <sheet name="Klassen stats" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="363" uniqueCount="209">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="379" uniqueCount="224">
   <si>
     <t xml:space="preserve">Klassen / Rassen </t>
   </si>
@@ -583,9 +583,6 @@
     <t>Wolfsfell(500g)</t>
   </si>
   <si>
-    <t>Kompass</t>
-  </si>
-  <si>
     <t>Wünschelrute</t>
   </si>
   <si>
@@ -674,6 +671,54 @@
   </si>
   <si>
     <t>Jagd</t>
+  </si>
+  <si>
+    <t>Kettenhemd(9kg)</t>
+  </si>
+  <si>
+    <t>Seil</t>
+  </si>
+  <si>
+    <t>Speer(1,6kg)</t>
+  </si>
+  <si>
+    <t>Haxen</t>
+  </si>
+  <si>
+    <t>Sauerkraut</t>
+  </si>
+  <si>
+    <t>Diamantring</t>
+  </si>
+  <si>
+    <t>Sonnenkompass</t>
+  </si>
+  <si>
+    <t>Kerze</t>
+  </si>
+  <si>
+    <t>Trinkhorn</t>
+  </si>
+  <si>
+    <t>Gerbmesser</t>
+  </si>
+  <si>
+    <t>Wein</t>
+  </si>
+  <si>
+    <t>Wein(100g)</t>
+  </si>
+  <si>
+    <t>Kampfaxt(4kg)</t>
+  </si>
+  <si>
+    <t>Laib Käse</t>
+  </si>
+  <si>
+    <t>Steak</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
   </si>
 </sst>
 </file>
@@ -980,7 +1025,7 @@
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="48">
+  <cellXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" quotePrefix="1" applyFill="1"/>
@@ -1047,6 +1092,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -1064,22 +1112,22 @@
     <xf numFmtId="0" fontId="8" fillId="7" borderId="0" xfId="7" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="6" xfId="10" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="8" xfId="13" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="6" xfId="10" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -2040,24 +2088,24 @@
       <c r="G11" s="1"/>
       <c r="H11" s="1"/>
       <c r="I11" s="1"/>
-      <c r="K11" s="36"/>
+      <c r="K11" s="37"/>
       <c r="L11" s="4"/>
-      <c r="M11" s="35" t="s">
+      <c r="M11" s="36" t="s">
         <v>30</v>
       </c>
-      <c r="N11" s="39"/>
-      <c r="O11" s="37" t="s">
+      <c r="N11" s="40"/>
+      <c r="O11" s="38" t="s">
         <v>54</v>
       </c>
-      <c r="P11" s="38"/>
-      <c r="Q11" s="36"/>
+      <c r="P11" s="39"/>
+      <c r="Q11" s="37"/>
       <c r="S11" s="1"/>
       <c r="U11" s="1"/>
-      <c r="V11" s="35" t="s">
+      <c r="V11" s="36" t="s">
         <v>45</v>
       </c>
-      <c r="W11" s="35"/>
-      <c r="X11" s="35"/>
+      <c r="W11" s="36"/>
+      <c r="X11" s="36"/>
       <c r="Y11" s="23"/>
       <c r="Z11" s="23"/>
       <c r="AA11" s="23"/>
@@ -2073,18 +2121,18 @@
       <c r="G12" s="1"/>
       <c r="H12" s="1"/>
       <c r="I12" s="1"/>
-      <c r="K12" s="36"/>
+      <c r="K12" s="37"/>
       <c r="L12" s="4"/>
-      <c r="M12" s="35"/>
-      <c r="N12" s="39"/>
-      <c r="O12" s="38"/>
-      <c r="P12" s="38"/>
-      <c r="Q12" s="36"/>
+      <c r="M12" s="36"/>
+      <c r="N12" s="40"/>
+      <c r="O12" s="39"/>
+      <c r="P12" s="39"/>
+      <c r="Q12" s="37"/>
       <c r="S12" s="1"/>
       <c r="U12" s="1"/>
-      <c r="V12" s="35"/>
-      <c r="W12" s="35"/>
-      <c r="X12" s="35"/>
+      <c r="V12" s="36"/>
+      <c r="W12" s="36"/>
+      <c r="X12" s="36"/>
       <c r="Y12" s="23"/>
       <c r="Z12" s="23"/>
       <c r="AA12" s="23"/>
@@ -2100,18 +2148,18 @@
       <c r="G13" s="1"/>
       <c r="H13" s="1"/>
       <c r="I13" s="1"/>
-      <c r="K13" s="36"/>
+      <c r="K13" s="37"/>
       <c r="L13" s="4"/>
-      <c r="M13" s="35"/>
-      <c r="N13" s="39"/>
-      <c r="O13" s="38"/>
-      <c r="P13" s="38"/>
-      <c r="Q13" s="36"/>
+      <c r="M13" s="36"/>
+      <c r="N13" s="40"/>
+      <c r="O13" s="39"/>
+      <c r="P13" s="39"/>
+      <c r="Q13" s="37"/>
       <c r="S13" s="1"/>
       <c r="U13" s="1"/>
-      <c r="V13" s="35"/>
-      <c r="W13" s="35"/>
-      <c r="X13" s="35"/>
+      <c r="V13" s="36"/>
+      <c r="W13" s="36"/>
+      <c r="X13" s="36"/>
       <c r="Y13" s="23"/>
       <c r="Z13" s="23"/>
       <c r="AA13" s="23"/>
@@ -2127,18 +2175,18 @@
       <c r="G14" s="1"/>
       <c r="H14" s="1"/>
       <c r="I14" s="1"/>
-      <c r="K14" s="36"/>
+      <c r="K14" s="37"/>
       <c r="L14" s="4"/>
-      <c r="M14" s="35"/>
-      <c r="N14" s="39"/>
-      <c r="O14" s="38"/>
-      <c r="P14" s="38"/>
-      <c r="Q14" s="36"/>
+      <c r="M14" s="36"/>
+      <c r="N14" s="40"/>
+      <c r="O14" s="39"/>
+      <c r="P14" s="39"/>
+      <c r="Q14" s="37"/>
       <c r="S14" s="1"/>
       <c r="U14" s="1"/>
-      <c r="V14" s="35"/>
-      <c r="W14" s="35"/>
-      <c r="X14" s="35"/>
+      <c r="V14" s="36"/>
+      <c r="W14" s="36"/>
+      <c r="X14" s="36"/>
       <c r="Y14" s="23"/>
       <c r="Z14" s="23"/>
       <c r="AA14" s="23"/>
@@ -2154,18 +2202,18 @@
       <c r="G15" s="1"/>
       <c r="H15" s="1"/>
       <c r="I15" s="1"/>
-      <c r="K15" s="36"/>
+      <c r="K15" s="37"/>
       <c r="L15" s="4"/>
-      <c r="M15" s="35"/>
-      <c r="N15" s="39"/>
-      <c r="O15" s="38"/>
-      <c r="P15" s="38"/>
-      <c r="Q15" s="36"/>
+      <c r="M15" s="36"/>
+      <c r="N15" s="40"/>
+      <c r="O15" s="39"/>
+      <c r="P15" s="39"/>
+      <c r="Q15" s="37"/>
       <c r="S15" s="1"/>
       <c r="U15" s="1"/>
-      <c r="V15" s="35"/>
-      <c r="W15" s="35"/>
-      <c r="X15" s="35"/>
+      <c r="V15" s="36"/>
+      <c r="W15" s="36"/>
+      <c r="X15" s="36"/>
       <c r="Y15" s="23"/>
       <c r="Z15" s="23"/>
       <c r="AA15" s="23"/>
@@ -2181,18 +2229,18 @@
       <c r="G16" s="1"/>
       <c r="H16" s="1"/>
       <c r="I16" s="1"/>
-      <c r="K16" s="36"/>
+      <c r="K16" s="37"/>
       <c r="L16" s="4"/>
-      <c r="M16" s="35"/>
-      <c r="N16" s="39"/>
-      <c r="O16" s="38"/>
-      <c r="P16" s="38"/>
-      <c r="Q16" s="36"/>
+      <c r="M16" s="36"/>
+      <c r="N16" s="40"/>
+      <c r="O16" s="39"/>
+      <c r="P16" s="39"/>
+      <c r="Q16" s="37"/>
       <c r="S16" s="1"/>
       <c r="U16" s="1"/>
-      <c r="V16" s="35"/>
-      <c r="W16" s="35"/>
-      <c r="X16" s="35"/>
+      <c r="V16" s="36"/>
+      <c r="W16" s="36"/>
+      <c r="X16" s="36"/>
       <c r="Y16" s="23"/>
       <c r="Z16" s="23"/>
       <c r="AA16" s="23"/>
@@ -2208,18 +2256,18 @@
       <c r="G17" s="1"/>
       <c r="H17" s="1"/>
       <c r="I17" s="1"/>
-      <c r="K17" s="36"/>
+      <c r="K17" s="37"/>
       <c r="L17" s="4"/>
-      <c r="M17" s="35"/>
-      <c r="N17" s="39"/>
-      <c r="O17" s="38"/>
-      <c r="P17" s="38"/>
-      <c r="Q17" s="36"/>
+      <c r="M17" s="36"/>
+      <c r="N17" s="40"/>
+      <c r="O17" s="39"/>
+      <c r="P17" s="39"/>
+      <c r="Q17" s="37"/>
       <c r="S17" s="1"/>
       <c r="U17" s="1"/>
-      <c r="V17" s="35"/>
-      <c r="W17" s="35"/>
-      <c r="X17" s="35"/>
+      <c r="V17" s="36"/>
+      <c r="W17" s="36"/>
+      <c r="X17" s="36"/>
       <c r="Y17" s="23"/>
       <c r="Z17" s="23"/>
       <c r="AA17" s="23"/>
@@ -2235,18 +2283,18 @@
       <c r="G18" s="1"/>
       <c r="H18" s="1"/>
       <c r="I18" s="1"/>
-      <c r="K18" s="36"/>
+      <c r="K18" s="37"/>
       <c r="L18" s="4"/>
-      <c r="M18" s="35"/>
-      <c r="N18" s="39"/>
-      <c r="O18" s="38"/>
-      <c r="P18" s="38"/>
-      <c r="Q18" s="36"/>
+      <c r="M18" s="36"/>
+      <c r="N18" s="40"/>
+      <c r="O18" s="39"/>
+      <c r="P18" s="39"/>
+      <c r="Q18" s="37"/>
       <c r="S18" s="1"/>
       <c r="U18" s="1"/>
-      <c r="V18" s="35"/>
-      <c r="W18" s="35"/>
-      <c r="X18" s="35"/>
+      <c r="V18" s="36"/>
+      <c r="W18" s="36"/>
+      <c r="X18" s="36"/>
       <c r="Y18" s="23"/>
       <c r="Z18" s="23"/>
       <c r="AA18" s="23"/>
@@ -2262,18 +2310,18 @@
       <c r="G19" s="1"/>
       <c r="H19" s="1"/>
       <c r="I19" s="1"/>
-      <c r="K19" s="36"/>
+      <c r="K19" s="37"/>
       <c r="L19" s="4"/>
-      <c r="M19" s="35"/>
-      <c r="N19" s="39"/>
-      <c r="O19" s="38"/>
-      <c r="P19" s="38"/>
-      <c r="Q19" s="36"/>
+      <c r="M19" s="36"/>
+      <c r="N19" s="40"/>
+      <c r="O19" s="39"/>
+      <c r="P19" s="39"/>
+      <c r="Q19" s="37"/>
       <c r="S19" s="1"/>
       <c r="U19" s="1"/>
-      <c r="V19" s="35"/>
-      <c r="W19" s="35"/>
-      <c r="X19" s="35"/>
+      <c r="V19" s="36"/>
+      <c r="W19" s="36"/>
+      <c r="X19" s="36"/>
       <c r="Y19" s="23"/>
       <c r="Z19" s="23"/>
       <c r="AA19" s="23"/>
@@ -2289,18 +2337,18 @@
       <c r="G20" s="1"/>
       <c r="H20" s="1"/>
       <c r="I20" s="1"/>
-      <c r="K20" s="36"/>
+      <c r="K20" s="37"/>
       <c r="L20" s="4"/>
-      <c r="M20" s="35"/>
-      <c r="N20" s="39"/>
-      <c r="O20" s="38"/>
-      <c r="P20" s="38"/>
-      <c r="Q20" s="36"/>
+      <c r="M20" s="36"/>
+      <c r="N20" s="40"/>
+      <c r="O20" s="39"/>
+      <c r="P20" s="39"/>
+      <c r="Q20" s="37"/>
       <c r="S20" s="1"/>
       <c r="U20" s="1"/>
-      <c r="V20" s="35"/>
-      <c r="W20" s="35"/>
-      <c r="X20" s="35"/>
+      <c r="V20" s="36"/>
+      <c r="W20" s="36"/>
+      <c r="X20" s="36"/>
       <c r="Y20" s="23"/>
       <c r="Z20" s="23"/>
       <c r="AA20" s="23"/>
@@ -2316,18 +2364,18 @@
       <c r="G21" s="1"/>
       <c r="H21" s="1"/>
       <c r="I21" s="1"/>
-      <c r="K21" s="36"/>
+      <c r="K21" s="37"/>
       <c r="L21" s="4"/>
-      <c r="M21" s="35"/>
-      <c r="N21" s="39"/>
-      <c r="O21" s="38"/>
-      <c r="P21" s="38"/>
-      <c r="Q21" s="36"/>
+      <c r="M21" s="36"/>
+      <c r="N21" s="40"/>
+      <c r="O21" s="39"/>
+      <c r="P21" s="39"/>
+      <c r="Q21" s="37"/>
       <c r="S21" s="1"/>
       <c r="U21" s="1"/>
-      <c r="V21" s="35"/>
-      <c r="W21" s="35"/>
-      <c r="X21" s="35"/>
+      <c r="V21" s="36"/>
+      <c r="W21" s="36"/>
+      <c r="X21" s="36"/>
       <c r="Y21" s="23"/>
       <c r="Z21" s="23"/>
       <c r="AA21" s="23"/>
@@ -2343,18 +2391,18 @@
       <c r="G22" s="1"/>
       <c r="H22" s="1"/>
       <c r="I22" s="1"/>
-      <c r="K22" s="36"/>
+      <c r="K22" s="37"/>
       <c r="L22" s="4"/>
-      <c r="M22" s="35"/>
-      <c r="N22" s="39"/>
-      <c r="O22" s="38"/>
-      <c r="P22" s="38"/>
-      <c r="Q22" s="36"/>
+      <c r="M22" s="36"/>
+      <c r="N22" s="40"/>
+      <c r="O22" s="39"/>
+      <c r="P22" s="39"/>
+      <c r="Q22" s="37"/>
       <c r="S22" s="1"/>
       <c r="U22" s="1"/>
-      <c r="V22" s="35"/>
-      <c r="W22" s="35"/>
-      <c r="X22" s="35"/>
+      <c r="V22" s="36"/>
+      <c r="W22" s="36"/>
+      <c r="X22" s="36"/>
       <c r="Y22" s="23"/>
       <c r="Z22" s="23"/>
       <c r="AA22" s="23"/>
@@ -2370,18 +2418,18 @@
       <c r="G23" s="1"/>
       <c r="H23" s="1"/>
       <c r="I23" s="1"/>
-      <c r="K23" s="36"/>
+      <c r="K23" s="37"/>
       <c r="L23" s="4"/>
-      <c r="M23" s="35"/>
-      <c r="N23" s="39"/>
-      <c r="O23" s="38"/>
-      <c r="P23" s="38"/>
-      <c r="Q23" s="36"/>
+      <c r="M23" s="36"/>
+      <c r="N23" s="40"/>
+      <c r="O23" s="39"/>
+      <c r="P23" s="39"/>
+      <c r="Q23" s="37"/>
       <c r="S23" s="1"/>
       <c r="U23" s="1"/>
-      <c r="V23" s="35"/>
-      <c r="W23" s="35"/>
-      <c r="X23" s="35"/>
+      <c r="V23" s="36"/>
+      <c r="W23" s="36"/>
+      <c r="X23" s="36"/>
       <c r="Y23" s="23"/>
       <c r="Z23" s="23"/>
       <c r="AA23" s="23"/>
@@ -2397,18 +2445,18 @@
       <c r="G24" s="1"/>
       <c r="H24" s="1"/>
       <c r="I24" s="1"/>
-      <c r="K24" s="36"/>
+      <c r="K24" s="37"/>
       <c r="L24" s="4"/>
-      <c r="M24" s="35"/>
-      <c r="N24" s="39"/>
-      <c r="O24" s="38"/>
-      <c r="P24" s="38"/>
-      <c r="Q24" s="36"/>
+      <c r="M24" s="36"/>
+      <c r="N24" s="40"/>
+      <c r="O24" s="39"/>
+      <c r="P24" s="39"/>
+      <c r="Q24" s="37"/>
       <c r="S24" s="1"/>
       <c r="U24" s="1"/>
-      <c r="V24" s="35"/>
-      <c r="W24" s="35"/>
-      <c r="X24" s="35"/>
+      <c r="V24" s="36"/>
+      <c r="W24" s="36"/>
+      <c r="X24" s="36"/>
       <c r="Y24" s="23"/>
       <c r="Z24" s="23"/>
       <c r="AA24" s="23"/>
@@ -2424,18 +2472,18 @@
       <c r="G25" s="1"/>
       <c r="H25" s="1"/>
       <c r="I25" s="1"/>
-      <c r="K25" s="36"/>
+      <c r="K25" s="37"/>
       <c r="L25" s="4"/>
-      <c r="M25" s="35"/>
-      <c r="N25" s="39"/>
-      <c r="O25" s="38"/>
-      <c r="P25" s="38"/>
-      <c r="Q25" s="36"/>
+      <c r="M25" s="36"/>
+      <c r="N25" s="40"/>
+      <c r="O25" s="39"/>
+      <c r="P25" s="39"/>
+      <c r="Q25" s="37"/>
       <c r="S25" s="1"/>
       <c r="U25" s="1"/>
-      <c r="V25" s="35"/>
-      <c r="W25" s="35"/>
-      <c r="X25" s="35"/>
+      <c r="V25" s="36"/>
+      <c r="W25" s="36"/>
+      <c r="X25" s="36"/>
       <c r="Y25" s="23"/>
       <c r="Z25" s="23"/>
       <c r="AA25" s="23"/>
@@ -2451,18 +2499,18 @@
       <c r="G26" s="1"/>
       <c r="H26" s="1"/>
       <c r="I26" s="1"/>
-      <c r="K26" s="36"/>
+      <c r="K26" s="37"/>
       <c r="L26" s="4"/>
-      <c r="M26" s="35"/>
-      <c r="N26" s="39"/>
-      <c r="O26" s="38"/>
-      <c r="P26" s="38"/>
-      <c r="Q26" s="36"/>
+      <c r="M26" s="36"/>
+      <c r="N26" s="40"/>
+      <c r="O26" s="39"/>
+      <c r="P26" s="39"/>
+      <c r="Q26" s="37"/>
       <c r="S26" s="1"/>
       <c r="U26" s="1"/>
-      <c r="V26" s="35"/>
-      <c r="W26" s="35"/>
-      <c r="X26" s="35"/>
+      <c r="V26" s="36"/>
+      <c r="W26" s="36"/>
+      <c r="X26" s="36"/>
       <c r="Y26" s="23"/>
       <c r="Z26" s="23"/>
       <c r="AA26" s="23"/>
@@ -2478,18 +2526,18 @@
       <c r="G27" s="1"/>
       <c r="H27" s="1"/>
       <c r="I27" s="1"/>
-      <c r="K27" s="36"/>
+      <c r="K27" s="37"/>
       <c r="L27" s="4"/>
-      <c r="M27" s="35"/>
-      <c r="N27" s="39"/>
-      <c r="O27" s="38"/>
-      <c r="P27" s="38"/>
-      <c r="Q27" s="36"/>
+      <c r="M27" s="36"/>
+      <c r="N27" s="40"/>
+      <c r="O27" s="39"/>
+      <c r="P27" s="39"/>
+      <c r="Q27" s="37"/>
       <c r="S27" s="1"/>
       <c r="U27" s="1"/>
-      <c r="V27" s="35"/>
-      <c r="W27" s="35"/>
-      <c r="X27" s="35"/>
+      <c r="V27" s="36"/>
+      <c r="W27" s="36"/>
+      <c r="X27" s="36"/>
       <c r="Y27" s="23"/>
       <c r="Z27" s="23"/>
       <c r="AA27" s="23"/>
@@ -2505,18 +2553,18 @@
       <c r="G28" s="1"/>
       <c r="H28" s="1"/>
       <c r="I28" s="1"/>
-      <c r="K28" s="36"/>
+      <c r="K28" s="37"/>
       <c r="L28" s="4"/>
-      <c r="M28" s="35"/>
-      <c r="N28" s="39"/>
-      <c r="O28" s="38"/>
-      <c r="P28" s="38"/>
-      <c r="Q28" s="36"/>
+      <c r="M28" s="36"/>
+      <c r="N28" s="40"/>
+      <c r="O28" s="39"/>
+      <c r="P28" s="39"/>
+      <c r="Q28" s="37"/>
       <c r="S28" s="1"/>
       <c r="U28" s="1"/>
-      <c r="V28" s="35"/>
-      <c r="W28" s="35"/>
-      <c r="X28" s="35"/>
+      <c r="V28" s="36"/>
+      <c r="W28" s="36"/>
+      <c r="X28" s="36"/>
       <c r="Y28" s="23"/>
       <c r="Z28" s="23"/>
       <c r="AA28" s="23"/>
@@ -2532,18 +2580,18 @@
       <c r="G29" s="1"/>
       <c r="H29" s="1"/>
       <c r="I29" s="1"/>
-      <c r="K29" s="36"/>
+      <c r="K29" s="37"/>
       <c r="L29" s="4"/>
-      <c r="M29" s="35"/>
-      <c r="N29" s="39"/>
-      <c r="O29" s="38"/>
-      <c r="P29" s="38"/>
-      <c r="Q29" s="36"/>
+      <c r="M29" s="36"/>
+      <c r="N29" s="40"/>
+      <c r="O29" s="39"/>
+      <c r="P29" s="39"/>
+      <c r="Q29" s="37"/>
       <c r="S29" s="1"/>
       <c r="U29" s="1"/>
-      <c r="V29" s="35"/>
-      <c r="W29" s="35"/>
-      <c r="X29" s="35"/>
+      <c r="V29" s="36"/>
+      <c r="W29" s="36"/>
+      <c r="X29" s="36"/>
       <c r="Y29" s="23"/>
       <c r="Z29" s="23"/>
       <c r="AA29" s="23"/>
@@ -2559,18 +2607,18 @@
       <c r="G30" s="1"/>
       <c r="H30" s="1"/>
       <c r="I30" s="1"/>
-      <c r="K30" s="36"/>
+      <c r="K30" s="37"/>
       <c r="L30" s="4"/>
-      <c r="M30" s="35"/>
-      <c r="N30" s="39"/>
-      <c r="O30" s="38"/>
-      <c r="P30" s="38"/>
-      <c r="Q30" s="36"/>
+      <c r="M30" s="36"/>
+      <c r="N30" s="40"/>
+      <c r="O30" s="39"/>
+      <c r="P30" s="39"/>
+      <c r="Q30" s="37"/>
       <c r="S30" s="1"/>
       <c r="U30" s="1"/>
-      <c r="V30" s="35"/>
-      <c r="W30" s="35"/>
-      <c r="X30" s="35"/>
+      <c r="V30" s="36"/>
+      <c r="W30" s="36"/>
+      <c r="X30" s="36"/>
       <c r="Y30" s="23"/>
       <c r="Z30" s="23"/>
       <c r="AA30" s="23"/>
@@ -2586,18 +2634,18 @@
       <c r="G31" s="1"/>
       <c r="H31" s="1"/>
       <c r="I31" s="1"/>
-      <c r="K31" s="36"/>
+      <c r="K31" s="37"/>
       <c r="L31" s="4"/>
-      <c r="M31" s="35"/>
-      <c r="N31" s="39"/>
-      <c r="O31" s="38"/>
-      <c r="P31" s="38"/>
-      <c r="Q31" s="36"/>
+      <c r="M31" s="36"/>
+      <c r="N31" s="40"/>
+      <c r="O31" s="39"/>
+      <c r="P31" s="39"/>
+      <c r="Q31" s="37"/>
       <c r="S31" s="1"/>
       <c r="U31" s="1"/>
-      <c r="V31" s="35"/>
-      <c r="W31" s="35"/>
-      <c r="X31" s="35"/>
+      <c r="V31" s="36"/>
+      <c r="W31" s="36"/>
+      <c r="X31" s="36"/>
       <c r="Y31" s="23"/>
       <c r="Z31" s="23"/>
       <c r="AA31" s="23"/>
@@ -2613,18 +2661,18 @@
       <c r="G32" s="1"/>
       <c r="H32" s="1"/>
       <c r="I32" s="1"/>
-      <c r="K32" s="36"/>
+      <c r="K32" s="37"/>
       <c r="L32" s="4"/>
-      <c r="M32" s="35"/>
-      <c r="N32" s="39"/>
-      <c r="O32" s="38"/>
-      <c r="P32" s="38"/>
-      <c r="Q32" s="36"/>
+      <c r="M32" s="36"/>
+      <c r="N32" s="40"/>
+      <c r="O32" s="39"/>
+      <c r="P32" s="39"/>
+      <c r="Q32" s="37"/>
       <c r="S32" s="1"/>
       <c r="U32" s="1"/>
-      <c r="V32" s="35"/>
-      <c r="W32" s="35"/>
-      <c r="X32" s="35"/>
+      <c r="V32" s="36"/>
+      <c r="W32" s="36"/>
+      <c r="X32" s="36"/>
       <c r="Y32" s="23"/>
       <c r="Z32" s="23"/>
       <c r="AA32" s="23"/>
@@ -2640,18 +2688,18 @@
       <c r="G33" s="1"/>
       <c r="H33" s="1"/>
       <c r="I33" s="1"/>
-      <c r="K33" s="36"/>
+      <c r="K33" s="37"/>
       <c r="L33" s="4"/>
-      <c r="M33" s="35"/>
-      <c r="N33" s="39"/>
-      <c r="O33" s="38"/>
-      <c r="P33" s="38"/>
-      <c r="Q33" s="36"/>
+      <c r="M33" s="36"/>
+      <c r="N33" s="40"/>
+      <c r="O33" s="39"/>
+      <c r="P33" s="39"/>
+      <c r="Q33" s="37"/>
       <c r="S33" s="1"/>
       <c r="U33" s="1"/>
-      <c r="V33" s="35"/>
-      <c r="W33" s="35"/>
-      <c r="X33" s="35"/>
+      <c r="V33" s="36"/>
+      <c r="W33" s="36"/>
+      <c r="X33" s="36"/>
       <c r="Y33" s="23"/>
       <c r="Z33" s="23"/>
       <c r="AA33" s="23"/>
@@ -2667,13 +2715,13 @@
       <c r="G34" s="1"/>
       <c r="H34" s="1"/>
       <c r="I34" s="1"/>
-      <c r="K34" s="36"/>
+      <c r="K34" s="37"/>
       <c r="L34" s="4"/>
-      <c r="M34" s="35"/>
-      <c r="N34" s="39"/>
-      <c r="O34" s="38"/>
-      <c r="P34" s="38"/>
-      <c r="Q34" s="36"/>
+      <c r="M34" s="36"/>
+      <c r="N34" s="40"/>
+      <c r="O34" s="39"/>
+      <c r="P34" s="39"/>
+      <c r="Q34" s="37"/>
       <c r="S34" s="1"/>
       <c r="U34" s="1"/>
       <c r="V34" s="1"/>
@@ -2805,10 +2853,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CED389B3-A1BA-4514-AE73-0BE4546454AE}">
-  <dimension ref="A1:V50"/>
+  <dimension ref="A1:V48"/>
   <sheetViews>
-    <sheetView topLeftCell="G21" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="M40" sqref="M40:N40"/>
+    <sheetView tabSelected="1" zoomScale="93" zoomScaleNormal="93" workbookViewId="0">
+      <selection activeCell="I14" sqref="I14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2824,31 +2872,31 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="B1" s="41" t="s">
+      <c r="B1" s="44" t="s">
         <v>139</v>
       </c>
-      <c r="C1" s="41"/>
-      <c r="I1" s="41" t="s">
+      <c r="C1" s="44"/>
+      <c r="I1" s="44" t="s">
         <v>140</v>
       </c>
-      <c r="J1" s="41"/>
-      <c r="L1" s="41" t="s">
+      <c r="J1" s="44"/>
+      <c r="L1" s="44" t="s">
         <v>141</v>
       </c>
-      <c r="M1" s="41"/>
-      <c r="N1" s="41"/>
+      <c r="M1" s="44"/>
+      <c r="N1" s="44"/>
     </row>
     <row r="3" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A3" s="41" t="s">
+      <c r="A3" s="44" t="s">
         <v>138</v>
       </c>
-      <c r="B3" s="41"/>
-      <c r="C3" s="41"/>
-      <c r="D3" s="41"/>
-      <c r="I3" s="41" t="s">
+      <c r="B3" s="44"/>
+      <c r="C3" s="44"/>
+      <c r="D3" s="44"/>
+      <c r="I3" s="44" t="s">
         <v>137</v>
       </c>
-      <c r="J3" s="41"/>
+      <c r="J3" s="44"/>
       <c r="L3" s="24"/>
       <c r="M3" s="24"/>
     </row>
@@ -2860,7 +2908,10 @@
         <v>28</v>
       </c>
       <c r="E5" s="25" t="s">
-        <v>162</v>
+        <v>161</v>
+      </c>
+      <c r="F5" s="34" t="s">
+        <v>28</v>
       </c>
       <c r="I5" s="25" t="s">
         <v>160</v>
@@ -2871,53 +2922,53 @@
       <c r="M5" s="33" t="s">
         <v>167</v>
       </c>
-      <c r="N5" s="41" t="s">
-        <v>194</v>
-      </c>
-      <c r="O5" s="41"/>
+      <c r="N5" s="44" t="s">
+        <v>193</v>
+      </c>
+      <c r="O5" s="44"/>
       <c r="S5" t="s">
         <v>142</v>
       </c>
-      <c r="T5" s="41" t="s">
+      <c r="T5" s="44" t="s">
         <v>143</v>
       </c>
-      <c r="U5" s="41"/>
-      <c r="V5" s="41"/>
+      <c r="U5" s="44"/>
+      <c r="V5" s="44"/>
     </row>
     <row r="6" spans="1:22" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="19" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B6" s="34">
         <v>2</v>
       </c>
       <c r="E6" s="19" t="s">
-        <v>157</v>
-      </c>
-      <c r="F6" s="26">
-        <v>7</v>
+        <v>189</v>
+      </c>
+      <c r="F6" s="24">
+        <v>5</v>
       </c>
       <c r="I6" s="29" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="J6" s="25">
-        <v>500</v>
+        <v>250</v>
       </c>
       <c r="M6" s="32" t="s">
-        <v>188</v>
+        <v>170</v>
       </c>
       <c r="N6" s="44" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="O6" s="44"/>
       <c r="S6" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="T6" s="42">
+      <c r="T6" s="43">
         <v>30</v>
       </c>
-      <c r="U6" s="41"/>
-      <c r="V6" s="41"/>
+      <c r="U6" s="44"/>
+      <c r="V6" s="44"/>
     </row>
     <row r="7" spans="1:22" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="31" t="s">
@@ -2927,28 +2978,32 @@
         <v>1</v>
       </c>
       <c r="E7" s="19" t="s">
-        <v>177</v>
-      </c>
-      <c r="F7" s="34">
-        <v>8</v>
+        <v>181</v>
+      </c>
+      <c r="F7" s="24">
+        <v>18</v>
       </c>
       <c r="I7" s="29" t="s">
-        <v>150</v>
+        <v>164</v>
       </c>
       <c r="J7" s="25">
-        <v>250</v>
-      </c>
-      <c r="M7" s="32"/>
-      <c r="N7" s="41"/>
-      <c r="O7" s="41"/>
+        <v>350</v>
+      </c>
+      <c r="M7" s="32" t="s">
+        <v>171</v>
+      </c>
+      <c r="N7" s="47" t="s">
+        <v>172</v>
+      </c>
+      <c r="O7" s="47"/>
       <c r="S7" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="T7" s="42">
+      <c r="T7" s="43">
         <v>19</v>
       </c>
-      <c r="U7" s="41"/>
-      <c r="V7" s="41"/>
+      <c r="U7" s="44"/>
+      <c r="V7" s="44"/>
     </row>
     <row r="8" spans="1:22" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="31" t="s">
@@ -2958,160 +3013,204 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="E8" s="19" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="F8" s="34">
-        <v>17</v>
+        <v>6</v>
       </c>
       <c r="I8" s="29" t="s">
-        <v>155</v>
+        <v>148</v>
       </c>
       <c r="J8" s="25">
         <v>500</v>
       </c>
       <c r="M8" s="32" t="s">
-        <v>170</v>
-      </c>
-      <c r="N8" s="41" t="s">
-        <v>169</v>
-      </c>
-      <c r="O8" s="41"/>
+        <v>173</v>
+      </c>
+      <c r="N8" s="44" t="s">
+        <v>174</v>
+      </c>
+      <c r="O8" s="44"/>
       <c r="S8" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="T8" s="42">
+      <c r="T8" s="43">
         <v>27</v>
       </c>
-      <c r="U8" s="41"/>
-      <c r="V8" s="41"/>
+      <c r="U8" s="44"/>
+      <c r="V8" s="44"/>
     </row>
     <row r="9" spans="1:22" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="31" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B9" s="25">
         <v>5</v>
       </c>
-      <c r="E9" s="19"/>
-      <c r="F9" s="34"/>
+      <c r="E9" s="19" t="s">
+        <v>220</v>
+      </c>
+      <c r="F9" s="34">
+        <v>22</v>
+      </c>
       <c r="I9" s="29" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="J9" s="25">
-        <v>350</v>
+        <v>600</v>
       </c>
       <c r="M9" s="32" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="N9" s="44" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="O9" s="44"/>
       <c r="S9" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="T9" s="42">
+      <c r="T9" s="43">
         <v>30</v>
       </c>
-      <c r="U9" s="41"/>
-      <c r="V9" s="41"/>
+      <c r="U9" s="44"/>
+      <c r="V9" s="44"/>
     </row>
     <row r="10" spans="1:22" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="31"/>
-      <c r="B10" s="25"/>
-      <c r="E10" s="19"/>
-      <c r="F10" s="34"/>
+      <c r="A10" s="31" t="s">
+        <v>211</v>
+      </c>
+      <c r="B10" s="25">
+        <v>3</v>
+      </c>
+      <c r="E10" s="19" t="s">
+        <v>188</v>
+      </c>
+      <c r="F10" s="24">
+        <v>10</v>
+      </c>
       <c r="I10" s="29" t="s">
-        <v>166</v>
+        <v>155</v>
       </c>
       <c r="J10" s="25">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="M10" s="32" t="s">
-        <v>173</v>
-      </c>
-      <c r="N10" s="41" t="s">
-        <v>174</v>
-      </c>
-      <c r="O10" s="41"/>
+        <v>187</v>
+      </c>
+      <c r="N10" s="47" t="s">
+        <v>168</v>
+      </c>
+      <c r="O10" s="47"/>
       <c r="S10" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="T10" s="42">
+      <c r="T10" s="43">
         <v>30</v>
       </c>
-      <c r="U10" s="41"/>
-      <c r="V10" s="41"/>
+      <c r="U10" s="44"/>
+      <c r="V10" s="44"/>
     </row>
     <row r="11" spans="1:22" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="31"/>
-      <c r="B11" s="25"/>
-      <c r="E11" s="19"/>
-      <c r="F11" s="34"/>
-      <c r="I11" s="29"/>
-      <c r="J11" s="25"/>
-      <c r="M11" s="32" t="s">
-        <v>175</v>
-      </c>
-      <c r="N11" s="41" t="s">
-        <v>176</v>
-      </c>
-      <c r="O11" s="41"/>
+      <c r="A11" s="31" t="s">
+        <v>212</v>
+      </c>
+      <c r="B11" s="25">
+        <v>1</v>
+      </c>
+      <c r="E11" s="19" t="s">
+        <v>186</v>
+      </c>
+      <c r="F11" s="34">
+        <v>8</v>
+      </c>
+      <c r="I11" s="29" t="s">
+        <v>221</v>
+      </c>
+      <c r="J11" s="25">
+        <v>600</v>
+      </c>
+      <c r="M11" s="32"/>
+      <c r="N11" s="35"/>
+      <c r="O11" s="35"/>
       <c r="S11" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="T11" s="42">
+      <c r="T11" s="43">
         <v>15</v>
       </c>
-      <c r="U11" s="41"/>
-      <c r="V11" s="41"/>
+      <c r="U11" s="44"/>
+      <c r="V11" s="44"/>
     </row>
     <row r="12" spans="1:22" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="31"/>
+      <c r="A12" s="31" t="s">
+        <v>218</v>
+      </c>
       <c r="B12" s="25"/>
-      <c r="E12" s="19"/>
-      <c r="F12" s="34"/>
-      <c r="I12" s="29"/>
-      <c r="J12" s="25"/>
+      <c r="E12" s="19" t="s">
+        <v>208</v>
+      </c>
+      <c r="F12" s="35">
+        <v>20</v>
+      </c>
+      <c r="I12" s="29" t="s">
+        <v>222</v>
+      </c>
+      <c r="J12" s="25">
+        <v>900</v>
+      </c>
       <c r="M12" s="32"/>
       <c r="S12" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="T12" s="42">
+      <c r="T12" s="43">
         <v>12</v>
       </c>
-      <c r="U12" s="41"/>
-      <c r="V12" s="41"/>
+      <c r="U12" s="44"/>
+      <c r="V12" s="44"/>
     </row>
     <row r="13" spans="1:22" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="31"/>
       <c r="B13" s="25"/>
-      <c r="E13" s="19"/>
-      <c r="F13" s="34"/>
+      <c r="E13" s="19" t="s">
+        <v>197</v>
+      </c>
+      <c r="F13" s="34">
+        <v>19</v>
+      </c>
       <c r="I13" s="29"/>
       <c r="J13" s="25"/>
       <c r="M13" s="32"/>
       <c r="S13" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="T13" s="42"/>
-      <c r="U13" s="41"/>
-      <c r="V13" s="41"/>
+      <c r="T13" s="43"/>
+      <c r="U13" s="44"/>
+      <c r="V13" s="44"/>
     </row>
     <row r="14" spans="1:22" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A14" s="31"/>
       <c r="B14" s="25"/>
-      <c r="E14" s="19"/>
-      <c r="F14" s="34"/>
-      <c r="I14" s="29"/>
+      <c r="E14" s="19" t="s">
+        <v>195</v>
+      </c>
+      <c r="F14" s="34">
+        <v>19</v>
+      </c>
+      <c r="I14" s="29" t="s">
+        <v>223</v>
+      </c>
       <c r="J14" s="25"/>
       <c r="M14" s="32"/>
     </row>
     <row r="15" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A15" s="31"/>
       <c r="B15" s="25"/>
-      <c r="E15" s="19"/>
-      <c r="F15" s="34"/>
+      <c r="E15" s="19" t="s">
+        <v>198</v>
+      </c>
+      <c r="F15" s="35">
+        <v>24</v>
+      </c>
       <c r="I15" s="29"/>
       <c r="J15" s="25"/>
       <c r="M15" s="32"/>
@@ -3119,8 +3218,12 @@
     <row r="16" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A16" s="31"/>
       <c r="B16" s="25"/>
-      <c r="E16" s="19"/>
-      <c r="F16" s="34"/>
+      <c r="E16" s="19" t="s">
+        <v>154</v>
+      </c>
+      <c r="F16" s="26">
+        <v>2.5</v>
+      </c>
       <c r="I16" s="29"/>
       <c r="J16" s="25"/>
       <c r="M16" s="32"/>
@@ -3128,21 +3231,29 @@
     <row r="17" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="31"/>
       <c r="B17" s="25"/>
-      <c r="E17" s="19"/>
-      <c r="F17" s="34"/>
+      <c r="E17" s="19" t="s">
+        <v>152</v>
+      </c>
+      <c r="F17" s="34">
+        <v>8</v>
+      </c>
       <c r="I17" s="29"/>
       <c r="J17" s="25"/>
       <c r="M17" s="32"/>
-      <c r="S17" s="46" t="s">
+      <c r="S17" s="45" t="s">
         <v>146</v>
       </c>
-      <c r="T17" s="46"/>
+      <c r="T17" s="45"/>
     </row>
     <row r="18" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A18" s="31"/>
       <c r="B18" s="25"/>
-      <c r="E18" s="19"/>
-      <c r="F18" s="34"/>
+      <c r="E18" s="19" t="s">
+        <v>153</v>
+      </c>
+      <c r="F18" s="35">
+        <v>5</v>
+      </c>
       <c r="I18" s="29"/>
       <c r="J18" s="25"/>
       <c r="M18" s="32"/>
@@ -3150,8 +3261,12 @@
     <row r="19" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A19" s="31"/>
       <c r="B19" s="25"/>
-      <c r="E19" s="19"/>
-      <c r="F19" s="34"/>
+      <c r="E19" s="19" t="s">
+        <v>156</v>
+      </c>
+      <c r="F19" s="26">
+        <v>3</v>
+      </c>
       <c r="I19" s="29"/>
       <c r="J19" s="25"/>
       <c r="M19" s="32"/>
@@ -3159,8 +3274,12 @@
     <row r="20" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A20" s="31"/>
       <c r="B20" s="25"/>
-      <c r="E20" s="19"/>
-      <c r="F20" s="34"/>
+      <c r="E20" s="19" t="s">
+        <v>184</v>
+      </c>
+      <c r="F20" s="34">
+        <v>2</v>
+      </c>
       <c r="I20" s="29"/>
       <c r="J20" s="25"/>
       <c r="M20" s="32"/>
@@ -3168,34 +3287,46 @@
     <row r="21" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="31"/>
       <c r="B21" s="25"/>
-      <c r="E21" s="19"/>
-      <c r="F21" s="34"/>
+      <c r="E21" s="19" t="s">
+        <v>147</v>
+      </c>
+      <c r="F21" s="35">
+        <v>4</v>
+      </c>
       <c r="I21" s="29"/>
       <c r="J21" s="25"/>
       <c r="M21" s="32"/>
-      <c r="S21" s="43" t="s">
+      <c r="S21" s="46" t="s">
         <v>158</v>
       </c>
-      <c r="T21" s="43"/>
+      <c r="T21" s="46"/>
     </row>
     <row r="22" spans="1:21" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A22" s="31"/>
       <c r="B22" s="25"/>
-      <c r="E22" s="19"/>
-      <c r="F22" s="34"/>
+      <c r="E22" s="19" t="s">
+        <v>210</v>
+      </c>
+      <c r="F22" s="35">
+        <v>12</v>
+      </c>
       <c r="I22" s="29"/>
       <c r="J22" s="25"/>
       <c r="M22" s="32"/>
-      <c r="S22" s="41" t="s">
+      <c r="S22" s="44" t="s">
         <v>159</v>
       </c>
-      <c r="T22" s="41"/>
+      <c r="T22" s="44"/>
     </row>
     <row r="23" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A23" s="31"/>
       <c r="B23" s="25"/>
-      <c r="E23" s="19"/>
-      <c r="F23" s="34"/>
+      <c r="E23" s="19" t="s">
+        <v>185</v>
+      </c>
+      <c r="F23" s="35">
+        <v>8</v>
+      </c>
       <c r="I23" s="29"/>
       <c r="J23" s="25"/>
       <c r="M23" s="32"/>
@@ -3204,50 +3335,50 @@
       <c r="A24" s="31"/>
       <c r="B24" s="25"/>
       <c r="E24" s="19"/>
-      <c r="F24" s="34"/>
       <c r="J24" s="25"/>
     </row>
     <row r="25" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A25" s="31"/>
       <c r="B25" s="25"/>
       <c r="E25" s="19"/>
-      <c r="F25" s="34"/>
     </row>
     <row r="26" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A26" s="30"/>
+      <c r="E26" s="19"/>
       <c r="S26" s="27" t="s">
         <v>144</v>
       </c>
-      <c r="T26" s="45" t="s">
+      <c r="T26" s="42" t="s">
         <v>145</v>
       </c>
-      <c r="U26" s="45"/>
+      <c r="U26" s="42"/>
     </row>
     <row r="27" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="E27" s="19"/>
       <c r="I27" t="s">
         <v>162</v>
       </c>
       <c r="J27" s="34" t="s">
         <v>149</v>
       </c>
-      <c r="M27" s="47" t="s">
-        <v>202</v>
-      </c>
-      <c r="N27" s="47"/>
-      <c r="O27" s="47"/>
+      <c r="M27" s="48" t="s">
+        <v>201</v>
+      </c>
+      <c r="N27" s="48"/>
+      <c r="O27" s="48"/>
       <c r="S27" s="28" t="s">
         <v>1</v>
       </c>
-      <c r="T27" s="45">
+      <c r="T27" s="42">
         <v>1.7</v>
       </c>
-      <c r="U27" s="45"/>
+      <c r="U27" s="42"/>
     </row>
     <row r="28" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A28" s="25" t="s">
-        <v>161</v>
-      </c>
-      <c r="B28" s="34" t="s">
+        <v>162</v>
+      </c>
+      <c r="B28" s="35" t="s">
         <v>28</v>
       </c>
       <c r="I28" s="29" t="s">
@@ -3256,315 +3387,285 @@
       <c r="J28" s="25">
         <v>50</v>
       </c>
-      <c r="M28" s="40" t="s">
-        <v>200</v>
-      </c>
-      <c r="N28" s="40"/>
+      <c r="M28" s="41" t="s">
+        <v>202</v>
+      </c>
+      <c r="N28" s="41"/>
       <c r="S28" s="28" t="s">
         <v>2</v>
       </c>
-      <c r="T28" s="45">
+      <c r="T28" s="42">
         <v>1.2</v>
       </c>
-      <c r="U28" s="45"/>
+      <c r="U28" s="42"/>
     </row>
     <row r="29" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A29" s="19" t="s">
-        <v>190</v>
-      </c>
-      <c r="B29" s="24">
-        <v>5</v>
+        <v>157</v>
+      </c>
+      <c r="B29" s="26">
+        <v>7</v>
       </c>
       <c r="I29" s="29" t="s">
-        <v>178</v>
+        <v>192</v>
       </c>
       <c r="J29" s="25">
-        <v>200</v>
-      </c>
-      <c r="M29" s="40" t="s">
-        <v>201</v>
-      </c>
-      <c r="N29" s="40"/>
+        <v>900</v>
+      </c>
+      <c r="M29" s="41" t="s">
+        <v>204</v>
+      </c>
+      <c r="N29" s="41"/>
       <c r="S29" s="28" t="s">
         <v>3</v>
       </c>
-      <c r="T29" s="45">
+      <c r="T29" s="42">
         <v>2</v>
       </c>
-      <c r="U29" s="45"/>
+      <c r="U29" s="42"/>
     </row>
     <row r="30" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A30" s="19" t="s">
-        <v>182</v>
-      </c>
-      <c r="B30" s="24">
-        <v>18</v>
+        <v>177</v>
+      </c>
+      <c r="B30" s="34">
+        <v>8</v>
       </c>
       <c r="I30" s="29" t="s">
-        <v>179</v>
+        <v>194</v>
       </c>
       <c r="J30" s="25">
-        <v>10</v>
-      </c>
-      <c r="M30" s="40" t="s">
-        <v>203</v>
-      </c>
-      <c r="N30" s="40"/>
+        <v>100</v>
+      </c>
+      <c r="M30" s="41" t="s">
+        <v>207</v>
+      </c>
+      <c r="N30" s="41"/>
       <c r="S30" s="28" t="s">
         <v>7</v>
       </c>
-      <c r="T30" s="45">
+      <c r="T30" s="42">
         <v>1.7</v>
       </c>
-      <c r="U30" s="45"/>
+      <c r="U30" s="42"/>
     </row>
     <row r="31" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A31" s="19" t="s">
         <v>191</v>
       </c>
       <c r="B31" s="34">
-        <v>6</v>
+        <v>17</v>
       </c>
       <c r="I31" s="29" t="s">
-        <v>183</v>
+        <v>214</v>
       </c>
       <c r="J31" s="25">
-        <v>600</v>
-      </c>
-      <c r="M31" s="40" t="s">
-        <v>204</v>
-      </c>
-      <c r="N31" s="40"/>
+        <v>200</v>
+      </c>
+      <c r="M31" s="41" t="s">
+        <v>199</v>
+      </c>
+      <c r="N31" s="41"/>
       <c r="S31" s="28" t="s">
         <v>8</v>
       </c>
-      <c r="T31" s="45">
+      <c r="T31" s="42">
         <v>1.7</v>
       </c>
-      <c r="U31" s="45"/>
+      <c r="U31" s="42"/>
     </row>
     <row r="32" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A32" s="19" t="s">
-        <v>189</v>
+        <v>213</v>
       </c>
       <c r="B32" s="34">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="I32" s="29" t="s">
-        <v>184</v>
+        <v>196</v>
       </c>
       <c r="J32" s="25">
-        <v>500</v>
-      </c>
-      <c r="M32" s="40" t="s">
+        <v>70</v>
+      </c>
+      <c r="M32" s="41" t="s">
         <v>205</v>
       </c>
-      <c r="N32" s="40"/>
+      <c r="N32" s="41"/>
       <c r="S32" s="28" t="s">
         <v>5</v>
       </c>
-      <c r="T32" s="45">
+      <c r="T32" s="42">
         <v>1.5</v>
       </c>
-      <c r="U32" s="45"/>
+      <c r="U32" s="42"/>
     </row>
     <row r="33" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A33" s="19" t="s">
-        <v>187</v>
-      </c>
-      <c r="B33" s="24">
-        <v>8</v>
+        <v>217</v>
+      </c>
+      <c r="B33" s="34">
+        <v>2</v>
       </c>
       <c r="I33" s="29" t="s">
-        <v>193</v>
+        <v>182</v>
       </c>
       <c r="J33" s="25">
-        <v>900</v>
-      </c>
-      <c r="M33" s="40" t="s">
-        <v>206</v>
-      </c>
-      <c r="N33" s="40"/>
+        <v>600</v>
+      </c>
+      <c r="M33" s="41" t="s">
+        <v>200</v>
+      </c>
+      <c r="N33" s="41"/>
       <c r="S33" s="28" t="s">
         <v>4</v>
       </c>
-      <c r="T33" s="45">
+      <c r="T33" s="42">
         <v>1</v>
       </c>
-      <c r="U33" s="45"/>
+      <c r="U33" s="42"/>
     </row>
     <row r="34" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A34" s="19" t="s">
-        <v>196</v>
+        <v>219</v>
       </c>
       <c r="B34" s="34">
-        <v>19</v>
+        <v>1</v>
       </c>
       <c r="I34" s="29" t="s">
-        <v>195</v>
+        <v>209</v>
       </c>
       <c r="J34" s="25">
         <v>100</v>
       </c>
-      <c r="M34" s="40" t="s">
-        <v>207</v>
-      </c>
-      <c r="N34" s="40"/>
+      <c r="M34" s="41" t="s">
+        <v>203</v>
+      </c>
+      <c r="N34" s="41"/>
       <c r="S34" s="28" t="s">
         <v>6</v>
       </c>
-      <c r="T34" s="45">
+      <c r="T34" s="42">
         <v>1.2</v>
       </c>
-      <c r="U34" s="45"/>
+      <c r="U34" s="42"/>
     </row>
     <row r="35" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A35" s="19" t="s">
-        <v>154</v>
-      </c>
-      <c r="B35" s="26">
-        <v>2.5</v>
-      </c>
+      <c r="A35" s="19"/>
+      <c r="B35" s="34"/>
       <c r="I35" s="29" t="s">
-        <v>197</v>
+        <v>183</v>
       </c>
       <c r="J35" s="25">
-        <v>70</v>
-      </c>
-      <c r="M35" s="40" t="s">
-        <v>208</v>
-      </c>
-      <c r="N35" s="40"/>
+        <v>500</v>
+      </c>
+      <c r="M35" s="41" t="s">
+        <v>206</v>
+      </c>
+      <c r="N35" s="41"/>
     </row>
     <row r="36" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A36" s="19" t="s">
-        <v>152</v>
-      </c>
-      <c r="B36" s="34">
-        <v>8</v>
-      </c>
-      <c r="I36" s="29"/>
-      <c r="J36" s="25"/>
-      <c r="M36" s="40"/>
-      <c r="N36" s="40"/>
+      <c r="A36" s="19"/>
+      <c r="B36" s="34"/>
+      <c r="I36" s="29" t="s">
+        <v>178</v>
+      </c>
+      <c r="J36" s="25">
+        <v>10</v>
+      </c>
+      <c r="M36" s="41"/>
+      <c r="N36" s="41"/>
     </row>
     <row r="37" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A37" s="19" t="s">
-        <v>153</v>
-      </c>
-      <c r="B37" s="34">
+      <c r="A37" s="19"/>
+      <c r="B37" s="34"/>
+      <c r="I37" s="29" t="s">
+        <v>215</v>
+      </c>
+      <c r="J37" s="25">
         <v>5</v>
       </c>
-      <c r="I37" s="29"/>
-      <c r="J37" s="25"/>
-      <c r="M37" s="40"/>
-      <c r="N37" s="40"/>
+      <c r="M37" s="41"/>
+      <c r="N37" s="41"/>
     </row>
     <row r="38" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A38" s="19" t="s">
-        <v>156</v>
-      </c>
-      <c r="B38" s="26">
-        <v>3</v>
-      </c>
-      <c r="I38" s="29"/>
-      <c r="J38" s="25"/>
-      <c r="M38" s="40"/>
-      <c r="N38" s="40"/>
+      <c r="A38" s="19"/>
+      <c r="B38" s="34"/>
+      <c r="I38" s="29" t="s">
+        <v>216</v>
+      </c>
+      <c r="J38" s="25">
+        <v>400</v>
+      </c>
+      <c r="M38" s="41"/>
+      <c r="N38" s="41"/>
     </row>
     <row r="39" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A39" s="19" t="s">
-        <v>185</v>
-      </c>
-      <c r="B39" s="34">
-        <v>2</v>
-      </c>
+      <c r="A39" s="19"/>
+      <c r="B39" s="34"/>
       <c r="I39" s="29"/>
       <c r="J39" s="25"/>
-      <c r="M39" s="40"/>
-      <c r="N39" s="40"/>
+      <c r="M39" s="41"/>
+      <c r="N39" s="41"/>
     </row>
     <row r="40" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A40" s="19" t="s">
-        <v>147</v>
-      </c>
-      <c r="B40" s="34">
-        <v>4</v>
-      </c>
+      <c r="A40" s="19"/>
+      <c r="B40" s="34"/>
       <c r="I40" s="29"/>
       <c r="J40" s="25"/>
-      <c r="M40" s="40"/>
-      <c r="N40" s="40"/>
+      <c r="M40" s="41"/>
+      <c r="N40" s="41"/>
     </row>
     <row r="41" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A41" s="19" t="s">
-        <v>186</v>
-      </c>
-      <c r="B41" s="34">
-        <v>8</v>
-      </c>
+      <c r="A41" s="19"/>
+      <c r="B41" s="34"/>
       <c r="I41" s="30"/>
     </row>
     <row r="42" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A42" s="19" t="s">
-        <v>198</v>
-      </c>
-      <c r="B42" s="34">
-        <v>19</v>
-      </c>
+      <c r="A42" s="19"/>
+      <c r="B42" s="34"/>
     </row>
     <row r="43" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A43" s="19" t="s">
-        <v>199</v>
-      </c>
-      <c r="B43" s="34">
-        <v>24</v>
-      </c>
+      <c r="A43" s="19"/>
+      <c r="B43" s="34"/>
     </row>
     <row r="44" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A44" s="19"/>
+      <c r="B44" s="34"/>
     </row>
     <row r="45" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A45" s="19"/>
+      <c r="B45" s="34"/>
     </row>
     <row r="46" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A46" s="19"/>
+      <c r="B46" s="34"/>
     </row>
     <row r="47" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A47" s="19"/>
+      <c r="B47" s="34"/>
     </row>
     <row r="48" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A48" s="19"/>
-    </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A49" s="19"/>
-    </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A50" s="19"/>
+      <c r="B48" s="34"/>
     </row>
   </sheetData>
-  <sortState ref="A29:B41">
-    <sortCondition ref="A29"/>
+  <sortState ref="E6:F23">
+    <sortCondition ref="E6"/>
   </sortState>
-  <mergeCells count="47">
-    <mergeCell ref="M36:N36"/>
-    <mergeCell ref="M37:N37"/>
-    <mergeCell ref="M38:N38"/>
-    <mergeCell ref="M39:N39"/>
-    <mergeCell ref="M40:N40"/>
-    <mergeCell ref="T33:U33"/>
-    <mergeCell ref="T34:U34"/>
-    <mergeCell ref="T26:U26"/>
-    <mergeCell ref="T11:V11"/>
-    <mergeCell ref="T12:V12"/>
-    <mergeCell ref="T13:V13"/>
-    <mergeCell ref="S17:T17"/>
-    <mergeCell ref="T27:U27"/>
-    <mergeCell ref="T28:U28"/>
-    <mergeCell ref="T29:U29"/>
-    <mergeCell ref="T30:U30"/>
-    <mergeCell ref="T31:U31"/>
-    <mergeCell ref="T32:U32"/>
+  <mergeCells count="46">
+    <mergeCell ref="M34:N34"/>
+    <mergeCell ref="M35:N35"/>
+    <mergeCell ref="N10:O10"/>
+    <mergeCell ref="M28:N28"/>
+    <mergeCell ref="M29:N29"/>
+    <mergeCell ref="M30:N30"/>
+    <mergeCell ref="M31:N31"/>
+    <mergeCell ref="M32:N32"/>
+    <mergeCell ref="M27:O27"/>
+    <mergeCell ref="N7:O7"/>
+    <mergeCell ref="T10:V10"/>
+    <mergeCell ref="A3:D3"/>
+    <mergeCell ref="M33:N33"/>
     <mergeCell ref="B1:C1"/>
     <mergeCell ref="L1:N1"/>
     <mergeCell ref="S22:T22"/>
@@ -3580,20 +3681,24 @@
     <mergeCell ref="N8:O8"/>
     <mergeCell ref="N9:O9"/>
     <mergeCell ref="N5:O5"/>
-    <mergeCell ref="M27:O27"/>
-    <mergeCell ref="N7:O7"/>
-    <mergeCell ref="T10:V10"/>
-    <mergeCell ref="A3:D3"/>
-    <mergeCell ref="M33:N33"/>
-    <mergeCell ref="M34:N34"/>
-    <mergeCell ref="M35:N35"/>
-    <mergeCell ref="N10:O10"/>
-    <mergeCell ref="N11:O11"/>
-    <mergeCell ref="M28:N28"/>
-    <mergeCell ref="M29:N29"/>
-    <mergeCell ref="M30:N30"/>
-    <mergeCell ref="M31:N31"/>
-    <mergeCell ref="M32:N32"/>
+    <mergeCell ref="T33:U33"/>
+    <mergeCell ref="T34:U34"/>
+    <mergeCell ref="T26:U26"/>
+    <mergeCell ref="T11:V11"/>
+    <mergeCell ref="T12:V12"/>
+    <mergeCell ref="T13:V13"/>
+    <mergeCell ref="S17:T17"/>
+    <mergeCell ref="T27:U27"/>
+    <mergeCell ref="T28:U28"/>
+    <mergeCell ref="T29:U29"/>
+    <mergeCell ref="T30:U30"/>
+    <mergeCell ref="T31:U31"/>
+    <mergeCell ref="T32:U32"/>
+    <mergeCell ref="M36:N36"/>
+    <mergeCell ref="M37:N37"/>
+    <mergeCell ref="M38:N38"/>
+    <mergeCell ref="M39:N39"/>
+    <mergeCell ref="M40:N40"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -3604,7 +3709,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{921F0F25-3081-445F-BF8B-895D5A99EEC7}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="K6" sqref="K6"/>
     </sheetView>
   </sheetViews>

--- a/PenAndPaperTabellen.xlsx
+++ b/PenAndPaperTabellen.xlsx
@@ -8,16 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Leonardo Jurisic\Desktop\PenAndPaper_Python\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{360499B6-AA79-4E0D-8882-A4F0F9DB0E77}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{E693159C-9E78-468A-997B-E25B0F0E2558}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" activeTab="1" xr2:uid="{396B72A2-12CE-422A-97A0-75A4949D3867}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" activeTab="2" xr2:uid="{396B72A2-12CE-422A-97A0-75A4949D3867}"/>
   </bookViews>
   <sheets>
     <sheet name="Klassen stats" sheetId="1" r:id="rId1"/>
     <sheet name="Items etc" sheetId="7" r:id="rId2"/>
-    <sheet name="Char.BluePrint" sheetId="8" r:id="rId3"/>
-    <sheet name="Gegnerliste" sheetId="2" r:id="rId4"/>
-    <sheet name="Diblomatische Beziehung" sheetId="6" r:id="rId5"/>
+    <sheet name="Klassen" sheetId="9" r:id="rId3"/>
+    <sheet name="Diblomatische Beziehung" sheetId="6" r:id="rId4"/>
+    <sheet name="Gegnerliste" sheetId="2" r:id="rId5"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="379" uniqueCount="224">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="401" uniqueCount="236">
   <si>
     <t xml:space="preserve">Klassen / Rassen </t>
   </si>
@@ -720,6 +720,42 @@
   <si>
     <t xml:space="preserve"> </t>
   </si>
+  <si>
+    <t>Klassen:</t>
+  </si>
+  <si>
+    <t>Mensch:</t>
+  </si>
+  <si>
+    <t>Berserker</t>
+  </si>
+  <si>
+    <t>Heiler</t>
+  </si>
+  <si>
+    <t>Jäger</t>
+  </si>
+  <si>
+    <t>Zwerg:</t>
+  </si>
+  <si>
+    <t>Magier</t>
+  </si>
+  <si>
+    <t>Schmied</t>
+  </si>
+  <si>
+    <t>Elben:</t>
+  </si>
+  <si>
+    <t>Wa-Echsen:</t>
+  </si>
+  <si>
+    <t>Wü-Echsen:</t>
+  </si>
+  <si>
+    <t>Kobole:</t>
+  </si>
 </sst>
 </file>
 
@@ -728,7 +764,7 @@
   <numFmts count="1">
     <numFmt numFmtId="44" formatCode="_-* #,##0.00\ &quot;€&quot;_-;\-* #,##0.00\ &quot;€&quot;_-;_-* &quot;-&quot;??\ &quot;€&quot;_-;_-@_-"/>
   </numFmts>
-  <fonts count="14" x14ac:knownFonts="1">
+  <fonts count="15" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -832,8 +868,16 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="11">
+  <fills count="12">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -886,8 +930,14 @@
         <fgColor theme="6"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="10">
+  <borders count="14">
     <border>
       <left/>
       <right/>
@@ -1008,8 +1058,56 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="14">
+  <cellStyleXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
@@ -1024,8 +1122,9 @@
     <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="49">
+  <cellXfs count="56">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" quotePrefix="1" applyFill="1"/>
@@ -1112,8 +1211,11 @@
     <xf numFmtId="0" fontId="8" fillId="7" borderId="0" xfId="7" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1121,20 +1223,37 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" xfId="13" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="3" borderId="6" xfId="10" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" xfId="13" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="2" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="10" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="11" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="12" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="13" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="9" xfId="14" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="14">
+  <cellStyles count="15">
+    <cellStyle name="60 % - Akzent3" xfId="14" builtinId="40"/>
     <cellStyle name="Akzent3" xfId="11" builtinId="37"/>
     <cellStyle name="Ausgabe" xfId="2" builtinId="21"/>
     <cellStyle name="Eingabe" xfId="1" builtinId="20"/>
@@ -1462,8 +1581,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8027D790-28A8-4E67-884D-8B5513C7C349}">
   <dimension ref="A1:AC38"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A9"/>
+    <sheetView topLeftCell="K1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="K7" sqref="K7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2088,7 +2207,7 @@
       <c r="G11" s="1"/>
       <c r="H11" s="1"/>
       <c r="I11" s="1"/>
-      <c r="K11" s="37"/>
+      <c r="K11" s="49"/>
       <c r="L11" s="4"/>
       <c r="M11" s="36" t="s">
         <v>30</v>
@@ -2121,7 +2240,7 @@
       <c r="G12" s="1"/>
       <c r="H12" s="1"/>
       <c r="I12" s="1"/>
-      <c r="K12" s="37"/>
+      <c r="K12" s="49"/>
       <c r="L12" s="4"/>
       <c r="M12" s="36"/>
       <c r="N12" s="40"/>
@@ -2148,7 +2267,7 @@
       <c r="G13" s="1"/>
       <c r="H13" s="1"/>
       <c r="I13" s="1"/>
-      <c r="K13" s="37"/>
+      <c r="K13" s="49"/>
       <c r="L13" s="4"/>
       <c r="M13" s="36"/>
       <c r="N13" s="40"/>
@@ -2175,7 +2294,7 @@
       <c r="G14" s="1"/>
       <c r="H14" s="1"/>
       <c r="I14" s="1"/>
-      <c r="K14" s="37"/>
+      <c r="K14" s="49"/>
       <c r="L14" s="4"/>
       <c r="M14" s="36"/>
       <c r="N14" s="40"/>
@@ -2202,7 +2321,7 @@
       <c r="G15" s="1"/>
       <c r="H15" s="1"/>
       <c r="I15" s="1"/>
-      <c r="K15" s="37"/>
+      <c r="K15" s="49"/>
       <c r="L15" s="4"/>
       <c r="M15" s="36"/>
       <c r="N15" s="40"/>
@@ -2229,7 +2348,7 @@
       <c r="G16" s="1"/>
       <c r="H16" s="1"/>
       <c r="I16" s="1"/>
-      <c r="K16" s="37"/>
+      <c r="K16" s="49"/>
       <c r="L16" s="4"/>
       <c r="M16" s="36"/>
       <c r="N16" s="40"/>
@@ -2256,7 +2375,7 @@
       <c r="G17" s="1"/>
       <c r="H17" s="1"/>
       <c r="I17" s="1"/>
-      <c r="K17" s="37"/>
+      <c r="K17" s="49"/>
       <c r="L17" s="4"/>
       <c r="M17" s="36"/>
       <c r="N17" s="40"/>
@@ -2283,7 +2402,7 @@
       <c r="G18" s="1"/>
       <c r="H18" s="1"/>
       <c r="I18" s="1"/>
-      <c r="K18" s="37"/>
+      <c r="K18" s="49"/>
       <c r="L18" s="4"/>
       <c r="M18" s="36"/>
       <c r="N18" s="40"/>
@@ -2310,7 +2429,7 @@
       <c r="G19" s="1"/>
       <c r="H19" s="1"/>
       <c r="I19" s="1"/>
-      <c r="K19" s="37"/>
+      <c r="K19" s="49"/>
       <c r="L19" s="4"/>
       <c r="M19" s="36"/>
       <c r="N19" s="40"/>
@@ -2337,7 +2456,7 @@
       <c r="G20" s="1"/>
       <c r="H20" s="1"/>
       <c r="I20" s="1"/>
-      <c r="K20" s="37"/>
+      <c r="K20" s="49"/>
       <c r="L20" s="4"/>
       <c r="M20" s="36"/>
       <c r="N20" s="40"/>
@@ -2364,7 +2483,7 @@
       <c r="G21" s="1"/>
       <c r="H21" s="1"/>
       <c r="I21" s="1"/>
-      <c r="K21" s="37"/>
+      <c r="K21" s="49"/>
       <c r="L21" s="4"/>
       <c r="M21" s="36"/>
       <c r="N21" s="40"/>
@@ -2391,7 +2510,7 @@
       <c r="G22" s="1"/>
       <c r="H22" s="1"/>
       <c r="I22" s="1"/>
-      <c r="K22" s="37"/>
+      <c r="K22" s="49"/>
       <c r="L22" s="4"/>
       <c r="M22" s="36"/>
       <c r="N22" s="40"/>
@@ -2418,7 +2537,7 @@
       <c r="G23" s="1"/>
       <c r="H23" s="1"/>
       <c r="I23" s="1"/>
-      <c r="K23" s="37"/>
+      <c r="K23" s="49"/>
       <c r="L23" s="4"/>
       <c r="M23" s="36"/>
       <c r="N23" s="40"/>
@@ -2445,7 +2564,7 @@
       <c r="G24" s="1"/>
       <c r="H24" s="1"/>
       <c r="I24" s="1"/>
-      <c r="K24" s="37"/>
+      <c r="K24" s="49"/>
       <c r="L24" s="4"/>
       <c r="M24" s="36"/>
       <c r="N24" s="40"/>
@@ -2472,7 +2591,7 @@
       <c r="G25" s="1"/>
       <c r="H25" s="1"/>
       <c r="I25" s="1"/>
-      <c r="K25" s="37"/>
+      <c r="K25" s="49"/>
       <c r="L25" s="4"/>
       <c r="M25" s="36"/>
       <c r="N25" s="40"/>
@@ -2499,7 +2618,7 @@
       <c r="G26" s="1"/>
       <c r="H26" s="1"/>
       <c r="I26" s="1"/>
-      <c r="K26" s="37"/>
+      <c r="K26" s="49"/>
       <c r="L26" s="4"/>
       <c r="M26" s="36"/>
       <c r="N26" s="40"/>
@@ -2526,7 +2645,7 @@
       <c r="G27" s="1"/>
       <c r="H27" s="1"/>
       <c r="I27" s="1"/>
-      <c r="K27" s="37"/>
+      <c r="K27" s="49"/>
       <c r="L27" s="4"/>
       <c r="M27" s="36"/>
       <c r="N27" s="40"/>
@@ -2553,7 +2672,7 @@
       <c r="G28" s="1"/>
       <c r="H28" s="1"/>
       <c r="I28" s="1"/>
-      <c r="K28" s="37"/>
+      <c r="K28" s="49"/>
       <c r="L28" s="4"/>
       <c r="M28" s="36"/>
       <c r="N28" s="40"/>
@@ -2580,7 +2699,7 @@
       <c r="G29" s="1"/>
       <c r="H29" s="1"/>
       <c r="I29" s="1"/>
-      <c r="K29" s="37"/>
+      <c r="K29" s="49"/>
       <c r="L29" s="4"/>
       <c r="M29" s="36"/>
       <c r="N29" s="40"/>
@@ -2607,7 +2726,7 @@
       <c r="G30" s="1"/>
       <c r="H30" s="1"/>
       <c r="I30" s="1"/>
-      <c r="K30" s="37"/>
+      <c r="K30" s="49"/>
       <c r="L30" s="4"/>
       <c r="M30" s="36"/>
       <c r="N30" s="40"/>
@@ -2634,7 +2753,7 @@
       <c r="G31" s="1"/>
       <c r="H31" s="1"/>
       <c r="I31" s="1"/>
-      <c r="K31" s="37"/>
+      <c r="K31" s="49"/>
       <c r="L31" s="4"/>
       <c r="M31" s="36"/>
       <c r="N31" s="40"/>
@@ -2661,7 +2780,7 @@
       <c r="G32" s="1"/>
       <c r="H32" s="1"/>
       <c r="I32" s="1"/>
-      <c r="K32" s="37"/>
+      <c r="K32" s="49"/>
       <c r="L32" s="4"/>
       <c r="M32" s="36"/>
       <c r="N32" s="40"/>
@@ -2688,7 +2807,7 @@
       <c r="G33" s="1"/>
       <c r="H33" s="1"/>
       <c r="I33" s="1"/>
-      <c r="K33" s="37"/>
+      <c r="K33" s="49"/>
       <c r="L33" s="4"/>
       <c r="M33" s="36"/>
       <c r="N33" s="40"/>
@@ -2715,7 +2834,7 @@
       <c r="G34" s="1"/>
       <c r="H34" s="1"/>
       <c r="I34" s="1"/>
-      <c r="K34" s="37"/>
+      <c r="K34" s="49"/>
       <c r="L34" s="4"/>
       <c r="M34" s="36"/>
       <c r="N34" s="40"/>
@@ -2838,9 +2957,8 @@
       <c r="AC38" s="1"/>
     </row>
   </sheetData>
-  <mergeCells count="6">
+  <mergeCells count="5">
     <mergeCell ref="V11:X33"/>
-    <mergeCell ref="K11:K34"/>
     <mergeCell ref="O11:P34"/>
     <mergeCell ref="N11:N34"/>
     <mergeCell ref="Q11:Q34"/>
@@ -2855,7 +2973,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CED389B3-A1BA-4514-AE73-0BE4546454AE}">
   <dimension ref="A1:V48"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="93" zoomScaleNormal="93" workbookViewId="0">
+    <sheetView topLeftCell="A10" zoomScale="93" zoomScaleNormal="93" workbookViewId="0">
       <selection activeCell="I14" sqref="I14"/>
     </sheetView>
   </sheetViews>
@@ -2872,31 +2990,31 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="B1" s="44" t="s">
+      <c r="B1" s="45" t="s">
         <v>139</v>
       </c>
-      <c r="C1" s="44"/>
-      <c r="I1" s="44" t="s">
+      <c r="C1" s="45"/>
+      <c r="I1" s="45" t="s">
         <v>140</v>
       </c>
-      <c r="J1" s="44"/>
-      <c r="L1" s="44" t="s">
+      <c r="J1" s="45"/>
+      <c r="L1" s="45" t="s">
         <v>141</v>
       </c>
-      <c r="M1" s="44"/>
-      <c r="N1" s="44"/>
+      <c r="M1" s="45"/>
+      <c r="N1" s="45"/>
     </row>
     <row r="3" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A3" s="44" t="s">
+      <c r="A3" s="45" t="s">
         <v>138</v>
       </c>
-      <c r="B3" s="44"/>
-      <c r="C3" s="44"/>
-      <c r="D3" s="44"/>
-      <c r="I3" s="44" t="s">
+      <c r="B3" s="45"/>
+      <c r="C3" s="45"/>
+      <c r="D3" s="45"/>
+      <c r="I3" s="45" t="s">
         <v>137</v>
       </c>
-      <c r="J3" s="44"/>
+      <c r="J3" s="45"/>
       <c r="L3" s="24"/>
       <c r="M3" s="24"/>
     </row>
@@ -2922,18 +3040,18 @@
       <c r="M5" s="33" t="s">
         <v>167</v>
       </c>
-      <c r="N5" s="44" t="s">
+      <c r="N5" s="45" t="s">
         <v>193</v>
       </c>
-      <c r="O5" s="44"/>
+      <c r="O5" s="45"/>
       <c r="S5" t="s">
         <v>142</v>
       </c>
-      <c r="T5" s="44" t="s">
+      <c r="T5" s="45" t="s">
         <v>143</v>
       </c>
-      <c r="U5" s="44"/>
-      <c r="V5" s="44"/>
+      <c r="U5" s="45"/>
+      <c r="V5" s="45"/>
     </row>
     <row r="6" spans="1:22" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="19" t="s">
@@ -2957,18 +3075,18 @@
       <c r="M6" s="32" t="s">
         <v>170</v>
       </c>
-      <c r="N6" s="44" t="s">
+      <c r="N6" s="45" t="s">
         <v>169</v>
       </c>
-      <c r="O6" s="44"/>
+      <c r="O6" s="45"/>
       <c r="S6" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="T6" s="43">
+      <c r="T6" s="44">
         <v>30</v>
       </c>
-      <c r="U6" s="44"/>
-      <c r="V6" s="44"/>
+      <c r="U6" s="45"/>
+      <c r="V6" s="45"/>
     </row>
     <row r="7" spans="1:22" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="31" t="s">
@@ -2992,18 +3110,18 @@
       <c r="M7" s="32" t="s">
         <v>171</v>
       </c>
-      <c r="N7" s="47" t="s">
+      <c r="N7" s="42" t="s">
         <v>172</v>
       </c>
-      <c r="O7" s="47"/>
+      <c r="O7" s="42"/>
       <c r="S7" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="T7" s="43">
+      <c r="T7" s="44">
         <v>19</v>
       </c>
-      <c r="U7" s="44"/>
-      <c r="V7" s="44"/>
+      <c r="U7" s="45"/>
+      <c r="V7" s="45"/>
     </row>
     <row r="8" spans="1:22" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="31" t="s">
@@ -3027,18 +3145,18 @@
       <c r="M8" s="32" t="s">
         <v>173</v>
       </c>
-      <c r="N8" s="44" t="s">
+      <c r="N8" s="45" t="s">
         <v>174</v>
       </c>
-      <c r="O8" s="44"/>
+      <c r="O8" s="45"/>
       <c r="S8" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="T8" s="43">
+      <c r="T8" s="44">
         <v>27</v>
       </c>
-      <c r="U8" s="44"/>
-      <c r="V8" s="44"/>
+      <c r="U8" s="45"/>
+      <c r="V8" s="45"/>
     </row>
     <row r="9" spans="1:22" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="31" t="s">
@@ -3062,18 +3180,18 @@
       <c r="M9" s="32" t="s">
         <v>175</v>
       </c>
-      <c r="N9" s="44" t="s">
+      <c r="N9" s="45" t="s">
         <v>176</v>
       </c>
-      <c r="O9" s="44"/>
+      <c r="O9" s="45"/>
       <c r="S9" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="T9" s="43">
+      <c r="T9" s="44">
         <v>30</v>
       </c>
-      <c r="U9" s="44"/>
-      <c r="V9" s="44"/>
+      <c r="U9" s="45"/>
+      <c r="V9" s="45"/>
     </row>
     <row r="10" spans="1:22" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="31" t="s">
@@ -3097,18 +3215,18 @@
       <c r="M10" s="32" t="s">
         <v>187</v>
       </c>
-      <c r="N10" s="47" t="s">
+      <c r="N10" s="42" t="s">
         <v>168</v>
       </c>
-      <c r="O10" s="47"/>
+      <c r="O10" s="42"/>
       <c r="S10" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="T10" s="43">
+      <c r="T10" s="44">
         <v>30</v>
       </c>
-      <c r="U10" s="44"/>
-      <c r="V10" s="44"/>
+      <c r="U10" s="45"/>
+      <c r="V10" s="45"/>
     </row>
     <row r="11" spans="1:22" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="31" t="s">
@@ -3135,11 +3253,11 @@
       <c r="S11" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="T11" s="43">
+      <c r="T11" s="44">
         <v>15</v>
       </c>
-      <c r="U11" s="44"/>
-      <c r="V11" s="44"/>
+      <c r="U11" s="45"/>
+      <c r="V11" s="45"/>
     </row>
     <row r="12" spans="1:22" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="31" t="s">
@@ -3162,11 +3280,11 @@
       <c r="S12" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="T12" s="43">
+      <c r="T12" s="44">
         <v>12</v>
       </c>
-      <c r="U12" s="44"/>
-      <c r="V12" s="44"/>
+      <c r="U12" s="45"/>
+      <c r="V12" s="45"/>
     </row>
     <row r="13" spans="1:22" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="31"/>
@@ -3183,9 +3301,9 @@
       <c r="S13" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="T13" s="43"/>
-      <c r="U13" s="44"/>
-      <c r="V13" s="44"/>
+      <c r="T13" s="44"/>
+      <c r="U13" s="45"/>
+      <c r="V13" s="45"/>
     </row>
     <row r="14" spans="1:22" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A14" s="31"/>
@@ -3240,10 +3358,10 @@
       <c r="I17" s="29"/>
       <c r="J17" s="25"/>
       <c r="M17" s="32"/>
-      <c r="S17" s="45" t="s">
+      <c r="S17" s="48" t="s">
         <v>146</v>
       </c>
-      <c r="T17" s="45"/>
+      <c r="T17" s="48"/>
     </row>
     <row r="18" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A18" s="31"/>
@@ -3313,10 +3431,10 @@
       <c r="I22" s="29"/>
       <c r="J22" s="25"/>
       <c r="M22" s="32"/>
-      <c r="S22" s="44" t="s">
+      <c r="S22" s="45" t="s">
         <v>159</v>
       </c>
-      <c r="T22" s="44"/>
+      <c r="T22" s="45"/>
     </row>
     <row r="23" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A23" s="31"/>
@@ -3348,10 +3466,10 @@
       <c r="S26" s="27" t="s">
         <v>144</v>
       </c>
-      <c r="T26" s="42" t="s">
+      <c r="T26" s="47" t="s">
         <v>145</v>
       </c>
-      <c r="U26" s="42"/>
+      <c r="U26" s="47"/>
     </row>
     <row r="27" spans="1:21" x14ac:dyDescent="0.25">
       <c r="E27" s="19"/>
@@ -3361,18 +3479,18 @@
       <c r="J27" s="34" t="s">
         <v>149</v>
       </c>
-      <c r="M27" s="48" t="s">
+      <c r="M27" s="43" t="s">
         <v>201</v>
       </c>
-      <c r="N27" s="48"/>
-      <c r="O27" s="48"/>
+      <c r="N27" s="43"/>
+      <c r="O27" s="43"/>
       <c r="S27" s="28" t="s">
         <v>1</v>
       </c>
-      <c r="T27" s="42">
+      <c r="T27" s="47">
         <v>1.7</v>
       </c>
-      <c r="U27" s="42"/>
+      <c r="U27" s="47"/>
     </row>
     <row r="28" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A28" s="25" t="s">
@@ -3394,10 +3512,10 @@
       <c r="S28" s="28" t="s">
         <v>2</v>
       </c>
-      <c r="T28" s="42">
+      <c r="T28" s="47">
         <v>1.2</v>
       </c>
-      <c r="U28" s="42"/>
+      <c r="U28" s="47"/>
     </row>
     <row r="29" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A29" s="19" t="s">
@@ -3419,10 +3537,10 @@
       <c r="S29" s="28" t="s">
         <v>3</v>
       </c>
-      <c r="T29" s="42">
+      <c r="T29" s="47">
         <v>2</v>
       </c>
-      <c r="U29" s="42"/>
+      <c r="U29" s="47"/>
     </row>
     <row r="30" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A30" s="19" t="s">
@@ -3444,10 +3562,10 @@
       <c r="S30" s="28" t="s">
         <v>7</v>
       </c>
-      <c r="T30" s="42">
+      <c r="T30" s="47">
         <v>1.7</v>
       </c>
-      <c r="U30" s="42"/>
+      <c r="U30" s="47"/>
     </row>
     <row r="31" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A31" s="19" t="s">
@@ -3469,10 +3587,10 @@
       <c r="S31" s="28" t="s">
         <v>8</v>
       </c>
-      <c r="T31" s="42">
+      <c r="T31" s="47">
         <v>1.7</v>
       </c>
-      <c r="U31" s="42"/>
+      <c r="U31" s="47"/>
     </row>
     <row r="32" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A32" s="19" t="s">
@@ -3494,10 +3612,10 @@
       <c r="S32" s="28" t="s">
         <v>5</v>
       </c>
-      <c r="T32" s="42">
+      <c r="T32" s="47">
         <v>1.5</v>
       </c>
-      <c r="U32" s="42"/>
+      <c r="U32" s="47"/>
     </row>
     <row r="33" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A33" s="19" t="s">
@@ -3519,10 +3637,10 @@
       <c r="S33" s="28" t="s">
         <v>4</v>
       </c>
-      <c r="T33" s="42">
+      <c r="T33" s="47">
         <v>1</v>
       </c>
-      <c r="U33" s="42"/>
+      <c r="U33" s="47"/>
     </row>
     <row r="34" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A34" s="19" t="s">
@@ -3544,10 +3662,10 @@
       <c r="S34" s="28" t="s">
         <v>6</v>
       </c>
-      <c r="T34" s="42">
+      <c r="T34" s="47">
         <v>1.2</v>
       </c>
-      <c r="U34" s="42"/>
+      <c r="U34" s="47"/>
     </row>
     <row r="35" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A35" s="19"/>
@@ -3653,15 +3771,27 @@
     <sortCondition ref="E6"/>
   </sortState>
   <mergeCells count="46">
-    <mergeCell ref="M34:N34"/>
-    <mergeCell ref="M35:N35"/>
-    <mergeCell ref="N10:O10"/>
-    <mergeCell ref="M28:N28"/>
-    <mergeCell ref="M29:N29"/>
-    <mergeCell ref="M30:N30"/>
-    <mergeCell ref="M31:N31"/>
-    <mergeCell ref="M32:N32"/>
-    <mergeCell ref="M27:O27"/>
+    <mergeCell ref="M36:N36"/>
+    <mergeCell ref="M37:N37"/>
+    <mergeCell ref="M38:N38"/>
+    <mergeCell ref="M39:N39"/>
+    <mergeCell ref="M40:N40"/>
+    <mergeCell ref="N8:O8"/>
+    <mergeCell ref="N9:O9"/>
+    <mergeCell ref="N5:O5"/>
+    <mergeCell ref="T33:U33"/>
+    <mergeCell ref="T34:U34"/>
+    <mergeCell ref="T26:U26"/>
+    <mergeCell ref="T11:V11"/>
+    <mergeCell ref="T12:V12"/>
+    <mergeCell ref="T13:V13"/>
+    <mergeCell ref="S17:T17"/>
+    <mergeCell ref="T27:U27"/>
+    <mergeCell ref="T28:U28"/>
+    <mergeCell ref="T29:U29"/>
+    <mergeCell ref="T30:U30"/>
+    <mergeCell ref="T31:U31"/>
+    <mergeCell ref="T32:U32"/>
     <mergeCell ref="N7:O7"/>
     <mergeCell ref="T10:V10"/>
     <mergeCell ref="A3:D3"/>
@@ -3678,27 +3808,15 @@
     <mergeCell ref="T7:V7"/>
     <mergeCell ref="T8:V8"/>
     <mergeCell ref="T9:V9"/>
-    <mergeCell ref="N8:O8"/>
-    <mergeCell ref="N9:O9"/>
-    <mergeCell ref="N5:O5"/>
-    <mergeCell ref="T33:U33"/>
-    <mergeCell ref="T34:U34"/>
-    <mergeCell ref="T26:U26"/>
-    <mergeCell ref="T11:V11"/>
-    <mergeCell ref="T12:V12"/>
-    <mergeCell ref="T13:V13"/>
-    <mergeCell ref="S17:T17"/>
-    <mergeCell ref="T27:U27"/>
-    <mergeCell ref="T28:U28"/>
-    <mergeCell ref="T29:U29"/>
-    <mergeCell ref="T30:U30"/>
-    <mergeCell ref="T31:U31"/>
-    <mergeCell ref="T32:U32"/>
-    <mergeCell ref="M36:N36"/>
-    <mergeCell ref="M37:N37"/>
-    <mergeCell ref="M38:N38"/>
-    <mergeCell ref="M39:N39"/>
-    <mergeCell ref="M40:N40"/>
+    <mergeCell ref="M34:N34"/>
+    <mergeCell ref="M35:N35"/>
+    <mergeCell ref="N10:O10"/>
+    <mergeCell ref="M28:N28"/>
+    <mergeCell ref="M29:N29"/>
+    <mergeCell ref="M30:N30"/>
+    <mergeCell ref="M31:N31"/>
+    <mergeCell ref="M32:N32"/>
+    <mergeCell ref="M27:O27"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -3706,325 +3824,193 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{921F0F25-3081-445F-BF8B-895D5A99EEC7}">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E6D17FE4-F1CD-468B-A942-60A271CCB6DD}">
+  <dimension ref="A3:G26"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K6" sqref="K6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J15" sqref="J15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="12.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="1:7" ht="23.25" x14ac:dyDescent="0.25">
+      <c r="A3" s="50" t="s">
+        <v>224</v>
+      </c>
+      <c r="B3" s="50"/>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" s="53" t="s">
+        <v>225</v>
+      </c>
+      <c r="B5" s="55" t="s">
+        <v>226</v>
+      </c>
+      <c r="C5" s="55"/>
+      <c r="D5" s="55" t="s">
+        <v>227</v>
+      </c>
+      <c r="E5" s="55"/>
+      <c r="F5" s="55" t="s">
+        <v>228</v>
+      </c>
+      <c r="G5" s="55"/>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" s="54"/>
+      <c r="B6" s="55"/>
+      <c r="C6" s="55"/>
+      <c r="D6" s="55"/>
+      <c r="E6" s="55"/>
+      <c r="F6" s="55"/>
+      <c r="G6" s="55"/>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" s="53" t="s">
+        <v>229</v>
+      </c>
+      <c r="B9" s="55" t="s">
+        <v>231</v>
+      </c>
+      <c r="C9" s="55"/>
+      <c r="D9" s="55" t="s">
+        <v>228</v>
+      </c>
+      <c r="E9" s="55"/>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10" s="54"/>
+      <c r="B10" s="55"/>
+      <c r="C10" s="55"/>
+      <c r="D10" s="55"/>
+      <c r="E10" s="55"/>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13" s="51" t="s">
+        <v>232</v>
+      </c>
+      <c r="B13" s="55" t="s">
+        <v>230</v>
+      </c>
+      <c r="C13" s="55"/>
+      <c r="D13" s="55" t="s">
+        <v>227</v>
+      </c>
+      <c r="E13" s="55"/>
+      <c r="F13" s="55" t="s">
+        <v>228</v>
+      </c>
+      <c r="G13" s="55"/>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14" s="52"/>
+      <c r="B14" s="55"/>
+      <c r="C14" s="55"/>
+      <c r="D14" s="55"/>
+      <c r="E14" s="55"/>
+      <c r="F14" s="55"/>
+      <c r="G14" s="55"/>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A17" s="51" t="s">
+        <v>233</v>
+      </c>
+      <c r="B17" s="55" t="s">
+        <v>228</v>
+      </c>
+      <c r="C17" s="55"/>
+      <c r="D17" s="55" t="s">
+        <v>227</v>
+      </c>
+      <c r="E17" s="55"/>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A18" s="52"/>
+      <c r="B18" s="55"/>
+      <c r="C18" s="55"/>
+      <c r="D18" s="55"/>
+      <c r="E18" s="55"/>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A21" s="51" t="s">
+        <v>234</v>
+      </c>
+      <c r="B21" s="55" t="s">
+        <v>228</v>
+      </c>
+      <c r="C21" s="55"/>
+      <c r="D21" s="55" t="s">
+        <v>227</v>
+      </c>
+      <c r="E21" s="55"/>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A22" s="52"/>
+      <c r="B22" s="55"/>
+      <c r="C22" s="55"/>
+      <c r="D22" s="55"/>
+      <c r="E22" s="55"/>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A25" s="53" t="s">
+        <v>235</v>
+      </c>
+      <c r="B25" s="55" t="s">
+        <v>230</v>
+      </c>
+      <c r="C25" s="55"/>
+      <c r="D25" s="55" t="s">
+        <v>227</v>
+      </c>
+      <c r="E25" s="55"/>
+      <c r="F25" s="55" t="s">
+        <v>228</v>
+      </c>
+      <c r="G25" s="55"/>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A26" s="54"/>
+      <c r="B26" s="55"/>
+      <c r="C26" s="55"/>
+      <c r="D26" s="55"/>
+      <c r="E26" s="55"/>
+      <c r="F26" s="55"/>
+      <c r="G26" s="55"/>
+    </row>
+  </sheetData>
+  <mergeCells count="22">
+    <mergeCell ref="A25:A26"/>
+    <mergeCell ref="D25:E26"/>
+    <mergeCell ref="F25:G26"/>
+    <mergeCell ref="B25:C26"/>
+    <mergeCell ref="A21:A22"/>
+    <mergeCell ref="B21:C22"/>
+    <mergeCell ref="D21:E22"/>
+    <mergeCell ref="A13:A14"/>
+    <mergeCell ref="D13:E14"/>
+    <mergeCell ref="F13:G14"/>
+    <mergeCell ref="B13:C14"/>
+    <mergeCell ref="A17:A18"/>
+    <mergeCell ref="D17:E18"/>
+    <mergeCell ref="B17:C18"/>
+    <mergeCell ref="A9:A10"/>
+    <mergeCell ref="B9:C10"/>
+    <mergeCell ref="D9:E10"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="B5:C6"/>
+    <mergeCell ref="D5:E6"/>
+    <mergeCell ref="F5:G6"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D829E6F4-4AF8-4D90-B023-1875E88842BF}">
-  <dimension ref="A1:L1048576"/>
-  <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="18.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.140625" style="8" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="19.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16.140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="15.42578125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="15.5703125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="17.5703125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="11.140625" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:12" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="B1" s="11" t="s">
-        <v>110</v>
-      </c>
-      <c r="C1" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="12" t="s">
-        <v>110</v>
-      </c>
-      <c r="E1" s="6" t="s">
-        <v>76</v>
-      </c>
-      <c r="F1" s="12" t="s">
-        <v>110</v>
-      </c>
-      <c r="G1" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="12" t="s">
-        <v>110</v>
-      </c>
-      <c r="I1" s="6" t="s">
-        <v>77</v>
-      </c>
-      <c r="J1" s="12" t="s">
-        <v>110</v>
-      </c>
-      <c r="K1" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="L1" s="12" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="10" t="s">
-        <v>78</v>
-      </c>
-      <c r="B2" s="9" t="s">
-        <v>83</v>
-      </c>
-      <c r="C2" s="10" t="s">
-        <v>93</v>
-      </c>
-      <c r="D2" s="5" t="s">
-        <v>83</v>
-      </c>
-      <c r="E2" s="10" t="s">
-        <v>99</v>
-      </c>
-      <c r="F2" s="5" t="s">
-        <v>83</v>
-      </c>
-      <c r="G2" s="10" t="s">
-        <v>114</v>
-      </c>
-      <c r="H2" s="5" t="s">
-        <v>83</v>
-      </c>
-      <c r="I2" s="10" t="s">
-        <v>125</v>
-      </c>
-      <c r="J2" s="5" t="s">
-        <v>83</v>
-      </c>
-      <c r="K2" s="14" t="s">
-        <v>129</v>
-      </c>
-      <c r="L2" s="5" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A3" s="13" t="s">
-        <v>136</v>
-      </c>
-      <c r="B3" s="9" t="s">
-        <v>108</v>
-      </c>
-      <c r="C3" s="13" t="s">
-        <v>89</v>
-      </c>
-      <c r="D3" s="5" t="s">
-        <v>108</v>
-      </c>
-      <c r="E3" s="13" t="s">
-        <v>96</v>
-      </c>
-      <c r="F3" s="5" t="s">
-        <v>102</v>
-      </c>
-      <c r="G3" s="13" t="s">
-        <v>111</v>
-      </c>
-      <c r="H3" s="5" t="s">
-        <v>117</v>
-      </c>
-      <c r="I3" s="13" t="s">
-        <v>121</v>
-      </c>
-      <c r="J3" s="5" t="s">
-        <v>84</v>
-      </c>
-      <c r="K3" s="13" t="s">
-        <v>130</v>
-      </c>
-      <c r="L3" s="5" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A4" s="7" t="s">
-        <v>79</v>
-      </c>
-      <c r="B4" s="9" t="s">
-        <v>85</v>
-      </c>
-      <c r="C4" s="7" t="s">
-        <v>90</v>
-      </c>
-      <c r="D4" s="5" t="s">
-        <v>94</v>
-      </c>
-      <c r="E4" s="7" t="s">
-        <v>98</v>
-      </c>
-      <c r="F4" s="5" t="s">
-        <v>104</v>
-      </c>
-      <c r="G4" s="7" t="s">
-        <v>113</v>
-      </c>
-      <c r="H4" s="5" t="s">
-        <v>119</v>
-      </c>
-      <c r="I4" s="7" t="s">
-        <v>123</v>
-      </c>
-      <c r="J4" s="5" t="s">
-        <v>120</v>
-      </c>
-      <c r="K4" s="7" t="s">
-        <v>131</v>
-      </c>
-      <c r="L4" s="5" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A5" s="7" t="s">
-        <v>80</v>
-      </c>
-      <c r="B5" s="9" t="s">
-        <v>86</v>
-      </c>
-      <c r="C5" s="7" t="s">
-        <v>91</v>
-      </c>
-      <c r="D5" s="5" t="s">
-        <v>95</v>
-      </c>
-      <c r="E5" s="7" t="s">
-        <v>97</v>
-      </c>
-      <c r="F5" s="5" t="s">
-        <v>103</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>112</v>
-      </c>
-      <c r="H5" s="5" t="s">
-        <v>118</v>
-      </c>
-      <c r="I5" s="7" t="s">
-        <v>124</v>
-      </c>
-      <c r="J5" s="5" t="s">
-        <v>105</v>
-      </c>
-      <c r="K5" s="7" t="s">
-        <v>132</v>
-      </c>
-      <c r="L5" s="5" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A6" s="7" t="s">
-        <v>81</v>
-      </c>
-      <c r="B6" s="9" t="s">
-        <v>87</v>
-      </c>
-      <c r="C6" s="7" t="s">
-        <v>92</v>
-      </c>
-      <c r="D6" s="5" t="s">
-        <v>106</v>
-      </c>
-      <c r="E6" s="7" t="s">
-        <v>100</v>
-      </c>
-      <c r="F6" s="5" t="s">
-        <v>109</v>
-      </c>
-      <c r="G6" s="7" t="s">
-        <v>115</v>
-      </c>
-      <c r="H6" s="5" t="s">
-        <v>120</v>
-      </c>
-      <c r="I6" s="7" t="s">
-        <v>122</v>
-      </c>
-      <c r="J6" s="5" t="s">
-        <v>127</v>
-      </c>
-      <c r="K6" s="7" t="s">
-        <v>133</v>
-      </c>
-      <c r="L6" s="5" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A7" s="7" t="s">
-        <v>82</v>
-      </c>
-      <c r="B7" s="9" t="s">
-        <v>106</v>
-      </c>
-      <c r="C7" s="7" t="s">
-        <v>88</v>
-      </c>
-      <c r="D7" s="5" t="s">
-        <v>107</v>
-      </c>
-      <c r="E7" s="7" t="s">
-        <v>101</v>
-      </c>
-      <c r="F7" s="5" t="s">
-        <v>105</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>116</v>
-      </c>
-      <c r="H7" s="5" t="s">
-        <v>105</v>
-      </c>
-      <c r="I7" s="7" t="s">
-        <v>126</v>
-      </c>
-      <c r="J7" s="5" t="s">
-        <v>128</v>
-      </c>
-      <c r="K7" s="7" t="s">
-        <v>134</v>
-      </c>
-      <c r="L7" s="5" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="H11" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="1048576" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B1048576" s="8" t="s">
-        <v>83</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AD24C5A3-3A97-4775-B383-884A6DE303E8}">
   <dimension ref="A1:I1048576"/>
   <sheetViews>
@@ -4286,4 +4272,309 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D829E6F4-4AF8-4D90-B023-1875E88842BF}">
+  <dimension ref="A1:L1048576"/>
+  <sheetViews>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="B10" sqref="B10:C10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="18.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.140625" style="8" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15.5703125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="17.5703125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="11.140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="11" t="s">
+        <v>110</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="12" t="s">
+        <v>110</v>
+      </c>
+      <c r="E1" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="F1" s="12" t="s">
+        <v>110</v>
+      </c>
+      <c r="G1" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="12" t="s">
+        <v>110</v>
+      </c>
+      <c r="I1" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="J1" s="12" t="s">
+        <v>110</v>
+      </c>
+      <c r="K1" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="L1" s="12" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="10" t="s">
+        <v>78</v>
+      </c>
+      <c r="B2" s="9" t="s">
+        <v>83</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>93</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="E2" s="10" t="s">
+        <v>99</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="G2" s="10" t="s">
+        <v>114</v>
+      </c>
+      <c r="H2" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="I2" s="10" t="s">
+        <v>125</v>
+      </c>
+      <c r="J2" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="K2" s="14" t="s">
+        <v>129</v>
+      </c>
+      <c r="L2" s="5" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A3" s="13" t="s">
+        <v>136</v>
+      </c>
+      <c r="B3" s="9" t="s">
+        <v>108</v>
+      </c>
+      <c r="C3" s="13" t="s">
+        <v>89</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="E3" s="13" t="s">
+        <v>96</v>
+      </c>
+      <c r="F3" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="G3" s="13" t="s">
+        <v>111</v>
+      </c>
+      <c r="H3" s="5" t="s">
+        <v>117</v>
+      </c>
+      <c r="I3" s="13" t="s">
+        <v>121</v>
+      </c>
+      <c r="J3" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="K3" s="13" t="s">
+        <v>130</v>
+      </c>
+      <c r="L3" s="5" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A4" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="B4" s="9" t="s">
+        <v>85</v>
+      </c>
+      <c r="C4" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="E4" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="F4" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="G4" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="H4" s="5" t="s">
+        <v>119</v>
+      </c>
+      <c r="I4" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="J4" s="5" t="s">
+        <v>120</v>
+      </c>
+      <c r="K4" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="L4" s="5" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A5" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="B5" s="9" t="s">
+        <v>86</v>
+      </c>
+      <c r="C5" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="F5" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="G5" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="H5" s="5" t="s">
+        <v>118</v>
+      </c>
+      <c r="I5" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="J5" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="K5" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="L5" s="5" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A6" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="B6" s="9" t="s">
+        <v>87</v>
+      </c>
+      <c r="C6" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="F6" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="G6" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="H6" s="5" t="s">
+        <v>120</v>
+      </c>
+      <c r="I6" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="J6" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="K6" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="L6" s="5" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A7" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="B7" s="9" t="s">
+        <v>106</v>
+      </c>
+      <c r="C7" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="E7" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="F7" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="G7" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="H7" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="I7" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="J7" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="K7" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="L7" s="5" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="H11" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="1048576" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B1048576" s="8" t="s">
+        <v>83</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/PenAndPaperTabellen.xlsx
+++ b/PenAndPaperTabellen.xlsx
@@ -5,19 +5,20 @@
   <workbookPr hidePivotFieldList="1" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Leonardo Jurisic\Desktop\PenAndPaper_Python\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Janis\Documents\GitHub\PenAndPaper_Python\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E693159C-9E78-468A-997B-E25B0F0E2558}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6BAC1C7C-D229-485D-8166-A5BEF30AD553}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" activeTab="2" xr2:uid="{396B72A2-12CE-422A-97A0-75A4949D3867}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" firstSheet="1" activeTab="3" xr2:uid="{396B72A2-12CE-422A-97A0-75A4949D3867}"/>
   </bookViews>
   <sheets>
     <sheet name="Klassen stats" sheetId="1" r:id="rId1"/>
     <sheet name="Items etc" sheetId="7" r:id="rId2"/>
     <sheet name="Klassen" sheetId="9" r:id="rId3"/>
-    <sheet name="Diblomatische Beziehung" sheetId="6" r:id="rId4"/>
-    <sheet name="Gegnerliste" sheetId="2" r:id="rId5"/>
+    <sheet name="Tabelle1" sheetId="10" r:id="rId4"/>
+    <sheet name="Diblomatische Beziehung" sheetId="6" r:id="rId5"/>
+    <sheet name="Gegnerliste" sheetId="2" r:id="rId6"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -29,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="401" uniqueCount="236">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="483" uniqueCount="279">
   <si>
     <t xml:space="preserve">Klassen / Rassen </t>
   </si>
@@ -460,9 +461,6 @@
     <t>Wildschweine</t>
   </si>
   <si>
-    <t>100 Silber = 1 Gold</t>
-  </si>
-  <si>
     <t>Itemwerte in Gold ( 1 Gold = 2 Leib Brot )</t>
   </si>
   <si>
@@ -755,6 +753,138 @@
   </si>
   <si>
     <t>Kobole:</t>
+  </si>
+  <si>
+    <t>Janis</t>
+  </si>
+  <si>
+    <t>Luca</t>
+  </si>
+  <si>
+    <t>Daniel</t>
+  </si>
+  <si>
+    <t>Toni</t>
+  </si>
+  <si>
+    <t>Klasse</t>
+  </si>
+  <si>
+    <t>Alter</t>
+  </si>
+  <si>
+    <t>Beruf</t>
+  </si>
+  <si>
+    <t>Bierbrauer</t>
+  </si>
+  <si>
+    <t>Wirt</t>
+  </si>
+  <si>
+    <t>Sammler</t>
+  </si>
+  <si>
+    <t>2m</t>
+  </si>
+  <si>
+    <t>1,9m</t>
+  </si>
+  <si>
+    <t>1,85m</t>
+  </si>
+  <si>
+    <t>1,88m</t>
+  </si>
+  <si>
+    <t>Kopf</t>
+  </si>
+  <si>
+    <t>Schulter</t>
+  </si>
+  <si>
+    <t>Brust</t>
+  </si>
+  <si>
+    <t>Bein</t>
+  </si>
+  <si>
+    <t>Schienbein</t>
+  </si>
+  <si>
+    <t>Schuhe</t>
+  </si>
+  <si>
+    <t>Stofftorso</t>
+  </si>
+  <si>
+    <t>Lederhemd</t>
+  </si>
+  <si>
+    <t>Stoffhose</t>
+  </si>
+  <si>
+    <t>Lederschuhe</t>
+  </si>
+  <si>
+    <t>Linke Hand</t>
+  </si>
+  <si>
+    <t>Rechte Hand</t>
+  </si>
+  <si>
+    <t>Kleine Axt</t>
+  </si>
+  <si>
+    <t>Second</t>
+  </si>
+  <si>
+    <t>Dolch</t>
+  </si>
+  <si>
+    <t>1 Gold = 100 Silber</t>
+  </si>
+  <si>
+    <t>2 Laib Brot</t>
+  </si>
+  <si>
+    <t>2 x Stoffverband</t>
+  </si>
+  <si>
+    <t>2 x Bier</t>
+  </si>
+  <si>
+    <t>Janis(Heiko)</t>
+  </si>
+  <si>
+    <t>1000 Silber = 1 Gold</t>
+  </si>
+  <si>
+    <t>Luca(Holga)</t>
+  </si>
+  <si>
+    <t>Besatzung</t>
+  </si>
+  <si>
+    <t>Laif(Wirt)</t>
+  </si>
+  <si>
+    <t>Daniel(Liam)</t>
+  </si>
+  <si>
+    <t>Toni(Gustavson)</t>
+  </si>
+  <si>
+    <t>Bjark(Schiffsbauer)</t>
+  </si>
+  <si>
+    <t>Viki(Toni Bruder)</t>
+  </si>
+  <si>
+    <t>Iglor(Sammler)</t>
+  </si>
+  <si>
+    <t>1 Kopf</t>
   </si>
 </sst>
 </file>
@@ -764,7 +894,7 @@
   <numFmts count="1">
     <numFmt numFmtId="44" formatCode="_-* #,##0.00\ &quot;€&quot;_-;\-* #,##0.00\ &quot;€&quot;_-;_-* &quot;-&quot;??\ &quot;€&quot;_-;_-@_-"/>
   </numFmts>
-  <fonts count="15" x14ac:knownFonts="1">
+  <fonts count="16" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -876,8 +1006,16 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="12">
+  <fills count="13">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -936,8 +1074,14 @@
         <bgColor indexed="65"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="14">
+  <borders count="16">
     <border>
       <left/>
       <right/>
@@ -1106,8 +1250,30 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="15">
+  <cellStyleXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
@@ -1123,8 +1289,10 @@
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="56">
+  <cellXfs count="74">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" quotePrefix="1" applyFill="1"/>
@@ -1193,11 +1361,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="2" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
@@ -1208,39 +1374,32 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="7" borderId="0" xfId="7" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="6" xfId="10" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" xfId="13" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" xfId="13" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="6" xfId="10" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="2" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="10" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="11" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="12" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1251,11 +1410,58 @@
     <xf numFmtId="0" fontId="13" fillId="11" borderId="9" xfId="14" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="10" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="11" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" xfId="11"/>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="9" xfId="9" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="9" xfId="9" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="9" xfId="11" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="1" xfId="15"/>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="1" xfId="15" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="15" xfId="15" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="15" xfId="15" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="9" xfId="16" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="9" xfId="8" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="17" fontId="12" fillId="10" borderId="9" xfId="11" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="9" xfId="16" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" xfId="11" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" xfId="16" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" xfId="7"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
-  <cellStyles count="15">
+  <cellStyles count="17">
     <cellStyle name="60 % - Akzent3" xfId="14" builtinId="40"/>
+    <cellStyle name="60 % - Akzent5" xfId="16" builtinId="48"/>
     <cellStyle name="Akzent3" xfId="11" builtinId="37"/>
     <cellStyle name="Ausgabe" xfId="2" builtinId="21"/>
+    <cellStyle name="Berechnung" xfId="15" builtinId="22"/>
     <cellStyle name="Eingabe" xfId="1" builtinId="20"/>
     <cellStyle name="Ergebnis" xfId="13" builtinId="25"/>
     <cellStyle name="Gut" xfId="7" builtinId="26"/>
@@ -2207,9 +2413,9 @@
       <c r="G11" s="1"/>
       <c r="H11" s="1"/>
       <c r="I11" s="1"/>
-      <c r="K11" s="49"/>
+      <c r="K11" s="36"/>
       <c r="L11" s="4"/>
-      <c r="M11" s="36" t="s">
+      <c r="M11" s="37" t="s">
         <v>30</v>
       </c>
       <c r="N11" s="40"/>
@@ -2217,14 +2423,14 @@
         <v>54</v>
       </c>
       <c r="P11" s="39"/>
-      <c r="Q11" s="37"/>
+      <c r="Q11" s="41"/>
       <c r="S11" s="1"/>
       <c r="U11" s="1"/>
-      <c r="V11" s="36" t="s">
+      <c r="V11" s="37" t="s">
         <v>45</v>
       </c>
-      <c r="W11" s="36"/>
-      <c r="X11" s="36"/>
+      <c r="W11" s="37"/>
+      <c r="X11" s="37"/>
       <c r="Y11" s="23"/>
       <c r="Z11" s="23"/>
       <c r="AA11" s="23"/>
@@ -2240,18 +2446,18 @@
       <c r="G12" s="1"/>
       <c r="H12" s="1"/>
       <c r="I12" s="1"/>
-      <c r="K12" s="49"/>
+      <c r="K12" s="36"/>
       <c r="L12" s="4"/>
-      <c r="M12" s="36"/>
+      <c r="M12" s="37"/>
       <c r="N12" s="40"/>
       <c r="O12" s="39"/>
       <c r="P12" s="39"/>
-      <c r="Q12" s="37"/>
+      <c r="Q12" s="41"/>
       <c r="S12" s="1"/>
       <c r="U12" s="1"/>
-      <c r="V12" s="36"/>
-      <c r="W12" s="36"/>
-      <c r="X12" s="36"/>
+      <c r="V12" s="37"/>
+      <c r="W12" s="37"/>
+      <c r="X12" s="37"/>
       <c r="Y12" s="23"/>
       <c r="Z12" s="23"/>
       <c r="AA12" s="23"/>
@@ -2267,18 +2473,18 @@
       <c r="G13" s="1"/>
       <c r="H13" s="1"/>
       <c r="I13" s="1"/>
-      <c r="K13" s="49"/>
+      <c r="K13" s="36"/>
       <c r="L13" s="4"/>
-      <c r="M13" s="36"/>
+      <c r="M13" s="37"/>
       <c r="N13" s="40"/>
       <c r="O13" s="39"/>
       <c r="P13" s="39"/>
-      <c r="Q13" s="37"/>
+      <c r="Q13" s="41"/>
       <c r="S13" s="1"/>
       <c r="U13" s="1"/>
-      <c r="V13" s="36"/>
-      <c r="W13" s="36"/>
-      <c r="X13" s="36"/>
+      <c r="V13" s="37"/>
+      <c r="W13" s="37"/>
+      <c r="X13" s="37"/>
       <c r="Y13" s="23"/>
       <c r="Z13" s="23"/>
       <c r="AA13" s="23"/>
@@ -2294,18 +2500,18 @@
       <c r="G14" s="1"/>
       <c r="H14" s="1"/>
       <c r="I14" s="1"/>
-      <c r="K14" s="49"/>
+      <c r="K14" s="36"/>
       <c r="L14" s="4"/>
-      <c r="M14" s="36"/>
+      <c r="M14" s="37"/>
       <c r="N14" s="40"/>
       <c r="O14" s="39"/>
       <c r="P14" s="39"/>
-      <c r="Q14" s="37"/>
+      <c r="Q14" s="41"/>
       <c r="S14" s="1"/>
       <c r="U14" s="1"/>
-      <c r="V14" s="36"/>
-      <c r="W14" s="36"/>
-      <c r="X14" s="36"/>
+      <c r="V14" s="37"/>
+      <c r="W14" s="37"/>
+      <c r="X14" s="37"/>
       <c r="Y14" s="23"/>
       <c r="Z14" s="23"/>
       <c r="AA14" s="23"/>
@@ -2321,18 +2527,18 @@
       <c r="G15" s="1"/>
       <c r="H15" s="1"/>
       <c r="I15" s="1"/>
-      <c r="K15" s="49"/>
+      <c r="K15" s="36"/>
       <c r="L15" s="4"/>
-      <c r="M15" s="36"/>
+      <c r="M15" s="37"/>
       <c r="N15" s="40"/>
       <c r="O15" s="39"/>
       <c r="P15" s="39"/>
-      <c r="Q15" s="37"/>
+      <c r="Q15" s="41"/>
       <c r="S15" s="1"/>
       <c r="U15" s="1"/>
-      <c r="V15" s="36"/>
-      <c r="W15" s="36"/>
-      <c r="X15" s="36"/>
+      <c r="V15" s="37"/>
+      <c r="W15" s="37"/>
+      <c r="X15" s="37"/>
       <c r="Y15" s="23"/>
       <c r="Z15" s="23"/>
       <c r="AA15" s="23"/>
@@ -2348,18 +2554,18 @@
       <c r="G16" s="1"/>
       <c r="H16" s="1"/>
       <c r="I16" s="1"/>
-      <c r="K16" s="49"/>
+      <c r="K16" s="36"/>
       <c r="L16" s="4"/>
-      <c r="M16" s="36"/>
+      <c r="M16" s="37"/>
       <c r="N16" s="40"/>
       <c r="O16" s="39"/>
       <c r="P16" s="39"/>
-      <c r="Q16" s="37"/>
+      <c r="Q16" s="41"/>
       <c r="S16" s="1"/>
       <c r="U16" s="1"/>
-      <c r="V16" s="36"/>
-      <c r="W16" s="36"/>
-      <c r="X16" s="36"/>
+      <c r="V16" s="37"/>
+      <c r="W16" s="37"/>
+      <c r="X16" s="37"/>
       <c r="Y16" s="23"/>
       <c r="Z16" s="23"/>
       <c r="AA16" s="23"/>
@@ -2375,18 +2581,18 @@
       <c r="G17" s="1"/>
       <c r="H17" s="1"/>
       <c r="I17" s="1"/>
-      <c r="K17" s="49"/>
+      <c r="K17" s="36"/>
       <c r="L17" s="4"/>
-      <c r="M17" s="36"/>
+      <c r="M17" s="37"/>
       <c r="N17" s="40"/>
       <c r="O17" s="39"/>
       <c r="P17" s="39"/>
-      <c r="Q17" s="37"/>
+      <c r="Q17" s="41"/>
       <c r="S17" s="1"/>
       <c r="U17" s="1"/>
-      <c r="V17" s="36"/>
-      <c r="W17" s="36"/>
-      <c r="X17" s="36"/>
+      <c r="V17" s="37"/>
+      <c r="W17" s="37"/>
+      <c r="X17" s="37"/>
       <c r="Y17" s="23"/>
       <c r="Z17" s="23"/>
       <c r="AA17" s="23"/>
@@ -2402,18 +2608,18 @@
       <c r="G18" s="1"/>
       <c r="H18" s="1"/>
       <c r="I18" s="1"/>
-      <c r="K18" s="49"/>
+      <c r="K18" s="36"/>
       <c r="L18" s="4"/>
-      <c r="M18" s="36"/>
+      <c r="M18" s="37"/>
       <c r="N18" s="40"/>
       <c r="O18" s="39"/>
       <c r="P18" s="39"/>
-      <c r="Q18" s="37"/>
+      <c r="Q18" s="41"/>
       <c r="S18" s="1"/>
       <c r="U18" s="1"/>
-      <c r="V18" s="36"/>
-      <c r="W18" s="36"/>
-      <c r="X18" s="36"/>
+      <c r="V18" s="37"/>
+      <c r="W18" s="37"/>
+      <c r="X18" s="37"/>
       <c r="Y18" s="23"/>
       <c r="Z18" s="23"/>
       <c r="AA18" s="23"/>
@@ -2429,18 +2635,18 @@
       <c r="G19" s="1"/>
       <c r="H19" s="1"/>
       <c r="I19" s="1"/>
-      <c r="K19" s="49"/>
+      <c r="K19" s="36"/>
       <c r="L19" s="4"/>
-      <c r="M19" s="36"/>
+      <c r="M19" s="37"/>
       <c r="N19" s="40"/>
       <c r="O19" s="39"/>
       <c r="P19" s="39"/>
-      <c r="Q19" s="37"/>
+      <c r="Q19" s="41"/>
       <c r="S19" s="1"/>
       <c r="U19" s="1"/>
-      <c r="V19" s="36"/>
-      <c r="W19" s="36"/>
-      <c r="X19" s="36"/>
+      <c r="V19" s="37"/>
+      <c r="W19" s="37"/>
+      <c r="X19" s="37"/>
       <c r="Y19" s="23"/>
       <c r="Z19" s="23"/>
       <c r="AA19" s="23"/>
@@ -2456,18 +2662,18 @@
       <c r="G20" s="1"/>
       <c r="H20" s="1"/>
       <c r="I20" s="1"/>
-      <c r="K20" s="49"/>
+      <c r="K20" s="36"/>
       <c r="L20" s="4"/>
-      <c r="M20" s="36"/>
+      <c r="M20" s="37"/>
       <c r="N20" s="40"/>
       <c r="O20" s="39"/>
       <c r="P20" s="39"/>
-      <c r="Q20" s="37"/>
+      <c r="Q20" s="41"/>
       <c r="S20" s="1"/>
       <c r="U20" s="1"/>
-      <c r="V20" s="36"/>
-      <c r="W20" s="36"/>
-      <c r="X20" s="36"/>
+      <c r="V20" s="37"/>
+      <c r="W20" s="37"/>
+      <c r="X20" s="37"/>
       <c r="Y20" s="23"/>
       <c r="Z20" s="23"/>
       <c r="AA20" s="23"/>
@@ -2483,18 +2689,18 @@
       <c r="G21" s="1"/>
       <c r="H21" s="1"/>
       <c r="I21" s="1"/>
-      <c r="K21" s="49"/>
+      <c r="K21" s="36"/>
       <c r="L21" s="4"/>
-      <c r="M21" s="36"/>
+      <c r="M21" s="37"/>
       <c r="N21" s="40"/>
       <c r="O21" s="39"/>
       <c r="P21" s="39"/>
-      <c r="Q21" s="37"/>
+      <c r="Q21" s="41"/>
       <c r="S21" s="1"/>
       <c r="U21" s="1"/>
-      <c r="V21" s="36"/>
-      <c r="W21" s="36"/>
-      <c r="X21" s="36"/>
+      <c r="V21" s="37"/>
+      <c r="W21" s="37"/>
+      <c r="X21" s="37"/>
       <c r="Y21" s="23"/>
       <c r="Z21" s="23"/>
       <c r="AA21" s="23"/>
@@ -2510,18 +2716,18 @@
       <c r="G22" s="1"/>
       <c r="H22" s="1"/>
       <c r="I22" s="1"/>
-      <c r="K22" s="49"/>
+      <c r="K22" s="36"/>
       <c r="L22" s="4"/>
-      <c r="M22" s="36"/>
+      <c r="M22" s="37"/>
       <c r="N22" s="40"/>
       <c r="O22" s="39"/>
       <c r="P22" s="39"/>
-      <c r="Q22" s="37"/>
+      <c r="Q22" s="41"/>
       <c r="S22" s="1"/>
       <c r="U22" s="1"/>
-      <c r="V22" s="36"/>
-      <c r="W22" s="36"/>
-      <c r="X22" s="36"/>
+      <c r="V22" s="37"/>
+      <c r="W22" s="37"/>
+      <c r="X22" s="37"/>
       <c r="Y22" s="23"/>
       <c r="Z22" s="23"/>
       <c r="AA22" s="23"/>
@@ -2537,18 +2743,18 @@
       <c r="G23" s="1"/>
       <c r="H23" s="1"/>
       <c r="I23" s="1"/>
-      <c r="K23" s="49"/>
+      <c r="K23" s="36"/>
       <c r="L23" s="4"/>
-      <c r="M23" s="36"/>
+      <c r="M23" s="37"/>
       <c r="N23" s="40"/>
       <c r="O23" s="39"/>
       <c r="P23" s="39"/>
-      <c r="Q23" s="37"/>
+      <c r="Q23" s="41"/>
       <c r="S23" s="1"/>
       <c r="U23" s="1"/>
-      <c r="V23" s="36"/>
-      <c r="W23" s="36"/>
-      <c r="X23" s="36"/>
+      <c r="V23" s="37"/>
+      <c r="W23" s="37"/>
+      <c r="X23" s="37"/>
       <c r="Y23" s="23"/>
       <c r="Z23" s="23"/>
       <c r="AA23" s="23"/>
@@ -2564,18 +2770,18 @@
       <c r="G24" s="1"/>
       <c r="H24" s="1"/>
       <c r="I24" s="1"/>
-      <c r="K24" s="49"/>
+      <c r="K24" s="36"/>
       <c r="L24" s="4"/>
-      <c r="M24" s="36"/>
+      <c r="M24" s="37"/>
       <c r="N24" s="40"/>
       <c r="O24" s="39"/>
       <c r="P24" s="39"/>
-      <c r="Q24" s="37"/>
+      <c r="Q24" s="41"/>
       <c r="S24" s="1"/>
       <c r="U24" s="1"/>
-      <c r="V24" s="36"/>
-      <c r="W24" s="36"/>
-      <c r="X24" s="36"/>
+      <c r="V24" s="37"/>
+      <c r="W24" s="37"/>
+      <c r="X24" s="37"/>
       <c r="Y24" s="23"/>
       <c r="Z24" s="23"/>
       <c r="AA24" s="23"/>
@@ -2591,18 +2797,18 @@
       <c r="G25" s="1"/>
       <c r="H25" s="1"/>
       <c r="I25" s="1"/>
-      <c r="K25" s="49"/>
+      <c r="K25" s="36"/>
       <c r="L25" s="4"/>
-      <c r="M25" s="36"/>
+      <c r="M25" s="37"/>
       <c r="N25" s="40"/>
       <c r="O25" s="39"/>
       <c r="P25" s="39"/>
-      <c r="Q25" s="37"/>
+      <c r="Q25" s="41"/>
       <c r="S25" s="1"/>
       <c r="U25" s="1"/>
-      <c r="V25" s="36"/>
-      <c r="W25" s="36"/>
-      <c r="X25" s="36"/>
+      <c r="V25" s="37"/>
+      <c r="W25" s="37"/>
+      <c r="X25" s="37"/>
       <c r="Y25" s="23"/>
       <c r="Z25" s="23"/>
       <c r="AA25" s="23"/>
@@ -2618,18 +2824,18 @@
       <c r="G26" s="1"/>
       <c r="H26" s="1"/>
       <c r="I26" s="1"/>
-      <c r="K26" s="49"/>
+      <c r="K26" s="36"/>
       <c r="L26" s="4"/>
-      <c r="M26" s="36"/>
+      <c r="M26" s="37"/>
       <c r="N26" s="40"/>
       <c r="O26" s="39"/>
       <c r="P26" s="39"/>
-      <c r="Q26" s="37"/>
+      <c r="Q26" s="41"/>
       <c r="S26" s="1"/>
       <c r="U26" s="1"/>
-      <c r="V26" s="36"/>
-      <c r="W26" s="36"/>
-      <c r="X26" s="36"/>
+      <c r="V26" s="37"/>
+      <c r="W26" s="37"/>
+      <c r="X26" s="37"/>
       <c r="Y26" s="23"/>
       <c r="Z26" s="23"/>
       <c r="AA26" s="23"/>
@@ -2645,18 +2851,18 @@
       <c r="G27" s="1"/>
       <c r="H27" s="1"/>
       <c r="I27" s="1"/>
-      <c r="K27" s="49"/>
+      <c r="K27" s="36"/>
       <c r="L27" s="4"/>
-      <c r="M27" s="36"/>
+      <c r="M27" s="37"/>
       <c r="N27" s="40"/>
       <c r="O27" s="39"/>
       <c r="P27" s="39"/>
-      <c r="Q27" s="37"/>
+      <c r="Q27" s="41"/>
       <c r="S27" s="1"/>
       <c r="U27" s="1"/>
-      <c r="V27" s="36"/>
-      <c r="W27" s="36"/>
-      <c r="X27" s="36"/>
+      <c r="V27" s="37"/>
+      <c r="W27" s="37"/>
+      <c r="X27" s="37"/>
       <c r="Y27" s="23"/>
       <c r="Z27" s="23"/>
       <c r="AA27" s="23"/>
@@ -2672,18 +2878,18 @@
       <c r="G28" s="1"/>
       <c r="H28" s="1"/>
       <c r="I28" s="1"/>
-      <c r="K28" s="49"/>
+      <c r="K28" s="36"/>
       <c r="L28" s="4"/>
-      <c r="M28" s="36"/>
+      <c r="M28" s="37"/>
       <c r="N28" s="40"/>
       <c r="O28" s="39"/>
       <c r="P28" s="39"/>
-      <c r="Q28" s="37"/>
+      <c r="Q28" s="41"/>
       <c r="S28" s="1"/>
       <c r="U28" s="1"/>
-      <c r="V28" s="36"/>
-      <c r="W28" s="36"/>
-      <c r="X28" s="36"/>
+      <c r="V28" s="37"/>
+      <c r="W28" s="37"/>
+      <c r="X28" s="37"/>
       <c r="Y28" s="23"/>
       <c r="Z28" s="23"/>
       <c r="AA28" s="23"/>
@@ -2699,18 +2905,18 @@
       <c r="G29" s="1"/>
       <c r="H29" s="1"/>
       <c r="I29" s="1"/>
-      <c r="K29" s="49"/>
+      <c r="K29" s="36"/>
       <c r="L29" s="4"/>
-      <c r="M29" s="36"/>
+      <c r="M29" s="37"/>
       <c r="N29" s="40"/>
       <c r="O29" s="39"/>
       <c r="P29" s="39"/>
-      <c r="Q29" s="37"/>
+      <c r="Q29" s="41"/>
       <c r="S29" s="1"/>
       <c r="U29" s="1"/>
-      <c r="V29" s="36"/>
-      <c r="W29" s="36"/>
-      <c r="X29" s="36"/>
+      <c r="V29" s="37"/>
+      <c r="W29" s="37"/>
+      <c r="X29" s="37"/>
       <c r="Y29" s="23"/>
       <c r="Z29" s="23"/>
       <c r="AA29" s="23"/>
@@ -2726,18 +2932,18 @@
       <c r="G30" s="1"/>
       <c r="H30" s="1"/>
       <c r="I30" s="1"/>
-      <c r="K30" s="49"/>
+      <c r="K30" s="36"/>
       <c r="L30" s="4"/>
-      <c r="M30" s="36"/>
+      <c r="M30" s="37"/>
       <c r="N30" s="40"/>
       <c r="O30" s="39"/>
       <c r="P30" s="39"/>
-      <c r="Q30" s="37"/>
+      <c r="Q30" s="41"/>
       <c r="S30" s="1"/>
       <c r="U30" s="1"/>
-      <c r="V30" s="36"/>
-      <c r="W30" s="36"/>
-      <c r="X30" s="36"/>
+      <c r="V30" s="37"/>
+      <c r="W30" s="37"/>
+      <c r="X30" s="37"/>
       <c r="Y30" s="23"/>
       <c r="Z30" s="23"/>
       <c r="AA30" s="23"/>
@@ -2753,18 +2959,18 @@
       <c r="G31" s="1"/>
       <c r="H31" s="1"/>
       <c r="I31" s="1"/>
-      <c r="K31" s="49"/>
+      <c r="K31" s="36"/>
       <c r="L31" s="4"/>
-      <c r="M31" s="36"/>
+      <c r="M31" s="37"/>
       <c r="N31" s="40"/>
       <c r="O31" s="39"/>
       <c r="P31" s="39"/>
-      <c r="Q31" s="37"/>
+      <c r="Q31" s="41"/>
       <c r="S31" s="1"/>
       <c r="U31" s="1"/>
-      <c r="V31" s="36"/>
-      <c r="W31" s="36"/>
-      <c r="X31" s="36"/>
+      <c r="V31" s="37"/>
+      <c r="W31" s="37"/>
+      <c r="X31" s="37"/>
       <c r="Y31" s="23"/>
       <c r="Z31" s="23"/>
       <c r="AA31" s="23"/>
@@ -2780,18 +2986,18 @@
       <c r="G32" s="1"/>
       <c r="H32" s="1"/>
       <c r="I32" s="1"/>
-      <c r="K32" s="49"/>
+      <c r="K32" s="36"/>
       <c r="L32" s="4"/>
-      <c r="M32" s="36"/>
+      <c r="M32" s="37"/>
       <c r="N32" s="40"/>
       <c r="O32" s="39"/>
       <c r="P32" s="39"/>
-      <c r="Q32" s="37"/>
+      <c r="Q32" s="41"/>
       <c r="S32" s="1"/>
       <c r="U32" s="1"/>
-      <c r="V32" s="36"/>
-      <c r="W32" s="36"/>
-      <c r="X32" s="36"/>
+      <c r="V32" s="37"/>
+      <c r="W32" s="37"/>
+      <c r="X32" s="37"/>
       <c r="Y32" s="23"/>
       <c r="Z32" s="23"/>
       <c r="AA32" s="23"/>
@@ -2807,18 +3013,18 @@
       <c r="G33" s="1"/>
       <c r="H33" s="1"/>
       <c r="I33" s="1"/>
-      <c r="K33" s="49"/>
+      <c r="K33" s="36"/>
       <c r="L33" s="4"/>
-      <c r="M33" s="36"/>
+      <c r="M33" s="37"/>
       <c r="N33" s="40"/>
       <c r="O33" s="39"/>
       <c r="P33" s="39"/>
-      <c r="Q33" s="37"/>
+      <c r="Q33" s="41"/>
       <c r="S33" s="1"/>
       <c r="U33" s="1"/>
-      <c r="V33" s="36"/>
-      <c r="W33" s="36"/>
-      <c r="X33" s="36"/>
+      <c r="V33" s="37"/>
+      <c r="W33" s="37"/>
+      <c r="X33" s="37"/>
       <c r="Y33" s="23"/>
       <c r="Z33" s="23"/>
       <c r="AA33" s="23"/>
@@ -2834,13 +3040,13 @@
       <c r="G34" s="1"/>
       <c r="H34" s="1"/>
       <c r="I34" s="1"/>
-      <c r="K34" s="49"/>
+      <c r="K34" s="36"/>
       <c r="L34" s="4"/>
-      <c r="M34" s="36"/>
+      <c r="M34" s="37"/>
       <c r="N34" s="40"/>
       <c r="O34" s="39"/>
       <c r="P34" s="39"/>
-      <c r="Q34" s="37"/>
+      <c r="Q34" s="41"/>
       <c r="S34" s="1"/>
       <c r="U34" s="1"/>
       <c r="V34" s="1"/>
@@ -2973,8 +3179,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CED389B3-A1BA-4514-AE73-0BE4546454AE}">
   <dimension ref="A1:V48"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" zoomScale="93" zoomScaleNormal="93" workbookViewId="0">
-      <selection activeCell="I14" sqref="I14"/>
+    <sheetView zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
+      <selection activeCell="I11" sqref="I11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2990,259 +3196,259 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="B1" s="45" t="s">
+      <c r="B1" s="43" t="s">
+        <v>138</v>
+      </c>
+      <c r="C1" s="43"/>
+      <c r="I1" s="43" t="s">
         <v>139</v>
       </c>
-      <c r="C1" s="45"/>
-      <c r="I1" s="45" t="s">
+      <c r="J1" s="43"/>
+      <c r="L1" s="43" t="s">
         <v>140</v>
       </c>
-      <c r="J1" s="45"/>
-      <c r="L1" s="45" t="s">
-        <v>141</v>
-      </c>
-      <c r="M1" s="45"/>
-      <c r="N1" s="45"/>
+      <c r="M1" s="43"/>
+      <c r="N1" s="43"/>
     </row>
     <row r="3" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A3" s="45" t="s">
-        <v>138</v>
-      </c>
-      <c r="B3" s="45"/>
-      <c r="C3" s="45"/>
-      <c r="D3" s="45"/>
-      <c r="I3" s="45" t="s">
+      <c r="A3" s="43" t="s">
         <v>137</v>
       </c>
-      <c r="J3" s="45"/>
+      <c r="B3" s="43"/>
+      <c r="C3" s="43"/>
+      <c r="D3" s="43"/>
+      <c r="I3" s="43" t="s">
+        <v>269</v>
+      </c>
+      <c r="J3" s="43"/>
       <c r="L3" s="24"/>
       <c r="M3" s="24"/>
     </row>
     <row r="5" spans="1:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="24" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B5" s="24" t="s">
         <v>28</v>
       </c>
       <c r="E5" s="25" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="F5" s="34" t="s">
         <v>28</v>
       </c>
       <c r="I5" s="25" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="J5" s="25" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="M5" s="33" t="s">
-        <v>167</v>
-      </c>
-      <c r="N5" s="45" t="s">
-        <v>193</v>
-      </c>
-      <c r="O5" s="45"/>
+        <v>166</v>
+      </c>
+      <c r="N5" s="43" t="s">
+        <v>192</v>
+      </c>
+      <c r="O5" s="43"/>
       <c r="S5" t="s">
+        <v>141</v>
+      </c>
+      <c r="T5" s="43" t="s">
         <v>142</v>
       </c>
-      <c r="T5" s="45" t="s">
-        <v>143</v>
-      </c>
-      <c r="U5" s="45"/>
-      <c r="V5" s="45"/>
+      <c r="U5" s="43"/>
+      <c r="V5" s="43"/>
     </row>
     <row r="6" spans="1:22" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="19" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B6" s="34">
         <v>2</v>
       </c>
       <c r="E6" s="19" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="F6" s="24">
         <v>5</v>
       </c>
       <c r="I6" s="29" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="J6" s="25">
         <v>250</v>
       </c>
       <c r="M6" s="32" t="s">
-        <v>170</v>
-      </c>
-      <c r="N6" s="45" t="s">
         <v>169</v>
       </c>
-      <c r="O6" s="45"/>
+      <c r="N6" s="43" t="s">
+        <v>168</v>
+      </c>
+      <c r="O6" s="43"/>
       <c r="S6" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="T6" s="44">
+      <c r="T6" s="45">
         <v>30</v>
       </c>
-      <c r="U6" s="45"/>
-      <c r="V6" s="45"/>
+      <c r="U6" s="43"/>
+      <c r="V6" s="43"/>
     </row>
     <row r="7" spans="1:22" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="31" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B7" s="24">
         <v>1</v>
       </c>
       <c r="E7" s="19" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="F7" s="24">
         <v>18</v>
       </c>
       <c r="I7" s="29" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="J7" s="25">
         <v>350</v>
       </c>
       <c r="M7" s="32" t="s">
+        <v>170</v>
+      </c>
+      <c r="N7" s="47" t="s">
         <v>171</v>
       </c>
-      <c r="N7" s="42" t="s">
-        <v>172</v>
-      </c>
-      <c r="O7" s="42"/>
+      <c r="O7" s="47"/>
       <c r="S7" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="T7" s="44">
+      <c r="T7" s="45">
         <v>19</v>
       </c>
-      <c r="U7" s="45"/>
-      <c r="V7" s="45"/>
+      <c r="U7" s="43"/>
+      <c r="V7" s="43"/>
     </row>
     <row r="8" spans="1:22" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="31" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B8" s="25">
         <v>1.1000000000000001</v>
       </c>
       <c r="E8" s="19" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="F8" s="34">
         <v>6</v>
       </c>
       <c r="I8" s="29" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="J8" s="25">
         <v>500</v>
       </c>
       <c r="M8" s="32" t="s">
+        <v>172</v>
+      </c>
+      <c r="N8" s="43" t="s">
         <v>173</v>
       </c>
-      <c r="N8" s="45" t="s">
-        <v>174</v>
-      </c>
-      <c r="O8" s="45"/>
+      <c r="O8" s="43"/>
       <c r="S8" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="T8" s="44">
+      <c r="T8" s="45">
         <v>27</v>
       </c>
-      <c r="U8" s="45"/>
-      <c r="V8" s="45"/>
+      <c r="U8" s="43"/>
+      <c r="V8" s="43"/>
     </row>
     <row r="9" spans="1:22" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="31" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B9" s="25">
         <v>5</v>
       </c>
       <c r="E9" s="19" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="F9" s="34">
         <v>22</v>
       </c>
       <c r="I9" s="29" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="J9" s="25">
         <v>600</v>
       </c>
       <c r="M9" s="32" t="s">
+        <v>174</v>
+      </c>
+      <c r="N9" s="43" t="s">
         <v>175</v>
       </c>
-      <c r="N9" s="45" t="s">
-        <v>176</v>
-      </c>
-      <c r="O9" s="45"/>
+      <c r="O9" s="43"/>
       <c r="S9" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="T9" s="44">
+      <c r="T9" s="45">
         <v>30</v>
       </c>
-      <c r="U9" s="45"/>
-      <c r="V9" s="45"/>
+      <c r="U9" s="43"/>
+      <c r="V9" s="43"/>
     </row>
     <row r="10" spans="1:22" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="31" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B10" s="25">
         <v>3</v>
       </c>
       <c r="E10" s="19" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="F10" s="24">
         <v>10</v>
       </c>
       <c r="I10" s="29" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="J10" s="25">
         <v>500</v>
       </c>
       <c r="M10" s="32" t="s">
-        <v>187</v>
-      </c>
-      <c r="N10" s="42" t="s">
-        <v>168</v>
-      </c>
-      <c r="O10" s="42"/>
+        <v>186</v>
+      </c>
+      <c r="N10" s="47" t="s">
+        <v>167</v>
+      </c>
+      <c r="O10" s="47"/>
       <c r="S10" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="T10" s="44">
+      <c r="T10" s="45">
         <v>30</v>
       </c>
-      <c r="U10" s="45"/>
-      <c r="V10" s="45"/>
+      <c r="U10" s="43"/>
+      <c r="V10" s="43"/>
     </row>
     <row r="11" spans="1:22" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="31" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B11" s="25">
         <v>1</v>
       </c>
       <c r="E11" s="19" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="F11" s="34">
         <v>8</v>
       </c>
       <c r="I11" s="29" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="J11" s="25">
         <v>600</v>
@@ -3253,25 +3459,25 @@
       <c r="S11" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="T11" s="44">
+      <c r="T11" s="45">
         <v>15</v>
       </c>
-      <c r="U11" s="45"/>
-      <c r="V11" s="45"/>
+      <c r="U11" s="43"/>
+      <c r="V11" s="43"/>
     </row>
     <row r="12" spans="1:22" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="31" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B12" s="25"/>
       <c r="E12" s="19" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="F12" s="35">
         <v>20</v>
       </c>
       <c r="I12" s="29" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="J12" s="25">
         <v>900</v>
@@ -3280,17 +3486,17 @@
       <c r="S12" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="T12" s="44">
+      <c r="T12" s="45">
         <v>12</v>
       </c>
-      <c r="U12" s="45"/>
-      <c r="V12" s="45"/>
+      <c r="U12" s="43"/>
+      <c r="V12" s="43"/>
     </row>
     <row r="13" spans="1:22" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="31"/>
       <c r="B13" s="25"/>
       <c r="E13" s="19" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="F13" s="34">
         <v>19</v>
@@ -3301,21 +3507,21 @@
       <c r="S13" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="T13" s="44"/>
-      <c r="U13" s="45"/>
-      <c r="V13" s="45"/>
+      <c r="T13" s="45"/>
+      <c r="U13" s="43"/>
+      <c r="V13" s="43"/>
     </row>
     <row r="14" spans="1:22" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A14" s="31"/>
       <c r="B14" s="25"/>
       <c r="E14" s="19" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="F14" s="34">
         <v>19</v>
       </c>
       <c r="I14" s="29" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="J14" s="25"/>
       <c r="M14" s="32"/>
@@ -3324,7 +3530,7 @@
       <c r="A15" s="31"/>
       <c r="B15" s="25"/>
       <c r="E15" s="19" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="F15" s="35">
         <v>24</v>
@@ -3337,7 +3543,7 @@
       <c r="A16" s="31"/>
       <c r="B16" s="25"/>
       <c r="E16" s="19" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="F16" s="26">
         <v>2.5</v>
@@ -3350,7 +3556,7 @@
       <c r="A17" s="31"/>
       <c r="B17" s="25"/>
       <c r="E17" s="19" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="F17" s="34">
         <v>8</v>
@@ -3358,16 +3564,16 @@
       <c r="I17" s="29"/>
       <c r="J17" s="25"/>
       <c r="M17" s="32"/>
-      <c r="S17" s="48" t="s">
-        <v>146</v>
-      </c>
-      <c r="T17" s="48"/>
+      <c r="S17" s="46" t="s">
+        <v>145</v>
+      </c>
+      <c r="T17" s="46"/>
     </row>
     <row r="18" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A18" s="31"/>
       <c r="B18" s="25"/>
       <c r="E18" s="19" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="F18" s="35">
         <v>5</v>
@@ -3380,7 +3586,7 @@
       <c r="A19" s="31"/>
       <c r="B19" s="25"/>
       <c r="E19" s="19" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="F19" s="26">
         <v>3</v>
@@ -3393,7 +3599,7 @@
       <c r="A20" s="31"/>
       <c r="B20" s="25"/>
       <c r="E20" s="19" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="F20" s="34">
         <v>2</v>
@@ -3406,7 +3612,7 @@
       <c r="A21" s="31"/>
       <c r="B21" s="25"/>
       <c r="E21" s="19" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="F21" s="35">
         <v>4</v>
@@ -3414,16 +3620,16 @@
       <c r="I21" s="29"/>
       <c r="J21" s="25"/>
       <c r="M21" s="32"/>
-      <c r="S21" s="46" t="s">
-        <v>158</v>
-      </c>
-      <c r="T21" s="46"/>
+      <c r="S21" s="48" t="s">
+        <v>157</v>
+      </c>
+      <c r="T21" s="48"/>
     </row>
     <row r="22" spans="1:21" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A22" s="31"/>
       <c r="B22" s="25"/>
       <c r="E22" s="19" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="F22" s="35">
         <v>12</v>
@@ -3431,16 +3637,16 @@
       <c r="I22" s="29"/>
       <c r="J22" s="25"/>
       <c r="M22" s="32"/>
-      <c r="S22" s="45" t="s">
-        <v>159</v>
-      </c>
-      <c r="T22" s="45"/>
+      <c r="S22" s="43" t="s">
+        <v>158</v>
+      </c>
+      <c r="T22" s="43"/>
     </row>
     <row r="23" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A23" s="31"/>
       <c r="B23" s="25"/>
       <c r="E23" s="19" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="F23" s="35">
         <v>8</v>
@@ -3464,274 +3670,274 @@
       <c r="A26" s="30"/>
       <c r="E26" s="19"/>
       <c r="S26" s="27" t="s">
+        <v>143</v>
+      </c>
+      <c r="T26" s="44" t="s">
         <v>144</v>
       </c>
-      <c r="T26" s="47" t="s">
-        <v>145</v>
-      </c>
-      <c r="U26" s="47"/>
+      <c r="U26" s="44"/>
     </row>
     <row r="27" spans="1:21" x14ac:dyDescent="0.25">
       <c r="E27" s="19"/>
       <c r="I27" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="J27" s="34" t="s">
-        <v>149</v>
-      </c>
-      <c r="M27" s="43" t="s">
-        <v>201</v>
-      </c>
-      <c r="N27" s="43"/>
-      <c r="O27" s="43"/>
+        <v>148</v>
+      </c>
+      <c r="M27" s="49" t="s">
+        <v>200</v>
+      </c>
+      <c r="N27" s="49"/>
+      <c r="O27" s="49"/>
       <c r="S27" s="28" t="s">
         <v>1</v>
       </c>
-      <c r="T27" s="47">
+      <c r="T27" s="44">
         <v>1.7</v>
       </c>
-      <c r="U27" s="47"/>
+      <c r="U27" s="44"/>
     </row>
     <row r="28" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A28" s="25" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B28" s="35" t="s">
         <v>28</v>
       </c>
       <c r="I28" s="29" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="J28" s="25">
         <v>50</v>
       </c>
-      <c r="M28" s="41" t="s">
-        <v>202</v>
-      </c>
-      <c r="N28" s="41"/>
+      <c r="M28" s="42" t="s">
+        <v>201</v>
+      </c>
+      <c r="N28" s="42"/>
       <c r="S28" s="28" t="s">
         <v>2</v>
       </c>
-      <c r="T28" s="47">
+      <c r="T28" s="44">
         <v>1.2</v>
       </c>
-      <c r="U28" s="47"/>
+      <c r="U28" s="44"/>
     </row>
     <row r="29" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A29" s="19" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B29" s="26">
         <v>7</v>
       </c>
       <c r="I29" s="29" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="J29" s="25">
         <v>900</v>
       </c>
-      <c r="M29" s="41" t="s">
-        <v>204</v>
-      </c>
-      <c r="N29" s="41"/>
+      <c r="M29" s="42" t="s">
+        <v>203</v>
+      </c>
+      <c r="N29" s="42"/>
       <c r="S29" s="28" t="s">
         <v>3</v>
       </c>
-      <c r="T29" s="47">
+      <c r="T29" s="44">
         <v>2</v>
       </c>
-      <c r="U29" s="47"/>
+      <c r="U29" s="44"/>
     </row>
     <row r="30" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A30" s="19" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B30" s="34">
         <v>8</v>
       </c>
       <c r="I30" s="29" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="J30" s="25">
         <v>100</v>
       </c>
-      <c r="M30" s="41" t="s">
-        <v>207</v>
-      </c>
-      <c r="N30" s="41"/>
+      <c r="M30" s="42" t="s">
+        <v>206</v>
+      </c>
+      <c r="N30" s="42"/>
       <c r="S30" s="28" t="s">
         <v>7</v>
       </c>
-      <c r="T30" s="47">
+      <c r="T30" s="44">
         <v>1.7</v>
       </c>
-      <c r="U30" s="47"/>
+      <c r="U30" s="44"/>
     </row>
     <row r="31" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A31" s="19" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B31" s="34">
         <v>17</v>
       </c>
       <c r="I31" s="29" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="J31" s="25">
         <v>200</v>
       </c>
-      <c r="M31" s="41" t="s">
-        <v>199</v>
-      </c>
-      <c r="N31" s="41"/>
+      <c r="M31" s="42" t="s">
+        <v>198</v>
+      </c>
+      <c r="N31" s="42"/>
       <c r="S31" s="28" t="s">
         <v>8</v>
       </c>
-      <c r="T31" s="47">
+      <c r="T31" s="44">
         <v>1.7</v>
       </c>
-      <c r="U31" s="47"/>
+      <c r="U31" s="44"/>
     </row>
     <row r="32" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A32" s="19" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="B32" s="34">
         <v>30</v>
       </c>
       <c r="I32" s="29" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="J32" s="25">
         <v>70</v>
       </c>
-      <c r="M32" s="41" t="s">
-        <v>205</v>
-      </c>
-      <c r="N32" s="41"/>
+      <c r="M32" s="42" t="s">
+        <v>204</v>
+      </c>
+      <c r="N32" s="42"/>
       <c r="S32" s="28" t="s">
         <v>5</v>
       </c>
-      <c r="T32" s="47">
+      <c r="T32" s="44">
         <v>1.5</v>
       </c>
-      <c r="U32" s="47"/>
+      <c r="U32" s="44"/>
     </row>
     <row r="33" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A33" s="19" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="B33" s="34">
         <v>2</v>
       </c>
       <c r="I33" s="29" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="J33" s="25">
         <v>600</v>
       </c>
-      <c r="M33" s="41" t="s">
-        <v>200</v>
-      </c>
-      <c r="N33" s="41"/>
+      <c r="M33" s="42" t="s">
+        <v>199</v>
+      </c>
+      <c r="N33" s="42"/>
       <c r="S33" s="28" t="s">
         <v>4</v>
       </c>
-      <c r="T33" s="47">
+      <c r="T33" s="44">
         <v>1</v>
       </c>
-      <c r="U33" s="47"/>
+      <c r="U33" s="44"/>
     </row>
     <row r="34" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A34" s="19" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="B34" s="34">
         <v>1</v>
       </c>
       <c r="I34" s="29" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="J34" s="25">
         <v>100</v>
       </c>
-      <c r="M34" s="41" t="s">
-        <v>203</v>
-      </c>
-      <c r="N34" s="41"/>
+      <c r="M34" s="42" t="s">
+        <v>202</v>
+      </c>
+      <c r="N34" s="42"/>
       <c r="S34" s="28" t="s">
         <v>6</v>
       </c>
-      <c r="T34" s="47">
+      <c r="T34" s="44">
         <v>1.2</v>
       </c>
-      <c r="U34" s="47"/>
+      <c r="U34" s="44"/>
     </row>
     <row r="35" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A35" s="19"/>
       <c r="B35" s="34"/>
       <c r="I35" s="29" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="J35" s="25">
         <v>500</v>
       </c>
-      <c r="M35" s="41" t="s">
-        <v>206</v>
-      </c>
-      <c r="N35" s="41"/>
+      <c r="M35" s="42" t="s">
+        <v>205</v>
+      </c>
+      <c r="N35" s="42"/>
     </row>
     <row r="36" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A36" s="19"/>
       <c r="B36" s="34"/>
       <c r="I36" s="29" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="J36" s="25">
         <v>10</v>
       </c>
-      <c r="M36" s="41"/>
-      <c r="N36" s="41"/>
+      <c r="M36" s="42"/>
+      <c r="N36" s="42"/>
     </row>
     <row r="37" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A37" s="19"/>
       <c r="B37" s="34"/>
       <c r="I37" s="29" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="J37" s="25">
         <v>5</v>
       </c>
-      <c r="M37" s="41"/>
-      <c r="N37" s="41"/>
+      <c r="M37" s="42"/>
+      <c r="N37" s="42"/>
     </row>
     <row r="38" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A38" s="19"/>
       <c r="B38" s="34"/>
       <c r="I38" s="29" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="J38" s="25">
         <v>400</v>
       </c>
-      <c r="M38" s="41"/>
-      <c r="N38" s="41"/>
+      <c r="M38" s="42"/>
+      <c r="N38" s="42"/>
     </row>
     <row r="39" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A39" s="19"/>
       <c r="B39" s="34"/>
       <c r="I39" s="29"/>
       <c r="J39" s="25"/>
-      <c r="M39" s="41"/>
-      <c r="N39" s="41"/>
+      <c r="M39" s="42"/>
+      <c r="N39" s="42"/>
     </row>
     <row r="40" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A40" s="19"/>
       <c r="B40" s="34"/>
       <c r="I40" s="29"/>
       <c r="J40" s="25"/>
-      <c r="M40" s="41"/>
-      <c r="N40" s="41"/>
+      <c r="M40" s="42"/>
+      <c r="N40" s="42"/>
     </row>
     <row r="41" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A41" s="19"/>
@@ -3771,11 +3977,31 @@
     <sortCondition ref="E6"/>
   </sortState>
   <mergeCells count="46">
-    <mergeCell ref="M36:N36"/>
-    <mergeCell ref="M37:N37"/>
-    <mergeCell ref="M38:N38"/>
-    <mergeCell ref="M39:N39"/>
-    <mergeCell ref="M40:N40"/>
+    <mergeCell ref="M34:N34"/>
+    <mergeCell ref="M35:N35"/>
+    <mergeCell ref="N10:O10"/>
+    <mergeCell ref="M28:N28"/>
+    <mergeCell ref="M29:N29"/>
+    <mergeCell ref="M30:N30"/>
+    <mergeCell ref="M31:N31"/>
+    <mergeCell ref="M32:N32"/>
+    <mergeCell ref="M27:O27"/>
+    <mergeCell ref="N7:O7"/>
+    <mergeCell ref="T10:V10"/>
+    <mergeCell ref="A3:D3"/>
+    <mergeCell ref="M33:N33"/>
+    <mergeCell ref="B1:C1"/>
+    <mergeCell ref="L1:N1"/>
+    <mergeCell ref="S22:T22"/>
+    <mergeCell ref="S21:T21"/>
+    <mergeCell ref="I1:J1"/>
+    <mergeCell ref="I3:J3"/>
+    <mergeCell ref="N6:O6"/>
+    <mergeCell ref="T5:V5"/>
+    <mergeCell ref="T6:V6"/>
+    <mergeCell ref="T7:V7"/>
+    <mergeCell ref="T8:V8"/>
+    <mergeCell ref="T9:V9"/>
     <mergeCell ref="N8:O8"/>
     <mergeCell ref="N9:O9"/>
     <mergeCell ref="N5:O5"/>
@@ -3792,31 +4018,11 @@
     <mergeCell ref="T30:U30"/>
     <mergeCell ref="T31:U31"/>
     <mergeCell ref="T32:U32"/>
-    <mergeCell ref="N7:O7"/>
-    <mergeCell ref="T10:V10"/>
-    <mergeCell ref="A3:D3"/>
-    <mergeCell ref="M33:N33"/>
-    <mergeCell ref="B1:C1"/>
-    <mergeCell ref="L1:N1"/>
-    <mergeCell ref="S22:T22"/>
-    <mergeCell ref="S21:T21"/>
-    <mergeCell ref="I1:J1"/>
-    <mergeCell ref="I3:J3"/>
-    <mergeCell ref="N6:O6"/>
-    <mergeCell ref="T5:V5"/>
-    <mergeCell ref="T6:V6"/>
-    <mergeCell ref="T7:V7"/>
-    <mergeCell ref="T8:V8"/>
-    <mergeCell ref="T9:V9"/>
-    <mergeCell ref="M34:N34"/>
-    <mergeCell ref="M35:N35"/>
-    <mergeCell ref="N10:O10"/>
-    <mergeCell ref="M28:N28"/>
-    <mergeCell ref="M29:N29"/>
-    <mergeCell ref="M30:N30"/>
-    <mergeCell ref="M31:N31"/>
-    <mergeCell ref="M32:N32"/>
-    <mergeCell ref="M27:O27"/>
+    <mergeCell ref="M36:N36"/>
+    <mergeCell ref="M37:N37"/>
+    <mergeCell ref="M38:N38"/>
+    <mergeCell ref="M39:N39"/>
+    <mergeCell ref="M40:N40"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -3827,8 +4033,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E6D17FE4-F1CD-468B-A942-60A271CCB6DD}">
   <dimension ref="A3:G26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J15" sqref="J15"/>
+    <sheetView zoomScale="172" zoomScaleNormal="172" workbookViewId="0">
+      <selection activeCell="A5" sqref="A5:G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3837,151 +4043,166 @@
   </cols>
   <sheetData>
     <row r="3" spans="1:7" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="A3" s="50" t="s">
+      <c r="A3" s="55" t="s">
+        <v>223</v>
+      </c>
+      <c r="B3" s="55"/>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" s="50" t="s">
         <v>224</v>
       </c>
-      <c r="B3" s="50"/>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" s="53" t="s">
+      <c r="B5" s="52" t="s">
         <v>225</v>
       </c>
-      <c r="B5" s="55" t="s">
+      <c r="C5" s="52"/>
+      <c r="D5" s="52" t="s">
         <v>226</v>
       </c>
-      <c r="C5" s="55"/>
-      <c r="D5" s="55" t="s">
+      <c r="E5" s="52"/>
+      <c r="F5" s="52" t="s">
         <v>227</v>
       </c>
-      <c r="E5" s="55"/>
-      <c r="F5" s="55" t="s">
+      <c r="G5" s="52"/>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" s="51"/>
+      <c r="B6" s="52"/>
+      <c r="C6" s="52"/>
+      <c r="D6" s="52"/>
+      <c r="E6" s="52"/>
+      <c r="F6" s="52"/>
+      <c r="G6" s="52"/>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" s="50" t="s">
         <v>228</v>
       </c>
-      <c r="G5" s="55"/>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" s="54"/>
-      <c r="B6" s="55"/>
-      <c r="C6" s="55"/>
-      <c r="D6" s="55"/>
-      <c r="E6" s="55"/>
-      <c r="F6" s="55"/>
-      <c r="G6" s="55"/>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" s="53" t="s">
+      <c r="B9" s="52" t="s">
+        <v>230</v>
+      </c>
+      <c r="C9" s="52"/>
+      <c r="D9" s="52" t="s">
+        <v>227</v>
+      </c>
+      <c r="E9" s="52"/>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10" s="51"/>
+      <c r="B10" s="52"/>
+      <c r="C10" s="52"/>
+      <c r="D10" s="52"/>
+      <c r="E10" s="52"/>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13" s="53" t="s">
+        <v>231</v>
+      </c>
+      <c r="B13" s="52" t="s">
         <v>229</v>
       </c>
-      <c r="B9" s="55" t="s">
-        <v>231</v>
-      </c>
-      <c r="C9" s="55"/>
-      <c r="D9" s="55" t="s">
-        <v>228</v>
-      </c>
-      <c r="E9" s="55"/>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10" s="54"/>
-      <c r="B10" s="55"/>
-      <c r="C10" s="55"/>
-      <c r="D10" s="55"/>
-      <c r="E10" s="55"/>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A13" s="51" t="s">
+      <c r="C13" s="52"/>
+      <c r="D13" s="52" t="s">
+        <v>226</v>
+      </c>
+      <c r="E13" s="52"/>
+      <c r="F13" s="52" t="s">
+        <v>227</v>
+      </c>
+      <c r="G13" s="52"/>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14" s="54"/>
+      <c r="B14" s="52"/>
+      <c r="C14" s="52"/>
+      <c r="D14" s="52"/>
+      <c r="E14" s="52"/>
+      <c r="F14" s="52"/>
+      <c r="G14" s="52"/>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A17" s="53" t="s">
         <v>232</v>
       </c>
-      <c r="B13" s="55" t="s">
-        <v>230</v>
-      </c>
-      <c r="C13" s="55"/>
-      <c r="D13" s="55" t="s">
+      <c r="B17" s="52" t="s">
         <v>227</v>
       </c>
-      <c r="E13" s="55"/>
-      <c r="F13" s="55" t="s">
-        <v>228</v>
-      </c>
-      <c r="G13" s="55"/>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A14" s="52"/>
-      <c r="B14" s="55"/>
-      <c r="C14" s="55"/>
-      <c r="D14" s="55"/>
-      <c r="E14" s="55"/>
-      <c r="F14" s="55"/>
-      <c r="G14" s="55"/>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A17" s="51" t="s">
+      <c r="C17" s="52"/>
+      <c r="D17" s="52" t="s">
+        <v>226</v>
+      </c>
+      <c r="E17" s="52"/>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A18" s="54"/>
+      <c r="B18" s="52"/>
+      <c r="C18" s="52"/>
+      <c r="D18" s="52"/>
+      <c r="E18" s="52"/>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A21" s="53" t="s">
         <v>233</v>
       </c>
-      <c r="B17" s="55" t="s">
-        <v>228</v>
-      </c>
-      <c r="C17" s="55"/>
-      <c r="D17" s="55" t="s">
+      <c r="B21" s="52" t="s">
         <v>227</v>
       </c>
-      <c r="E17" s="55"/>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A18" s="52"/>
-      <c r="B18" s="55"/>
-      <c r="C18" s="55"/>
-      <c r="D18" s="55"/>
-      <c r="E18" s="55"/>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A21" s="51" t="s">
+      <c r="C21" s="52"/>
+      <c r="D21" s="52" t="s">
+        <v>226</v>
+      </c>
+      <c r="E21" s="52"/>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A22" s="54"/>
+      <c r="B22" s="52"/>
+      <c r="C22" s="52"/>
+      <c r="D22" s="52"/>
+      <c r="E22" s="52"/>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A25" s="50" t="s">
         <v>234</v>
       </c>
-      <c r="B21" s="55" t="s">
-        <v>228</v>
-      </c>
-      <c r="C21" s="55"/>
-      <c r="D21" s="55" t="s">
+      <c r="B25" s="52" t="s">
+        <v>229</v>
+      </c>
+      <c r="C25" s="52"/>
+      <c r="D25" s="52" t="s">
+        <v>226</v>
+      </c>
+      <c r="E25" s="52"/>
+      <c r="F25" s="52" t="s">
         <v>227</v>
       </c>
-      <c r="E21" s="55"/>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A22" s="52"/>
-      <c r="B22" s="55"/>
-      <c r="C22" s="55"/>
-      <c r="D22" s="55"/>
-      <c r="E22" s="55"/>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A25" s="53" t="s">
-        <v>235</v>
-      </c>
-      <c r="B25" s="55" t="s">
-        <v>230</v>
-      </c>
-      <c r="C25" s="55"/>
-      <c r="D25" s="55" t="s">
-        <v>227</v>
-      </c>
-      <c r="E25" s="55"/>
-      <c r="F25" s="55" t="s">
-        <v>228</v>
-      </c>
-      <c r="G25" s="55"/>
+      <c r="G25" s="52"/>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A26" s="54"/>
-      <c r="B26" s="55"/>
-      <c r="C26" s="55"/>
-      <c r="D26" s="55"/>
-      <c r="E26" s="55"/>
-      <c r="F26" s="55"/>
-      <c r="G26" s="55"/>
+      <c r="A26" s="51"/>
+      <c r="B26" s="52"/>
+      <c r="C26" s="52"/>
+      <c r="D26" s="52"/>
+      <c r="E26" s="52"/>
+      <c r="F26" s="52"/>
+      <c r="G26" s="52"/>
     </row>
   </sheetData>
   <mergeCells count="22">
+    <mergeCell ref="F5:G6"/>
+    <mergeCell ref="A9:A10"/>
+    <mergeCell ref="B9:C10"/>
+    <mergeCell ref="D9:E10"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="B5:C6"/>
+    <mergeCell ref="D5:E6"/>
+    <mergeCell ref="A13:A14"/>
+    <mergeCell ref="D13:E14"/>
+    <mergeCell ref="F13:G14"/>
+    <mergeCell ref="B13:C14"/>
+    <mergeCell ref="A17:A18"/>
+    <mergeCell ref="D17:E18"/>
+    <mergeCell ref="B17:C18"/>
     <mergeCell ref="A25:A26"/>
     <mergeCell ref="D25:E26"/>
     <mergeCell ref="F25:G26"/>
@@ -3989,21 +4210,6 @@
     <mergeCell ref="A21:A22"/>
     <mergeCell ref="B21:C22"/>
     <mergeCell ref="D21:E22"/>
-    <mergeCell ref="A13:A14"/>
-    <mergeCell ref="D13:E14"/>
-    <mergeCell ref="F13:G14"/>
-    <mergeCell ref="B13:C14"/>
-    <mergeCell ref="A17:A18"/>
-    <mergeCell ref="D17:E18"/>
-    <mergeCell ref="B17:C18"/>
-    <mergeCell ref="A9:A10"/>
-    <mergeCell ref="B9:C10"/>
-    <mergeCell ref="D9:E10"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="A5:A6"/>
-    <mergeCell ref="B5:C6"/>
-    <mergeCell ref="D5:E6"/>
-    <mergeCell ref="F5:G6"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -4011,11 +4217,916 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{517DCE16-F559-4F7B-A4C3-FFC33F82246B}">
+  <dimension ref="A4:AD34"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="106" zoomScaleNormal="106" workbookViewId="0">
+      <selection activeCell="V8" sqref="V8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="22" customWidth="1"/>
+    <col min="12" max="12" width="11.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="4" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="B4" s="18" t="s">
+        <v>268</v>
+      </c>
+      <c r="C4" s="20"/>
+      <c r="D4" s="18" t="s">
+        <v>270</v>
+      </c>
+      <c r="E4" s="20"/>
+      <c r="F4" s="18" t="s">
+        <v>273</v>
+      </c>
+      <c r="G4" s="20"/>
+      <c r="H4" s="72" t="s">
+        <v>274</v>
+      </c>
+      <c r="I4" s="72"/>
+      <c r="L4" s="70" t="s">
+        <v>235</v>
+      </c>
+      <c r="M4" s="70"/>
+      <c r="N4" s="70"/>
+      <c r="O4" s="70"/>
+      <c r="Q4" s="70" t="s">
+        <v>236</v>
+      </c>
+      <c r="R4" s="70"/>
+      <c r="S4" s="70"/>
+      <c r="T4" s="70"/>
+      <c r="V4" s="70" t="s">
+        <v>238</v>
+      </c>
+      <c r="W4" s="70"/>
+      <c r="X4" s="70"/>
+      <c r="Y4" s="70"/>
+      <c r="AA4" s="70" t="s">
+        <v>237</v>
+      </c>
+      <c r="AB4" s="70"/>
+      <c r="AC4" s="70"/>
+      <c r="AD4" s="70"/>
+    </row>
+    <row r="5" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="C5" s="20"/>
+      <c r="E5" s="20"/>
+      <c r="G5" s="20"/>
+      <c r="L5" s="56"/>
+      <c r="M5" s="56"/>
+      <c r="N5" s="56"/>
+      <c r="O5" s="56"/>
+      <c r="Q5" s="56"/>
+      <c r="R5" s="56"/>
+      <c r="S5" s="56"/>
+      <c r="T5" s="56"/>
+      <c r="V5" s="56"/>
+      <c r="W5" s="56"/>
+      <c r="X5" s="56"/>
+      <c r="Y5" s="56"/>
+      <c r="AA5" s="56"/>
+      <c r="AB5" s="56"/>
+      <c r="AC5" s="56"/>
+      <c r="AD5" s="56"/>
+    </row>
+    <row r="6" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A6" s="66" t="s">
+        <v>239</v>
+      </c>
+      <c r="B6" s="59" t="s">
+        <v>226</v>
+      </c>
+      <c r="C6" s="67"/>
+      <c r="D6" s="59" t="s">
+        <v>225</v>
+      </c>
+      <c r="E6" s="67"/>
+      <c r="F6" s="59" t="s">
+        <v>227</v>
+      </c>
+      <c r="G6" s="67"/>
+      <c r="H6" s="59" t="s">
+        <v>227</v>
+      </c>
+      <c r="L6" s="56" t="s">
+        <v>265</v>
+      </c>
+      <c r="M6" s="56"/>
+      <c r="N6" s="56"/>
+      <c r="O6" s="56"/>
+      <c r="Q6" s="56" t="s">
+        <v>265</v>
+      </c>
+      <c r="R6" s="56"/>
+      <c r="S6" s="56"/>
+      <c r="T6" s="56"/>
+      <c r="V6" s="56" t="s">
+        <v>265</v>
+      </c>
+      <c r="W6" s="56"/>
+      <c r="X6" s="56"/>
+      <c r="Y6" s="56"/>
+      <c r="AA6" s="56" t="s">
+        <v>265</v>
+      </c>
+      <c r="AB6" s="56"/>
+      <c r="AC6" s="56"/>
+      <c r="AD6" s="56"/>
+    </row>
+    <row r="7" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A7" s="66" t="s">
+        <v>240</v>
+      </c>
+      <c r="B7" s="59">
+        <v>22</v>
+      </c>
+      <c r="C7" s="67"/>
+      <c r="D7" s="59">
+        <v>24</v>
+      </c>
+      <c r="E7" s="67"/>
+      <c r="F7" s="59">
+        <v>26</v>
+      </c>
+      <c r="G7" s="67"/>
+      <c r="H7" s="59">
+        <v>21</v>
+      </c>
+      <c r="L7" s="56" t="s">
+        <v>215</v>
+      </c>
+      <c r="M7" s="56"/>
+      <c r="N7" s="56"/>
+      <c r="O7" s="56"/>
+      <c r="Q7" s="56" t="s">
+        <v>215</v>
+      </c>
+      <c r="R7" s="56"/>
+      <c r="S7" s="56"/>
+      <c r="T7" s="56"/>
+      <c r="V7" s="56" t="s">
+        <v>215</v>
+      </c>
+      <c r="W7" s="56"/>
+      <c r="X7" s="56"/>
+      <c r="Y7" s="56"/>
+      <c r="AA7" s="56" t="s">
+        <v>215</v>
+      </c>
+      <c r="AB7" s="56"/>
+      <c r="AC7" s="56"/>
+      <c r="AD7" s="56"/>
+    </row>
+    <row r="8" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A8" s="66" t="s">
+        <v>241</v>
+      </c>
+      <c r="B8" s="59" t="s">
+        <v>244</v>
+      </c>
+      <c r="C8" s="67"/>
+      <c r="D8" s="59" t="s">
+        <v>243</v>
+      </c>
+      <c r="E8" s="67"/>
+      <c r="F8" s="59" t="s">
+        <v>230</v>
+      </c>
+      <c r="G8" s="67"/>
+      <c r="H8" s="59" t="s">
+        <v>242</v>
+      </c>
+      <c r="L8" s="56" t="s">
+        <v>266</v>
+      </c>
+      <c r="M8" s="56"/>
+      <c r="N8" s="56"/>
+      <c r="O8" s="56"/>
+      <c r="Q8" s="56" t="s">
+        <v>267</v>
+      </c>
+      <c r="R8" s="56"/>
+      <c r="S8" s="56"/>
+      <c r="T8" s="56"/>
+      <c r="V8" s="56"/>
+      <c r="W8" s="56"/>
+      <c r="X8" s="56"/>
+      <c r="Y8" s="56"/>
+      <c r="AA8" s="56" t="s">
+        <v>216</v>
+      </c>
+      <c r="AB8" s="56"/>
+      <c r="AC8" s="56"/>
+      <c r="AD8" s="56"/>
+    </row>
+    <row r="9" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A9" s="66" t="s">
+        <v>16</v>
+      </c>
+      <c r="B9" s="59" t="s">
+        <v>248</v>
+      </c>
+      <c r="C9" s="67"/>
+      <c r="D9" s="68" t="s">
+        <v>246</v>
+      </c>
+      <c r="E9" s="67"/>
+      <c r="F9" s="59" t="s">
+        <v>247</v>
+      </c>
+      <c r="G9" s="67"/>
+      <c r="H9" s="59" t="s">
+        <v>245</v>
+      </c>
+      <c r="L9" s="56"/>
+      <c r="M9" s="56"/>
+      <c r="N9" s="56"/>
+      <c r="O9" s="56"/>
+      <c r="Q9" s="56" t="s">
+        <v>278</v>
+      </c>
+      <c r="R9" s="56"/>
+      <c r="S9" s="56"/>
+      <c r="T9" s="56"/>
+      <c r="V9" s="56"/>
+      <c r="W9" s="56"/>
+      <c r="X9" s="56"/>
+      <c r="Y9" s="56"/>
+      <c r="AA9" s="56" t="s">
+        <v>278</v>
+      </c>
+      <c r="AB9" s="56"/>
+      <c r="AC9" s="56"/>
+      <c r="AD9" s="56"/>
+    </row>
+    <row r="10" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A10" s="58" t="s">
+        <v>249</v>
+      </c>
+      <c r="B10" s="57"/>
+      <c r="C10" s="57"/>
+      <c r="D10" s="57"/>
+      <c r="E10" s="57"/>
+      <c r="F10" s="57"/>
+      <c r="G10" s="57"/>
+      <c r="H10" s="57"/>
+      <c r="L10" s="56"/>
+      <c r="M10" s="56"/>
+      <c r="N10" s="56"/>
+      <c r="O10" s="56"/>
+      <c r="Q10" s="56"/>
+      <c r="R10" s="56"/>
+      <c r="S10" s="56"/>
+      <c r="T10" s="56"/>
+      <c r="V10" s="56"/>
+      <c r="W10" s="56"/>
+      <c r="X10" s="56"/>
+      <c r="Y10" s="56"/>
+      <c r="AA10" s="56"/>
+      <c r="AB10" s="56"/>
+      <c r="AC10" s="56"/>
+      <c r="AD10" s="56"/>
+    </row>
+    <row r="11" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A11" s="58" t="s">
+        <v>250</v>
+      </c>
+      <c r="B11" s="57"/>
+      <c r="C11" s="57"/>
+      <c r="D11" s="57"/>
+      <c r="E11" s="57"/>
+      <c r="F11" s="57"/>
+      <c r="G11" s="57"/>
+      <c r="H11" s="57"/>
+      <c r="L11" s="56"/>
+      <c r="M11" s="56"/>
+      <c r="N11" s="56"/>
+      <c r="O11" s="56"/>
+      <c r="Q11" s="56"/>
+      <c r="R11" s="56"/>
+      <c r="S11" s="56"/>
+      <c r="T11" s="56"/>
+      <c r="V11" s="56"/>
+      <c r="W11" s="56"/>
+      <c r="X11" s="56"/>
+      <c r="Y11" s="56"/>
+      <c r="AA11" s="56"/>
+      <c r="AB11" s="56"/>
+      <c r="AC11" s="56"/>
+      <c r="AD11" s="56"/>
+    </row>
+    <row r="12" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A12" s="58" t="s">
+        <v>251</v>
+      </c>
+      <c r="B12" s="57" t="s">
+        <v>255</v>
+      </c>
+      <c r="C12" s="57"/>
+      <c r="D12" s="57" t="s">
+        <v>256</v>
+      </c>
+      <c r="E12" s="57"/>
+      <c r="F12" s="57" t="s">
+        <v>255</v>
+      </c>
+      <c r="G12" s="57"/>
+      <c r="H12" s="57" t="s">
+        <v>255</v>
+      </c>
+      <c r="L12" s="56"/>
+      <c r="M12" s="56"/>
+      <c r="N12" s="56"/>
+      <c r="O12" s="56"/>
+      <c r="Q12" s="56"/>
+      <c r="R12" s="56"/>
+      <c r="S12" s="56"/>
+      <c r="T12" s="56"/>
+      <c r="V12" s="56"/>
+      <c r="W12" s="56"/>
+      <c r="X12" s="56"/>
+      <c r="Y12" s="56"/>
+      <c r="AA12" s="56"/>
+      <c r="AB12" s="56"/>
+      <c r="AC12" s="56"/>
+      <c r="AD12" s="56"/>
+    </row>
+    <row r="13" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A13" s="58" t="s">
+        <v>252</v>
+      </c>
+      <c r="B13" s="57" t="s">
+        <v>257</v>
+      </c>
+      <c r="C13" s="57"/>
+      <c r="D13" s="57" t="s">
+        <v>257</v>
+      </c>
+      <c r="E13" s="57"/>
+      <c r="F13" s="57" t="s">
+        <v>257</v>
+      </c>
+      <c r="G13" s="57"/>
+      <c r="H13" s="57" t="s">
+        <v>257</v>
+      </c>
+      <c r="L13" s="56"/>
+      <c r="M13" s="56"/>
+      <c r="N13" s="56"/>
+      <c r="O13" s="56"/>
+      <c r="Q13" s="56"/>
+      <c r="R13" s="56"/>
+      <c r="S13" s="56"/>
+      <c r="T13" s="56"/>
+      <c r="V13" s="56"/>
+      <c r="W13" s="56"/>
+      <c r="X13" s="56"/>
+      <c r="Y13" s="56"/>
+      <c r="AA13" s="56"/>
+      <c r="AB13" s="56"/>
+      <c r="AC13" s="56"/>
+      <c r="AD13" s="56"/>
+    </row>
+    <row r="14" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A14" s="58" t="s">
+        <v>253</v>
+      </c>
+      <c r="B14" s="57"/>
+      <c r="C14" s="57"/>
+      <c r="D14" s="57"/>
+      <c r="E14" s="57"/>
+      <c r="F14" s="57"/>
+      <c r="G14" s="57"/>
+      <c r="H14" s="57"/>
+      <c r="L14" s="56"/>
+      <c r="M14" s="56"/>
+      <c r="N14" s="56"/>
+      <c r="O14" s="56"/>
+      <c r="Q14" s="56"/>
+      <c r="R14" s="56"/>
+      <c r="S14" s="56"/>
+      <c r="T14" s="56"/>
+      <c r="V14" s="56"/>
+      <c r="W14" s="56"/>
+      <c r="X14" s="56"/>
+      <c r="Y14" s="56"/>
+      <c r="AA14" s="56"/>
+      <c r="AB14" s="56"/>
+      <c r="AC14" s="56"/>
+      <c r="AD14" s="56"/>
+    </row>
+    <row r="15" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A15" s="58" t="s">
+        <v>254</v>
+      </c>
+      <c r="B15" s="57" t="s">
+        <v>258</v>
+      </c>
+      <c r="C15" s="57"/>
+      <c r="D15" s="57" t="s">
+        <v>258</v>
+      </c>
+      <c r="E15" s="57"/>
+      <c r="F15" s="57" t="s">
+        <v>258</v>
+      </c>
+      <c r="G15" s="57"/>
+      <c r="H15" s="57" t="s">
+        <v>258</v>
+      </c>
+      <c r="L15" s="56"/>
+      <c r="M15" s="56"/>
+      <c r="N15" s="56"/>
+      <c r="O15" s="56"/>
+      <c r="Q15" s="56"/>
+      <c r="R15" s="56"/>
+      <c r="S15" s="56"/>
+      <c r="T15" s="56"/>
+      <c r="V15" s="56"/>
+      <c r="W15" s="56"/>
+      <c r="X15" s="56"/>
+      <c r="Y15" s="56"/>
+      <c r="AA15" s="56"/>
+      <c r="AB15" s="56"/>
+      <c r="AC15" s="56"/>
+      <c r="AD15" s="56"/>
+    </row>
+    <row r="16" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A16" s="58" t="s">
+        <v>259</v>
+      </c>
+      <c r="B16" s="57"/>
+      <c r="C16" s="57"/>
+      <c r="D16" s="57"/>
+      <c r="E16" s="57"/>
+      <c r="F16" s="57"/>
+      <c r="G16" s="57"/>
+      <c r="H16" s="57"/>
+      <c r="L16" s="56"/>
+      <c r="M16" s="56"/>
+      <c r="N16" s="56"/>
+      <c r="O16" s="56"/>
+      <c r="Q16" s="56"/>
+      <c r="R16" s="56"/>
+      <c r="S16" s="56"/>
+      <c r="T16" s="56"/>
+      <c r="V16" s="56"/>
+      <c r="W16" s="56"/>
+      <c r="X16" s="56"/>
+      <c r="Y16" s="56"/>
+      <c r="AA16" s="56"/>
+      <c r="AB16" s="56"/>
+      <c r="AC16" s="56"/>
+      <c r="AD16" s="56"/>
+    </row>
+    <row r="17" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A17" s="58" t="s">
+        <v>260</v>
+      </c>
+      <c r="B17" s="57" t="s">
+        <v>261</v>
+      </c>
+      <c r="C17" s="57"/>
+      <c r="D17" s="57" t="s">
+        <v>261</v>
+      </c>
+      <c r="E17" s="57"/>
+      <c r="F17" s="57" t="s">
+        <v>261</v>
+      </c>
+      <c r="G17" s="57"/>
+      <c r="H17" s="57" t="s">
+        <v>261</v>
+      </c>
+      <c r="L17" s="56"/>
+      <c r="M17" s="56"/>
+      <c r="N17" s="56"/>
+      <c r="O17" s="56"/>
+      <c r="Q17" s="56"/>
+      <c r="R17" s="56"/>
+      <c r="S17" s="56"/>
+      <c r="T17" s="56"/>
+      <c r="V17" s="56"/>
+      <c r="W17" s="56"/>
+      <c r="X17" s="56"/>
+      <c r="Y17" s="56"/>
+      <c r="AA17" s="56"/>
+      <c r="AB17" s="56"/>
+      <c r="AC17" s="56"/>
+      <c r="AD17" s="56"/>
+    </row>
+    <row r="18" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A18" s="58" t="s">
+        <v>262</v>
+      </c>
+      <c r="B18" s="57" t="s">
+        <v>263</v>
+      </c>
+      <c r="C18" s="57"/>
+      <c r="D18" s="57" t="s">
+        <v>263</v>
+      </c>
+      <c r="E18" s="57"/>
+      <c r="F18" s="57" t="s">
+        <v>263</v>
+      </c>
+      <c r="G18" s="57"/>
+      <c r="H18" s="57" t="s">
+        <v>263</v>
+      </c>
+      <c r="L18" s="56"/>
+      <c r="M18" s="56"/>
+      <c r="N18" s="56"/>
+      <c r="O18" s="56"/>
+      <c r="Q18" s="56"/>
+      <c r="R18" s="56"/>
+      <c r="S18" s="56"/>
+      <c r="T18" s="56"/>
+      <c r="V18" s="56"/>
+      <c r="W18" s="56"/>
+      <c r="X18" s="56"/>
+      <c r="Y18" s="56"/>
+      <c r="AA18" s="56"/>
+      <c r="AB18" s="56"/>
+      <c r="AC18" s="56"/>
+      <c r="AD18" s="56"/>
+    </row>
+    <row r="19" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A19" s="60" t="s">
+        <v>28</v>
+      </c>
+      <c r="B19" s="61">
+        <v>2</v>
+      </c>
+      <c r="C19" s="61"/>
+      <c r="D19" s="61">
+        <v>0</v>
+      </c>
+      <c r="E19" s="61"/>
+      <c r="F19" s="61">
+        <v>2</v>
+      </c>
+      <c r="G19" s="61"/>
+      <c r="H19" s="61">
+        <v>0</v>
+      </c>
+      <c r="I19" s="62" t="s">
+        <v>264</v>
+      </c>
+      <c r="J19" s="43"/>
+      <c r="L19" s="56"/>
+      <c r="M19" s="56"/>
+      <c r="N19" s="56"/>
+      <c r="O19" s="56"/>
+      <c r="Q19" s="56"/>
+      <c r="R19" s="56"/>
+      <c r="S19" s="56"/>
+      <c r="T19" s="56"/>
+      <c r="V19" s="56"/>
+      <c r="W19" s="56"/>
+      <c r="X19" s="56"/>
+      <c r="Y19" s="56"/>
+      <c r="AA19" s="56"/>
+      <c r="AB19" s="56"/>
+      <c r="AC19" s="56"/>
+      <c r="AD19" s="56"/>
+    </row>
+    <row r="20" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A20" s="63" t="s">
+        <v>148</v>
+      </c>
+      <c r="B20" s="64"/>
+      <c r="C20" s="64"/>
+      <c r="D20" s="64">
+        <v>600</v>
+      </c>
+      <c r="E20" s="64"/>
+      <c r="F20" s="64"/>
+      <c r="G20" s="64"/>
+      <c r="H20" s="64"/>
+      <c r="L20" s="56"/>
+      <c r="M20" s="56"/>
+      <c r="N20" s="56"/>
+      <c r="O20" s="56"/>
+      <c r="Q20" s="56"/>
+      <c r="R20" s="56"/>
+      <c r="S20" s="56"/>
+      <c r="T20" s="56"/>
+      <c r="V20" s="56"/>
+      <c r="W20" s="56"/>
+      <c r="X20" s="56"/>
+      <c r="Y20" s="56"/>
+      <c r="AA20" s="56"/>
+      <c r="AB20" s="56"/>
+      <c r="AC20" s="56"/>
+      <c r="AD20" s="56"/>
+    </row>
+    <row r="21" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A21" s="65" t="s">
+        <v>201</v>
+      </c>
+      <c r="B21" s="69">
+        <v>0</v>
+      </c>
+      <c r="C21" s="69"/>
+      <c r="D21" s="69">
+        <v>4</v>
+      </c>
+      <c r="E21" s="69"/>
+      <c r="F21" s="69">
+        <v>2</v>
+      </c>
+      <c r="G21" s="69"/>
+      <c r="H21" s="69">
+        <v>2</v>
+      </c>
+      <c r="L21" s="56"/>
+      <c r="M21" s="56"/>
+      <c r="N21" s="56"/>
+      <c r="O21" s="56"/>
+      <c r="Q21" s="56"/>
+      <c r="R21" s="56"/>
+      <c r="S21" s="56"/>
+      <c r="T21" s="56"/>
+      <c r="V21" s="56"/>
+      <c r="W21" s="56"/>
+      <c r="X21" s="56"/>
+      <c r="Y21" s="56"/>
+      <c r="AA21" s="56"/>
+      <c r="AB21" s="56"/>
+      <c r="AC21" s="56"/>
+      <c r="AD21" s="56"/>
+    </row>
+    <row r="22" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A22" s="65" t="s">
+        <v>203</v>
+      </c>
+      <c r="B22" s="69">
+        <v>4</v>
+      </c>
+      <c r="C22" s="69"/>
+      <c r="D22" s="69">
+        <v>3</v>
+      </c>
+      <c r="E22" s="69"/>
+      <c r="F22" s="69">
+        <v>1</v>
+      </c>
+      <c r="G22" s="69"/>
+      <c r="H22" s="69">
+        <v>3</v>
+      </c>
+      <c r="L22" s="56"/>
+      <c r="M22" s="56"/>
+      <c r="N22" s="56"/>
+      <c r="O22" s="56"/>
+      <c r="Q22" s="56"/>
+      <c r="R22" s="56"/>
+      <c r="S22" s="56"/>
+      <c r="T22" s="56"/>
+      <c r="V22" s="56"/>
+      <c r="W22" s="56"/>
+      <c r="X22" s="56"/>
+      <c r="Y22" s="56"/>
+      <c r="AA22" s="56"/>
+      <c r="AB22" s="56"/>
+      <c r="AC22" s="56"/>
+      <c r="AD22" s="56"/>
+    </row>
+    <row r="23" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A23" s="65" t="s">
+        <v>206</v>
+      </c>
+      <c r="B23" s="69">
+        <v>2</v>
+      </c>
+      <c r="C23" s="69"/>
+      <c r="D23" s="69">
+        <v>1</v>
+      </c>
+      <c r="E23" s="69"/>
+      <c r="F23" s="69">
+        <v>1</v>
+      </c>
+      <c r="G23" s="69"/>
+      <c r="H23" s="69">
+        <v>3</v>
+      </c>
+      <c r="L23" s="56"/>
+      <c r="M23" s="56"/>
+      <c r="N23" s="56"/>
+      <c r="O23" s="56"/>
+      <c r="Q23" s="56"/>
+      <c r="R23" s="56"/>
+      <c r="S23" s="56"/>
+      <c r="T23" s="56"/>
+      <c r="V23" s="56"/>
+      <c r="W23" s="56"/>
+      <c r="X23" s="56"/>
+      <c r="Y23" s="56"/>
+      <c r="AA23" s="56"/>
+      <c r="AB23" s="56"/>
+      <c r="AC23" s="56"/>
+      <c r="AD23" s="56"/>
+    </row>
+    <row r="24" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A24" s="65" t="s">
+        <v>198</v>
+      </c>
+      <c r="B24" s="69">
+        <v>2</v>
+      </c>
+      <c r="C24" s="69"/>
+      <c r="D24" s="69">
+        <v>5</v>
+      </c>
+      <c r="E24" s="69"/>
+      <c r="F24" s="69">
+        <v>2</v>
+      </c>
+      <c r="G24" s="69"/>
+      <c r="H24" s="69">
+        <v>2</v>
+      </c>
+      <c r="L24" s="56"/>
+      <c r="M24" s="56"/>
+      <c r="N24" s="56"/>
+      <c r="O24" s="56"/>
+      <c r="Q24" s="56"/>
+      <c r="R24" s="56"/>
+      <c r="S24" s="56"/>
+      <c r="T24" s="56"/>
+      <c r="V24" s="56"/>
+      <c r="W24" s="56"/>
+      <c r="X24" s="56"/>
+      <c r="Y24" s="56"/>
+      <c r="AA24" s="56"/>
+      <c r="AB24" s="56"/>
+      <c r="AC24" s="56"/>
+      <c r="AD24" s="56"/>
+    </row>
+    <row r="25" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A25" s="65" t="s">
+        <v>204</v>
+      </c>
+      <c r="B25" s="69">
+        <v>4</v>
+      </c>
+      <c r="C25" s="69"/>
+      <c r="D25" s="69">
+        <v>0</v>
+      </c>
+      <c r="E25" s="69"/>
+      <c r="F25" s="69">
+        <v>1</v>
+      </c>
+      <c r="G25" s="69"/>
+      <c r="H25" s="69">
+        <v>3</v>
+      </c>
+      <c r="L25" s="56"/>
+      <c r="M25" s="56"/>
+      <c r="N25" s="56"/>
+      <c r="O25" s="56"/>
+      <c r="Q25" s="56"/>
+      <c r="R25" s="56"/>
+      <c r="S25" s="56"/>
+      <c r="T25" s="56"/>
+      <c r="V25" s="56"/>
+      <c r="W25" s="56"/>
+      <c r="X25" s="56"/>
+      <c r="Y25" s="56"/>
+      <c r="AA25" s="56"/>
+      <c r="AB25" s="56"/>
+      <c r="AC25" s="56"/>
+      <c r="AD25" s="56"/>
+    </row>
+    <row r="26" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A26" s="65" t="s">
+        <v>199</v>
+      </c>
+      <c r="B26" s="69">
+        <v>0</v>
+      </c>
+      <c r="C26" s="69"/>
+      <c r="D26" s="69">
+        <v>2</v>
+      </c>
+      <c r="E26" s="69"/>
+      <c r="F26" s="69">
+        <v>5</v>
+      </c>
+      <c r="G26" s="69"/>
+      <c r="H26" s="69">
+        <v>1</v>
+      </c>
+      <c r="L26" s="56"/>
+      <c r="M26" s="56"/>
+      <c r="N26" s="56"/>
+      <c r="O26" s="56"/>
+      <c r="Q26" s="56"/>
+      <c r="R26" s="56"/>
+      <c r="S26" s="56"/>
+      <c r="T26" s="56"/>
+      <c r="V26" s="56"/>
+      <c r="W26" s="56"/>
+      <c r="X26" s="56"/>
+      <c r="Y26" s="56"/>
+      <c r="AA26" s="56"/>
+      <c r="AB26" s="56"/>
+      <c r="AC26" s="56"/>
+      <c r="AD26" s="56"/>
+    </row>
+    <row r="27" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A27" s="65" t="s">
+        <v>202</v>
+      </c>
+      <c r="B27" s="69">
+        <v>0</v>
+      </c>
+      <c r="C27" s="69"/>
+      <c r="D27" s="69">
+        <v>0</v>
+      </c>
+      <c r="E27" s="69"/>
+      <c r="F27" s="69">
+        <v>3</v>
+      </c>
+      <c r="G27" s="69"/>
+      <c r="H27" s="69">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A28" s="65" t="s">
+        <v>205</v>
+      </c>
+      <c r="B28" s="69">
+        <v>3</v>
+      </c>
+      <c r="C28" s="69"/>
+      <c r="D28" s="69">
+        <v>0</v>
+      </c>
+      <c r="E28" s="69"/>
+      <c r="F28" s="69">
+        <v>0</v>
+      </c>
+      <c r="G28" s="69"/>
+      <c r="H28" s="69">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A31" s="71" t="s">
+        <v>271</v>
+      </c>
+      <c r="B31" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="32" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="B32" s="73" t="s">
+        <v>275</v>
+      </c>
+      <c r="C32" s="73"/>
+    </row>
+    <row r="33" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B33" s="73" t="s">
+        <v>276</v>
+      </c>
+      <c r="C33" s="73"/>
+    </row>
+    <row r="34" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B34" t="s">
+        <v>277</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="8">
+    <mergeCell ref="AA4:AD4"/>
+    <mergeCell ref="H4:I4"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="L4:O4"/>
+    <mergeCell ref="Q4:T4"/>
+    <mergeCell ref="V4:Y4"/>
+    <mergeCell ref="I19:J19"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AD24C5A3-3A97-4775-B383-884A6DE303E8}">
   <dimension ref="A1:I1048576"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection activeCell="F37" sqref="F37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4274,7 +5385,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D829E6F4-4AF8-4D90-B023-1875E88842BF}">
   <dimension ref="A1:L1048576"/>
   <sheetViews>
